--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -716,19 +716,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>131400</v>
+        <v>123700</v>
       </c>
       <c r="E8" s="3">
-        <v>172000</v>
+        <v>161900</v>
       </c>
       <c r="F8" s="3">
-        <v>131400</v>
+        <v>123700</v>
       </c>
       <c r="G8" s="3">
-        <v>117200</v>
+        <v>110300</v>
       </c>
       <c r="H8" s="3">
-        <v>91600</v>
+        <v>86300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -746,19 +746,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>60100</v>
+        <v>56600</v>
       </c>
       <c r="E9" s="3">
-        <v>69200</v>
+        <v>65200</v>
       </c>
       <c r="F9" s="3">
-        <v>58700</v>
+        <v>55300</v>
       </c>
       <c r="G9" s="3">
-        <v>58500</v>
+        <v>55100</v>
       </c>
       <c r="H9" s="3">
-        <v>44300</v>
+        <v>41700</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -776,19 +776,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>71300</v>
+        <v>67100</v>
       </c>
       <c r="E10" s="3">
-        <v>102700</v>
+        <v>96700</v>
       </c>
       <c r="F10" s="3">
-        <v>72700</v>
+        <v>68400</v>
       </c>
       <c r="G10" s="3">
-        <v>58700</v>
+        <v>55300</v>
       </c>
       <c r="H10" s="3">
-        <v>47300</v>
+        <v>44600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>59600</v>
+        <v>56100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -910,19 +910,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="E15" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="F15" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="G15" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="H15" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -951,19 +951,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>167600</v>
+        <v>157800</v>
       </c>
       <c r="E17" s="3">
-        <v>219100</v>
+        <v>206300</v>
       </c>
       <c r="F17" s="3">
-        <v>217100</v>
+        <v>204400</v>
       </c>
       <c r="G17" s="3">
-        <v>134100</v>
+        <v>126300</v>
       </c>
       <c r="H17" s="3">
-        <v>105500</v>
+        <v>99300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -981,19 +981,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-36200</v>
+        <v>-34100</v>
       </c>
       <c r="E18" s="3">
-        <v>-47200</v>
+        <v>-44400</v>
       </c>
       <c r="F18" s="3">
-        <v>-85700</v>
+        <v>-80700</v>
       </c>
       <c r="G18" s="3">
-        <v>-16900</v>
+        <v>-15900</v>
       </c>
       <c r="H18" s="3">
-        <v>-13800</v>
+        <v>-13000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1025,13 +1025,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22200</v>
+        <v>20900</v>
       </c>
       <c r="E20" s="3">
-        <v>-7200</v>
+        <v>-6800</v>
       </c>
       <c r="F20" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
@@ -1055,19 +1055,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5900</v>
+        <v>-5500</v>
       </c>
       <c r="E21" s="3">
-        <v>-48400</v>
+        <v>-45600</v>
       </c>
       <c r="F21" s="3">
-        <v>-77800</v>
+        <v>-73300</v>
       </c>
       <c r="G21" s="3">
-        <v>-13300</v>
+        <v>-12500</v>
       </c>
       <c r="H21" s="3">
-        <v>-10500</v>
+        <v>-9900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E22" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="3">
         <v>800</v>
@@ -1115,19 +1115,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16100</v>
+        <v>-15100</v>
       </c>
       <c r="E23" s="3">
-        <v>-56100</v>
+        <v>-52800</v>
       </c>
       <c r="F23" s="3">
-        <v>-82800</v>
+        <v>-77900</v>
       </c>
       <c r="G23" s="3">
-        <v>-17400</v>
+        <v>-16400</v>
       </c>
       <c r="H23" s="3">
-        <v>-13900</v>
+        <v>-13100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1145,13 +1145,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
         <v>800</v>
       </c>
       <c r="F24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1205,19 +1205,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16800</v>
+        <v>-15800</v>
       </c>
       <c r="E26" s="3">
-        <v>-56900</v>
+        <v>-53600</v>
       </c>
       <c r="F26" s="3">
-        <v>-83400</v>
+        <v>-78500</v>
       </c>
       <c r="G26" s="3">
-        <v>-17500</v>
+        <v>-16400</v>
       </c>
       <c r="H26" s="3">
-        <v>-13300</v>
+        <v>-12500</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1235,19 +1235,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-16100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-56100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-17100</v>
-      </c>
       <c r="H27" s="3">
-        <v>-13100</v>
+        <v>-12400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1385,13 +1385,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22200</v>
+        <v>-20900</v>
       </c>
       <c r="E32" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="F32" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
@@ -1415,19 +1415,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-16100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-56100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-17100</v>
-      </c>
       <c r="H33" s="3">
-        <v>-13100</v>
+        <v>-12400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1475,19 +1475,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-16100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-56100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-17100</v>
-      </c>
       <c r="H35" s="3">
-        <v>-13100</v>
+        <v>-12400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1568,22 +1568,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30300</v>
+        <v>28600</v>
       </c>
       <c r="E41" s="3">
-        <v>34600</v>
+        <v>32600</v>
       </c>
       <c r="F41" s="3">
-        <v>21500</v>
+        <v>20300</v>
       </c>
       <c r="G41" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="H41" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I41" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1598,22 +1598,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17400</v>
+        <v>16400</v>
       </c>
       <c r="E42" s="3">
-        <v>14800</v>
+        <v>13900</v>
       </c>
       <c r="F42" s="3">
-        <v>43000</v>
+        <v>40500</v>
       </c>
       <c r="G42" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="H42" s="3">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="I42" s="3">
-        <v>17200</v>
+        <v>16200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1628,22 +1628,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>76800</v>
+        <v>72300</v>
       </c>
       <c r="E43" s="3">
-        <v>61400</v>
+        <v>57900</v>
       </c>
       <c r="F43" s="3">
-        <v>32100</v>
+        <v>30200</v>
       </c>
       <c r="G43" s="3">
-        <v>25400</v>
+        <v>23900</v>
       </c>
       <c r="H43" s="3">
-        <v>24600</v>
+        <v>23200</v>
       </c>
       <c r="I43" s="3">
-        <v>21600</v>
+        <v>20400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1673,7 +1673,7 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1688,22 +1688,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11900</v>
+        <v>11200</v>
       </c>
       <c r="E45" s="3">
-        <v>13100</v>
+        <v>12400</v>
       </c>
       <c r="F45" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="G45" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="H45" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="I45" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1718,22 +1718,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>136500</v>
+        <v>128600</v>
       </c>
       <c r="E46" s="3">
-        <v>124300</v>
+        <v>117100</v>
       </c>
       <c r="F46" s="3">
-        <v>107000</v>
+        <v>100800</v>
       </c>
       <c r="G46" s="3">
-        <v>50800</v>
+        <v>47900</v>
       </c>
       <c r="H46" s="3">
-        <v>42900</v>
+        <v>40400</v>
       </c>
       <c r="I46" s="3">
-        <v>49200</v>
+        <v>46400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1748,19 +1748,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H47" s="3">
         <v>1600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1700</v>
       </c>
       <c r="I47" s="3">
         <v>1500</v>
@@ -1778,22 +1778,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E48" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="F48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1808,22 +1808,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31400</v>
+        <v>29600</v>
       </c>
       <c r="E49" s="3">
-        <v>31200</v>
+        <v>29400</v>
       </c>
       <c r="F49" s="3">
-        <v>22600</v>
+        <v>21300</v>
       </c>
       <c r="G49" s="3">
-        <v>19800</v>
+        <v>18700</v>
       </c>
       <c r="H49" s="3">
-        <v>19000</v>
+        <v>17900</v>
       </c>
       <c r="I49" s="3">
-        <v>18700</v>
+        <v>17600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1898,19 +1898,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="E52" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F52" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -1958,22 +1958,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>176200</v>
+        <v>166100</v>
       </c>
       <c r="E54" s="3">
-        <v>163100</v>
+        <v>153700</v>
       </c>
       <c r="F54" s="3">
-        <v>134400</v>
+        <v>126700</v>
       </c>
       <c r="G54" s="3">
-        <v>75200</v>
+        <v>70800</v>
       </c>
       <c r="H54" s="3">
-        <v>65700</v>
+        <v>61900</v>
       </c>
       <c r="I54" s="3">
-        <v>71000</v>
+        <v>66900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2016,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>73900</v>
+        <v>69700</v>
       </c>
       <c r="E57" s="3">
-        <v>70900</v>
+        <v>66800</v>
       </c>
       <c r="F57" s="3">
-        <v>44200</v>
+        <v>41700</v>
       </c>
       <c r="G57" s="3">
-        <v>28800</v>
+        <v>27100</v>
       </c>
       <c r="H57" s="3">
-        <v>33000</v>
+        <v>31100</v>
       </c>
       <c r="I57" s="3">
-        <v>24700</v>
+        <v>23300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2046,22 +2046,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16200</v>
+        <v>15200</v>
       </c>
       <c r="E58" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H58" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I58" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2076,22 +2076,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49200</v>
+        <v>46400</v>
       </c>
       <c r="E59" s="3">
-        <v>73300</v>
+        <v>69000</v>
       </c>
       <c r="F59" s="3">
-        <v>37500</v>
+        <v>35300</v>
       </c>
       <c r="G59" s="3">
-        <v>18800</v>
+        <v>17700</v>
       </c>
       <c r="H59" s="3">
-        <v>14900</v>
+        <v>14000</v>
       </c>
       <c r="I59" s="3">
-        <v>8900</v>
+        <v>8400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2106,22 +2106,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>139300</v>
+        <v>131300</v>
       </c>
       <c r="E60" s="3">
-        <v>151100</v>
+        <v>142300</v>
       </c>
       <c r="F60" s="3">
-        <v>81900</v>
+        <v>77200</v>
       </c>
       <c r="G60" s="3">
-        <v>49000</v>
+        <v>46200</v>
       </c>
       <c r="H60" s="3">
-        <v>49600</v>
+        <v>46700</v>
       </c>
       <c r="I60" s="3">
-        <v>36600</v>
+        <v>34500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2139,19 +2139,19 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="F61" s="3">
         <v>400</v>
       </c>
       <c r="G61" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="H61" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I61" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="E62" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="F62" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="G62" s="3">
-        <v>14300</v>
+        <v>13500</v>
       </c>
       <c r="H62" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I62" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2286,22 +2286,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>143100</v>
+        <v>134800</v>
       </c>
       <c r="E66" s="3">
-        <v>166300</v>
+        <v>156700</v>
       </c>
       <c r="F66" s="3">
-        <v>90400</v>
+        <v>85200</v>
       </c>
       <c r="G66" s="3">
-        <v>69100</v>
+        <v>65200</v>
       </c>
       <c r="H66" s="3">
-        <v>55500</v>
+        <v>52300</v>
       </c>
       <c r="I66" s="3">
-        <v>49800</v>
+        <v>46900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2450,22 +2450,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-231900</v>
+        <v>-218600</v>
       </c>
       <c r="E72" s="3">
-        <v>-213000</v>
+        <v>-200700</v>
       </c>
       <c r="F72" s="3">
-        <v>-158200</v>
+        <v>-149100</v>
       </c>
       <c r="G72" s="3">
-        <v>-82100</v>
+        <v>-77400</v>
       </c>
       <c r="H72" s="3">
-        <v>-66600</v>
+        <v>-62700</v>
       </c>
       <c r="I72" s="3">
-        <v>-55700</v>
+        <v>-52400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2570,22 +2570,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33100</v>
+        <v>31200</v>
       </c>
       <c r="E76" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="F76" s="3">
-        <v>44100</v>
+        <v>41500</v>
       </c>
       <c r="G76" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="H76" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="I76" s="3">
-        <v>21200</v>
+        <v>20000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2665,19 +2665,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-16100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-56100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-17100</v>
-      </c>
       <c r="H81" s="3">
-        <v>-13100</v>
+        <v>-12400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2709,19 +2709,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="E83" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="F83" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="G83" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="H83" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2889,19 +2889,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-49700</v>
+        <v>-46800</v>
       </c>
       <c r="E89" s="3">
-        <v>-12400</v>
+        <v>-11700</v>
       </c>
       <c r="F89" s="3">
-        <v>-22300</v>
+        <v>-21000</v>
       </c>
       <c r="G89" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="H89" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2936,13 +2936,13 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F91" s="3">
         <v>-900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="H91" s="3">
         <v>-700</v>
@@ -3023,19 +3023,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9100</v>
+        <v>-8600</v>
       </c>
       <c r="E94" s="3">
-        <v>17100</v>
+        <v>16100</v>
       </c>
       <c r="F94" s="3">
-        <v>-33400</v>
+        <v>-31500</v>
       </c>
       <c r="G94" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="H94" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3187,16 +3187,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>40800</v>
+        <v>38400</v>
       </c>
       <c r="E100" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="F100" s="3">
-        <v>72100</v>
+        <v>67900</v>
       </c>
       <c r="G100" s="3">
-        <v>16100</v>
+        <v>15100</v>
       </c>
       <c r="H100" s="3">
         <v>600</v>
@@ -3217,7 +3217,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
@@ -3226,7 +3226,7 @@
         <v>-300</v>
       </c>
       <c r="G101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="H101" s="3">
         <v>300</v>
@@ -3247,16 +3247,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15500</v>
+        <v>-14600</v>
       </c>
       <c r="E102" s="3">
-        <v>13100</v>
+        <v>12300</v>
       </c>
       <c r="F102" s="3">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="G102" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>YTRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,76 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41730</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>123700</v>
+        <v>97800</v>
       </c>
       <c r="E8" s="3">
-        <v>161900</v>
+        <v>126100</v>
       </c>
       <c r="F8" s="3">
-        <v>123700</v>
+        <v>165000</v>
       </c>
       <c r="G8" s="3">
-        <v>110300</v>
+        <v>126000</v>
       </c>
       <c r="H8" s="3">
-        <v>86300</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>112400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>87900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -739,29 +742,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>56600</v>
+        <v>39400</v>
       </c>
       <c r="E9" s="3">
-        <v>65200</v>
+        <v>57700</v>
       </c>
       <c r="F9" s="3">
-        <v>55300</v>
+        <v>66400</v>
       </c>
       <c r="G9" s="3">
-        <v>55100</v>
+        <v>56300</v>
       </c>
       <c r="H9" s="3">
-        <v>41700</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>56100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>42500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -769,29 +775,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>67100</v>
+        <v>58400</v>
       </c>
       <c r="E10" s="3">
-        <v>96700</v>
+        <v>68400</v>
       </c>
       <c r="F10" s="3">
-        <v>68400</v>
+        <v>98600</v>
       </c>
       <c r="G10" s="3">
-        <v>55300</v>
+        <v>69700</v>
       </c>
       <c r="H10" s="3">
-        <v>44600</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>56300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -799,9 +808,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,26 +889,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>56100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>57100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -903,39 +922,45 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>7700</v>
+        <v>9000</v>
       </c>
       <c r="E15" s="3">
-        <v>5600</v>
+        <v>7800</v>
       </c>
       <c r="F15" s="3">
-        <v>3600</v>
+        <v>5700</v>
       </c>
       <c r="G15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H15" s="3">
         <v>3100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2800</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,28 +970,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>157800</v>
+        <v>106200</v>
       </c>
       <c r="E17" s="3">
-        <v>206300</v>
+        <v>160800</v>
       </c>
       <c r="F17" s="3">
-        <v>204400</v>
+        <v>210200</v>
       </c>
       <c r="G17" s="3">
-        <v>126300</v>
+        <v>208300</v>
       </c>
       <c r="H17" s="3">
-        <v>99300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>128600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>101200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -974,29 +1000,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-34100</v>
+        <v>-8400</v>
       </c>
       <c r="E18" s="3">
-        <v>-44400</v>
+        <v>-34700</v>
       </c>
       <c r="F18" s="3">
-        <v>-80700</v>
+        <v>-45300</v>
       </c>
       <c r="G18" s="3">
-        <v>-15900</v>
+        <v>-82200</v>
       </c>
       <c r="H18" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-16200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-13300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1004,9 +1033,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,28 +1051,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20900</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>-6800</v>
+        <v>21300</v>
       </c>
       <c r="F20" s="3">
-        <v>3800</v>
+        <v>-6900</v>
       </c>
       <c r="G20" s="3">
-        <v>400</v>
+        <v>3900</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>400</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1048,29 +1081,32 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5500</v>
+        <v>800</v>
       </c>
       <c r="E21" s="3">
-        <v>-45600</v>
+        <v>-5600</v>
       </c>
       <c r="F21" s="3">
-        <v>-73300</v>
+        <v>-46400</v>
       </c>
       <c r="G21" s="3">
-        <v>-12500</v>
+        <v>-74700</v>
       </c>
       <c r="H21" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-12700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-10000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1078,59 +1114,65 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="E22" s="3">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15100</v>
+        <v>-10400</v>
       </c>
       <c r="E23" s="3">
-        <v>-52800</v>
+        <v>-15400</v>
       </c>
       <c r="F23" s="3">
-        <v>-77900</v>
+        <v>-53800</v>
       </c>
       <c r="G23" s="3">
-        <v>-16400</v>
+        <v>-79400</v>
       </c>
       <c r="H23" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-16700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-13300</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1138,39 +1180,45 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
-        <v>500</v>
-      </c>
       <c r="G24" s="3">
+        <v>600</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,29 +1246,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15800</v>
+        <v>-11300</v>
       </c>
       <c r="E26" s="3">
-        <v>-53600</v>
+        <v>-16100</v>
       </c>
       <c r="F26" s="3">
-        <v>-78500</v>
+        <v>-54600</v>
       </c>
       <c r="G26" s="3">
-        <v>-16400</v>
+        <v>-80000</v>
       </c>
       <c r="H26" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-16700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-12800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1228,29 +1279,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15200</v>
+        <v>-11200</v>
       </c>
       <c r="E27" s="3">
-        <v>-52800</v>
+        <v>-15500</v>
       </c>
       <c r="F27" s="3">
-        <v>-78000</v>
+        <v>-53800</v>
       </c>
       <c r="G27" s="3">
-        <v>-16100</v>
+        <v>-79500</v>
       </c>
       <c r="H27" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-16400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-12600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1258,9 +1312,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,29 +1444,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20900</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>6800</v>
+        <v>-21300</v>
       </c>
       <c r="F32" s="3">
-        <v>-3800</v>
+        <v>6900</v>
       </c>
       <c r="G32" s="3">
-        <v>-400</v>
+        <v>-3900</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>-400</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1408,29 +1477,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15200</v>
+        <v>-11200</v>
       </c>
       <c r="E33" s="3">
-        <v>-52800</v>
+        <v>-15500</v>
       </c>
       <c r="F33" s="3">
-        <v>-78000</v>
+        <v>-53800</v>
       </c>
       <c r="G33" s="3">
-        <v>-16100</v>
+        <v>-79500</v>
       </c>
       <c r="H33" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-16400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-12600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1438,9 +1510,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,29 +1543,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15200</v>
+        <v>-11200</v>
       </c>
       <c r="E35" s="3">
-        <v>-52800</v>
+        <v>-15500</v>
       </c>
       <c r="F35" s="3">
-        <v>-78000</v>
+        <v>-53800</v>
       </c>
       <c r="G35" s="3">
-        <v>-16100</v>
+        <v>-79500</v>
       </c>
       <c r="H35" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-16400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-12600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1498,44 +1576,50 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41730</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,278 +1647,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>28600</v>
+        <v>18400</v>
       </c>
       <c r="E41" s="3">
-        <v>32600</v>
+        <v>29100</v>
       </c>
       <c r="F41" s="3">
-        <v>20300</v>
+        <v>33200</v>
       </c>
       <c r="G41" s="3">
+        <v>20600</v>
+      </c>
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="H41" s="3">
-        <v>3100</v>
-      </c>
       <c r="I41" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>3200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16400</v>
+        <v>13900</v>
       </c>
       <c r="E42" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>14200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>41300</v>
+      </c>
+      <c r="H42" s="3">
         <v>13900</v>
       </c>
-      <c r="F42" s="3">
-        <v>40500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>13600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>9900</v>
-      </c>
       <c r="I42" s="3">
-        <v>16200</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>10100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>16500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>72300</v>
+        <v>39100</v>
       </c>
       <c r="E43" s="3">
-        <v>57900</v>
+        <v>73700</v>
       </c>
       <c r="F43" s="3">
-        <v>30200</v>
+        <v>58900</v>
       </c>
       <c r="G43" s="3">
-        <v>23900</v>
+        <v>30800</v>
       </c>
       <c r="H43" s="3">
-        <v>23200</v>
+        <v>24400</v>
       </c>
       <c r="I43" s="3">
-        <v>20400</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>23600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>20700</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="E45" s="3">
-        <v>12400</v>
+        <v>11400</v>
       </c>
       <c r="F45" s="3">
-        <v>9600</v>
+        <v>12600</v>
       </c>
       <c r="G45" s="3">
-        <v>5000</v>
+        <v>9700</v>
       </c>
       <c r="H45" s="3">
-        <v>4100</v>
+        <v>5100</v>
       </c>
       <c r="I45" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>4200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>128600</v>
+        <v>82200</v>
       </c>
       <c r="E46" s="3">
-        <v>117100</v>
+        <v>130900</v>
       </c>
       <c r="F46" s="3">
-        <v>100800</v>
+        <v>119200</v>
       </c>
       <c r="G46" s="3">
-        <v>47900</v>
+        <v>102600</v>
       </c>
       <c r="H46" s="3">
-        <v>40400</v>
+        <v>48800</v>
       </c>
       <c r="I46" s="3">
-        <v>46400</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>41200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>47200</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
-        <v>3200</v>
-      </c>
       <c r="F48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
-        <v>1200</v>
-      </c>
       <c r="I48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1300</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29600</v>
+        <v>22900</v>
       </c>
       <c r="E49" s="3">
-        <v>29400</v>
+        <v>30100</v>
       </c>
       <c r="F49" s="3">
-        <v>21300</v>
+        <v>30000</v>
       </c>
       <c r="G49" s="3">
-        <v>18700</v>
+        <v>21700</v>
       </c>
       <c r="H49" s="3">
-        <v>17900</v>
+        <v>19000</v>
       </c>
       <c r="I49" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>18200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>18000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5100</v>
+        <v>4300</v>
       </c>
       <c r="E52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
-        <v>1600</v>
-      </c>
       <c r="G52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
-        <v>700</v>
-      </c>
       <c r="I52" s="3">
+        <v>800</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>166100</v>
+        <v>118000</v>
       </c>
       <c r="E54" s="3">
-        <v>153700</v>
+        <v>169100</v>
       </c>
       <c r="F54" s="3">
-        <v>126700</v>
+        <v>156500</v>
       </c>
       <c r="G54" s="3">
-        <v>70800</v>
+        <v>129000</v>
       </c>
       <c r="H54" s="3">
-        <v>61900</v>
+        <v>72100</v>
       </c>
       <c r="I54" s="3">
-        <v>66900</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>63000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>68100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2139,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>69700</v>
+        <v>38500</v>
       </c>
       <c r="E57" s="3">
-        <v>66800</v>
+        <v>70900</v>
       </c>
       <c r="F57" s="3">
-        <v>41700</v>
+        <v>68000</v>
       </c>
       <c r="G57" s="3">
-        <v>27100</v>
+        <v>42400</v>
       </c>
       <c r="H57" s="3">
-        <v>31100</v>
+        <v>27600</v>
       </c>
       <c r="I57" s="3">
-        <v>23300</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>31700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>23700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15200</v>
+        <v>14000</v>
       </c>
       <c r="E58" s="3">
-        <v>6500</v>
+        <v>15500</v>
       </c>
       <c r="F58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>1300</v>
-      </c>
       <c r="H58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46400</v>
+        <v>33800</v>
       </c>
       <c r="E59" s="3">
-        <v>69000</v>
+        <v>47200</v>
       </c>
       <c r="F59" s="3">
-        <v>35300</v>
+        <v>70300</v>
       </c>
       <c r="G59" s="3">
-        <v>17700</v>
+        <v>36000</v>
       </c>
       <c r="H59" s="3">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="I59" s="3">
-        <v>8400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>14200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>8500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>131300</v>
+        <v>86300</v>
       </c>
       <c r="E60" s="3">
-        <v>142300</v>
+        <v>133600</v>
       </c>
       <c r="F60" s="3">
-        <v>77200</v>
+        <v>144900</v>
       </c>
       <c r="G60" s="3">
-        <v>46200</v>
+        <v>78500</v>
       </c>
       <c r="H60" s="3">
-        <v>46700</v>
+        <v>47000</v>
       </c>
       <c r="I60" s="3">
-        <v>34500</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>47500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>35100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>5400</v>
-      </c>
       <c r="H61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I61" s="3">
         <v>1500</v>
       </c>
-      <c r="I61" s="3">
-        <v>2700</v>
-      </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
-        <v>9600</v>
-      </c>
       <c r="F62" s="3">
-        <v>6900</v>
+        <v>9700</v>
       </c>
       <c r="G62" s="3">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="H62" s="3">
-        <v>4000</v>
+        <v>13700</v>
       </c>
       <c r="I62" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>4100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9900</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>134800</v>
+        <v>97900</v>
       </c>
       <c r="E66" s="3">
-        <v>156700</v>
+        <v>137300</v>
       </c>
       <c r="F66" s="3">
-        <v>85200</v>
+        <v>159500</v>
       </c>
       <c r="G66" s="3">
-        <v>65200</v>
+        <v>86700</v>
       </c>
       <c r="H66" s="3">
-        <v>52300</v>
+        <v>66300</v>
       </c>
       <c r="I66" s="3">
-        <v>46900</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>53200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>47800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-218600</v>
+        <v>-233900</v>
       </c>
       <c r="E72" s="3">
-        <v>-200700</v>
+        <v>-222500</v>
       </c>
       <c r="F72" s="3">
-        <v>-149100</v>
+        <v>-204300</v>
       </c>
       <c r="G72" s="3">
-        <v>-77400</v>
+        <v>-151800</v>
       </c>
       <c r="H72" s="3">
-        <v>-62700</v>
+        <v>-78800</v>
       </c>
       <c r="I72" s="3">
-        <v>-52400</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-63900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-53400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31200</v>
+        <v>20100</v>
       </c>
       <c r="E76" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3000</v>
       </c>
-      <c r="F76" s="3">
-        <v>41500</v>
-      </c>
       <c r="G76" s="3">
-        <v>5700</v>
+        <v>42300</v>
       </c>
       <c r="H76" s="3">
-        <v>9600</v>
+        <v>5800</v>
       </c>
       <c r="I76" s="3">
-        <v>20000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>9800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>20300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,64 +2811,70 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41730</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15200</v>
+        <v>-11200</v>
       </c>
       <c r="E81" s="3">
-        <v>-52800</v>
+        <v>-15500</v>
       </c>
       <c r="F81" s="3">
-        <v>-78000</v>
+        <v>-53800</v>
       </c>
       <c r="G81" s="3">
-        <v>-16100</v>
+        <v>-79500</v>
       </c>
       <c r="H81" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-16400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-12600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2688,9 +2882,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7700</v>
+        <v>9000</v>
       </c>
       <c r="E83" s="3">
-        <v>5600</v>
+        <v>7800</v>
       </c>
       <c r="F83" s="3">
-        <v>3600</v>
+        <v>5700</v>
       </c>
       <c r="G83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H83" s="3">
         <v>3100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2800</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,29 +3095,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-46800</v>
+        <v>-7400</v>
       </c>
       <c r="E89" s="3">
-        <v>-11700</v>
+        <v>-47700</v>
       </c>
       <c r="F89" s="3">
-        <v>-21000</v>
+        <v>-11900</v>
       </c>
       <c r="G89" s="3">
-        <v>-6100</v>
+        <v>-21400</v>
       </c>
       <c r="H89" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-6200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-5200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2912,9 +3128,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-900</v>
       </c>
       <c r="G91" s="3">
         <v>-900</v>
       </c>
       <c r="H91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,29 +3242,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8600</v>
+        <v>1300</v>
       </c>
       <c r="E94" s="3">
-        <v>16100</v>
+        <v>-8800</v>
       </c>
       <c r="F94" s="3">
-        <v>-31500</v>
+        <v>16400</v>
       </c>
       <c r="G94" s="3">
-        <v>-6300</v>
+        <v>-32100</v>
       </c>
       <c r="H94" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-6400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>4300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3046,9 +3275,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>38400</v>
+        <v>-4500</v>
       </c>
       <c r="E100" s="3">
-        <v>7600</v>
+        <v>39100</v>
       </c>
       <c r="F100" s="3">
-        <v>67900</v>
+        <v>7800</v>
       </c>
       <c r="G100" s="3">
-        <v>15100</v>
+        <v>69200</v>
       </c>
       <c r="H100" s="3">
+        <v>15400</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>2500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14600</v>
+        <v>-9700</v>
       </c>
       <c r="E102" s="3">
-        <v>12300</v>
+        <v>-14800</v>
       </c>
       <c r="F102" s="3">
-        <v>15100</v>
+        <v>12600</v>
       </c>
       <c r="G102" s="3">
-        <v>2200</v>
+        <v>15400</v>
       </c>
       <c r="H102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -719,22 +719,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>97800</v>
+        <v>98200</v>
       </c>
       <c r="E8" s="3">
-        <v>126100</v>
+        <v>126600</v>
       </c>
       <c r="F8" s="3">
-        <v>165000</v>
+        <v>165700</v>
       </c>
       <c r="G8" s="3">
-        <v>126000</v>
+        <v>126600</v>
       </c>
       <c r="H8" s="3">
-        <v>112400</v>
+        <v>112900</v>
       </c>
       <c r="I8" s="3">
-        <v>87900</v>
+        <v>88300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -752,22 +752,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>39400</v>
+        <v>39500</v>
       </c>
       <c r="E9" s="3">
-        <v>57700</v>
+        <v>57900</v>
       </c>
       <c r="F9" s="3">
-        <v>66400</v>
+        <v>66700</v>
       </c>
       <c r="G9" s="3">
+        <v>56500</v>
+      </c>
+      <c r="H9" s="3">
         <v>56300</v>
       </c>
-      <c r="H9" s="3">
-        <v>56100</v>
-      </c>
       <c r="I9" s="3">
-        <v>42500</v>
+        <v>42700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -785,22 +785,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>58400</v>
+        <v>58700</v>
       </c>
       <c r="E10" s="3">
-        <v>68400</v>
+        <v>68700</v>
       </c>
       <c r="F10" s="3">
-        <v>98600</v>
+        <v>99000</v>
       </c>
       <c r="G10" s="3">
-        <v>69700</v>
+        <v>70000</v>
       </c>
       <c r="H10" s="3">
-        <v>56300</v>
+        <v>56600</v>
       </c>
       <c r="I10" s="3">
-        <v>45400</v>
+        <v>45600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>57100</v>
+        <v>57400</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -935,16 +935,16 @@
         <v>9000</v>
       </c>
       <c r="E15" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="F15" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G15" s="3">
         <v>3700</v>
       </c>
       <c r="H15" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I15" s="3">
         <v>2800</v>
@@ -977,22 +977,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>106200</v>
+        <v>106700</v>
       </c>
       <c r="E17" s="3">
-        <v>160800</v>
+        <v>161500</v>
       </c>
       <c r="F17" s="3">
-        <v>210200</v>
+        <v>211200</v>
       </c>
       <c r="G17" s="3">
-        <v>208300</v>
+        <v>209200</v>
       </c>
       <c r="H17" s="3">
-        <v>128600</v>
+        <v>129200</v>
       </c>
       <c r="I17" s="3">
-        <v>101200</v>
+        <v>101700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1010,19 +1010,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="E18" s="3">
-        <v>-34700</v>
+        <v>-34900</v>
       </c>
       <c r="F18" s="3">
-        <v>-45300</v>
+        <v>-45500</v>
       </c>
       <c r="G18" s="3">
-        <v>-82200</v>
+        <v>-82600</v>
       </c>
       <c r="H18" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="I18" s="3">
         <v>-13300</v>
@@ -1061,7 +1061,7 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>21300</v>
+        <v>21400</v>
       </c>
       <c r="F20" s="3">
         <v>-6900</v>
@@ -1094,19 +1094,19 @@
         <v>800</v>
       </c>
       <c r="E21" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="F21" s="3">
-        <v>-46400</v>
+        <v>-46600</v>
       </c>
       <c r="G21" s="3">
-        <v>-74700</v>
+        <v>-75000</v>
       </c>
       <c r="H21" s="3">
-        <v>-12700</v>
+        <v>-12800</v>
       </c>
       <c r="I21" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1160,19 +1160,19 @@
         <v>-10400</v>
       </c>
       <c r="E23" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="F23" s="3">
-        <v>-53800</v>
+        <v>-54100</v>
       </c>
       <c r="G23" s="3">
-        <v>-79400</v>
+        <v>-79800</v>
       </c>
       <c r="H23" s="3">
         <v>-16700</v>
       </c>
       <c r="I23" s="3">
-        <v>-13300</v>
+        <v>-13400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1256,19 +1256,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11300</v>
+        <v>-11400</v>
       </c>
       <c r="E26" s="3">
         <v>-16100</v>
       </c>
       <c r="F26" s="3">
-        <v>-54600</v>
+        <v>-54800</v>
       </c>
       <c r="G26" s="3">
-        <v>-80000</v>
+        <v>-80300</v>
       </c>
       <c r="H26" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="I26" s="3">
         <v>-12800</v>
@@ -1289,22 +1289,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="E27" s="3">
         <v>-15500</v>
       </c>
       <c r="F27" s="3">
-        <v>-53800</v>
+        <v>-54000</v>
       </c>
       <c r="G27" s="3">
-        <v>-79500</v>
+        <v>-79800</v>
       </c>
       <c r="H27" s="3">
-        <v>-16400</v>
+        <v>-16500</v>
       </c>
       <c r="I27" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1457,7 +1457,7 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-21300</v>
+        <v>-21400</v>
       </c>
       <c r="F32" s="3">
         <v>6900</v>
@@ -1487,22 +1487,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="E33" s="3">
         <v>-15500</v>
       </c>
       <c r="F33" s="3">
-        <v>-53800</v>
+        <v>-54000</v>
       </c>
       <c r="G33" s="3">
-        <v>-79500</v>
+        <v>-79800</v>
       </c>
       <c r="H33" s="3">
-        <v>-16400</v>
+        <v>-16500</v>
       </c>
       <c r="I33" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1553,22 +1553,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="E35" s="3">
         <v>-15500</v>
       </c>
       <c r="F35" s="3">
-        <v>-53800</v>
+        <v>-54000</v>
       </c>
       <c r="G35" s="3">
-        <v>-79500</v>
+        <v>-79800</v>
       </c>
       <c r="H35" s="3">
-        <v>-16400</v>
+        <v>-16500</v>
       </c>
       <c r="I35" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1654,19 +1654,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="E41" s="3">
-        <v>29100</v>
+        <v>29200</v>
       </c>
       <c r="F41" s="3">
-        <v>33200</v>
+        <v>33400</v>
       </c>
       <c r="G41" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="H41" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="I41" s="3">
         <v>3200</v>
@@ -1690,13 +1690,13 @@
         <v>13900</v>
       </c>
       <c r="E42" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="F42" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="G42" s="3">
-        <v>41300</v>
+        <v>41500</v>
       </c>
       <c r="H42" s="3">
         <v>13900</v>
@@ -1705,7 +1705,7 @@
         <v>10100</v>
       </c>
       <c r="J42" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39100</v>
+        <v>39300</v>
       </c>
       <c r="E43" s="3">
-        <v>73700</v>
+        <v>74000</v>
       </c>
       <c r="F43" s="3">
-        <v>58900</v>
+        <v>59200</v>
       </c>
       <c r="G43" s="3">
-        <v>30800</v>
+        <v>30900</v>
       </c>
       <c r="H43" s="3">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="I43" s="3">
-        <v>23600</v>
+        <v>23800</v>
       </c>
       <c r="J43" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1786,19 +1786,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="E45" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="F45" s="3">
         <v>12600</v>
       </c>
       <c r="G45" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="H45" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I45" s="3">
         <v>4200</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>82200</v>
+        <v>82600</v>
       </c>
       <c r="E46" s="3">
-        <v>130900</v>
+        <v>131500</v>
       </c>
       <c r="F46" s="3">
-        <v>119200</v>
+        <v>119700</v>
       </c>
       <c r="G46" s="3">
-        <v>102600</v>
+        <v>103100</v>
       </c>
       <c r="H46" s="3">
-        <v>48800</v>
+        <v>49000</v>
       </c>
       <c r="I46" s="3">
-        <v>41200</v>
+        <v>41400</v>
       </c>
       <c r="J46" s="3">
-        <v>47200</v>
+        <v>47400</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1918,22 +1918,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="E49" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F49" s="3">
         <v>30100</v>
       </c>
-      <c r="F49" s="3">
-        <v>30000</v>
-      </c>
       <c r="G49" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="H49" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="I49" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="J49" s="3">
         <v>18000</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>118000</v>
+        <v>118500</v>
       </c>
       <c r="E54" s="3">
-        <v>169100</v>
+        <v>169800</v>
       </c>
       <c r="F54" s="3">
-        <v>156500</v>
+        <v>157200</v>
       </c>
       <c r="G54" s="3">
-        <v>129000</v>
+        <v>129500</v>
       </c>
       <c r="H54" s="3">
-        <v>72100</v>
+        <v>72400</v>
       </c>
       <c r="I54" s="3">
-        <v>63000</v>
+        <v>63300</v>
       </c>
       <c r="J54" s="3">
-        <v>68100</v>
+        <v>68400</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>38500</v>
+        <v>38700</v>
       </c>
       <c r="E57" s="3">
-        <v>70900</v>
+        <v>71200</v>
       </c>
       <c r="F57" s="3">
-        <v>68000</v>
+        <v>68300</v>
       </c>
       <c r="G57" s="3">
-        <v>42400</v>
+        <v>42600</v>
       </c>
       <c r="H57" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="I57" s="3">
-        <v>31700</v>
+        <v>31800</v>
       </c>
       <c r="J57" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2179,13 +2179,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="E58" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="F58" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -2212,22 +2212,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33800</v>
+        <v>33900</v>
       </c>
       <c r="E59" s="3">
-        <v>47200</v>
+        <v>47400</v>
       </c>
       <c r="F59" s="3">
-        <v>70300</v>
+        <v>70600</v>
       </c>
       <c r="G59" s="3">
-        <v>36000</v>
+        <v>36100</v>
       </c>
       <c r="H59" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="I59" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="J59" s="3">
         <v>8500</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>86300</v>
+        <v>86700</v>
       </c>
       <c r="E60" s="3">
-        <v>133600</v>
+        <v>134200</v>
       </c>
       <c r="F60" s="3">
-        <v>144900</v>
+        <v>145600</v>
       </c>
       <c r="G60" s="3">
-        <v>78500</v>
+        <v>78900</v>
       </c>
       <c r="H60" s="3">
-        <v>47000</v>
+        <v>47200</v>
       </c>
       <c r="I60" s="3">
-        <v>47500</v>
+        <v>47800</v>
       </c>
       <c r="J60" s="3">
-        <v>35100</v>
+        <v>35300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2278,13 +2278,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G61" s="3">
         <v>400</v>
@@ -2314,22 +2314,22 @@
         <v>4800</v>
       </c>
       <c r="E62" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F62" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="G62" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="H62" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="I62" s="3">
         <v>4100</v>
       </c>
       <c r="J62" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97900</v>
+        <v>98300</v>
       </c>
       <c r="E66" s="3">
-        <v>137300</v>
+        <v>137900</v>
       </c>
       <c r="F66" s="3">
-        <v>159500</v>
+        <v>160200</v>
       </c>
       <c r="G66" s="3">
-        <v>86700</v>
+        <v>87100</v>
       </c>
       <c r="H66" s="3">
-        <v>66300</v>
+        <v>66600</v>
       </c>
       <c r="I66" s="3">
-        <v>53200</v>
+        <v>53500</v>
       </c>
       <c r="J66" s="3">
-        <v>47800</v>
+        <v>48000</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-233900</v>
+        <v>-234900</v>
       </c>
       <c r="E72" s="3">
-        <v>-222500</v>
+        <v>-223500</v>
       </c>
       <c r="F72" s="3">
-        <v>-204300</v>
+        <v>-205200</v>
       </c>
       <c r="G72" s="3">
-        <v>-151800</v>
+        <v>-152500</v>
       </c>
       <c r="H72" s="3">
-        <v>-78800</v>
+        <v>-79100</v>
       </c>
       <c r="I72" s="3">
-        <v>-63900</v>
+        <v>-64100</v>
       </c>
       <c r="J72" s="3">
-        <v>-53400</v>
+        <v>-53600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="E76" s="3">
-        <v>31800</v>
+        <v>31900</v>
       </c>
       <c r="F76" s="3">
         <v>-3000</v>
       </c>
       <c r="G76" s="3">
-        <v>42300</v>
+        <v>42500</v>
       </c>
       <c r="H76" s="3">
         <v>5800</v>
       </c>
       <c r="I76" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="J76" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2859,22 +2859,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="E81" s="3">
         <v>-15500</v>
       </c>
       <c r="F81" s="3">
-        <v>-53800</v>
+        <v>-54000</v>
       </c>
       <c r="G81" s="3">
-        <v>-79500</v>
+        <v>-79800</v>
       </c>
       <c r="H81" s="3">
-        <v>-16400</v>
+        <v>-16500</v>
       </c>
       <c r="I81" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2910,16 +2910,16 @@
         <v>9000</v>
       </c>
       <c r="E83" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="F83" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G83" s="3">
         <v>3700</v>
       </c>
       <c r="H83" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I83" s="3">
         <v>2800</v>
@@ -3108,13 +3108,13 @@
         <v>-7400</v>
       </c>
       <c r="E89" s="3">
-        <v>-47700</v>
+        <v>-47900</v>
       </c>
       <c r="F89" s="3">
         <v>-11900</v>
       </c>
       <c r="G89" s="3">
-        <v>-21400</v>
+        <v>-21500</v>
       </c>
       <c r="H89" s="3">
         <v>-6200</v>
@@ -3258,10 +3258,10 @@
         <v>-8800</v>
       </c>
       <c r="F94" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="G94" s="3">
-        <v>-32100</v>
+        <v>-32200</v>
       </c>
       <c r="H94" s="3">
         <v>-6400</v>
@@ -3435,16 +3435,16 @@
         <v>-4500</v>
       </c>
       <c r="E100" s="3">
-        <v>39100</v>
+        <v>39300</v>
       </c>
       <c r="F100" s="3">
         <v>7800</v>
       </c>
       <c r="G100" s="3">
-        <v>69200</v>
+        <v>69500</v>
       </c>
       <c r="H100" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="I100" s="3">
         <v>600</v>
@@ -3501,13 +3501,13 @@
         <v>-9700</v>
       </c>
       <c r="E102" s="3">
-        <v>-14800</v>
+        <v>-14900</v>
       </c>
       <c r="F102" s="3">
         <v>12600</v>
       </c>
       <c r="G102" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="H102" s="3">
         <v>2300</v>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -719,22 +719,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>98200</v>
+        <v>99900</v>
       </c>
       <c r="E8" s="3">
-        <v>126600</v>
+        <v>128800</v>
       </c>
       <c r="F8" s="3">
-        <v>165700</v>
+        <v>168500</v>
       </c>
       <c r="G8" s="3">
-        <v>126600</v>
+        <v>128700</v>
       </c>
       <c r="H8" s="3">
-        <v>112900</v>
+        <v>114800</v>
       </c>
       <c r="I8" s="3">
-        <v>88300</v>
+        <v>89800</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -752,22 +752,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>39500</v>
+        <v>40200</v>
       </c>
       <c r="E9" s="3">
-        <v>57900</v>
+        <v>58900</v>
       </c>
       <c r="F9" s="3">
-        <v>66700</v>
+        <v>67800</v>
       </c>
       <c r="G9" s="3">
-        <v>56500</v>
+        <v>57500</v>
       </c>
       <c r="H9" s="3">
-        <v>56300</v>
+        <v>57300</v>
       </c>
       <c r="I9" s="3">
-        <v>42700</v>
+        <v>43400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -785,22 +785,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>58700</v>
+        <v>59700</v>
       </c>
       <c r="E10" s="3">
-        <v>68700</v>
+        <v>69800</v>
       </c>
       <c r="F10" s="3">
-        <v>99000</v>
+        <v>100700</v>
       </c>
       <c r="G10" s="3">
-        <v>70000</v>
+        <v>71200</v>
       </c>
       <c r="H10" s="3">
-        <v>56600</v>
+        <v>57500</v>
       </c>
       <c r="I10" s="3">
-        <v>45600</v>
+        <v>46400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -899,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -932,22 +932,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="E15" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="F15" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G15" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H15" s="3">
         <v>3200</v>
       </c>
       <c r="I15" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -977,22 +977,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>106700</v>
+        <v>108500</v>
       </c>
       <c r="E17" s="3">
-        <v>161500</v>
+        <v>164300</v>
       </c>
       <c r="F17" s="3">
-        <v>211200</v>
+        <v>214800</v>
       </c>
       <c r="G17" s="3">
-        <v>209200</v>
+        <v>212800</v>
       </c>
       <c r="H17" s="3">
-        <v>129200</v>
+        <v>131400</v>
       </c>
       <c r="I17" s="3">
-        <v>101700</v>
+        <v>103400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1010,22 +1010,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="E18" s="3">
-        <v>-34900</v>
+        <v>-35500</v>
       </c>
       <c r="F18" s="3">
-        <v>-45500</v>
+        <v>-46200</v>
       </c>
       <c r="G18" s="3">
-        <v>-82600</v>
+        <v>-84000</v>
       </c>
       <c r="H18" s="3">
-        <v>-16300</v>
+        <v>-16600</v>
       </c>
       <c r="I18" s="3">
-        <v>-13300</v>
+        <v>-13600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1061,13 +1061,13 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>21400</v>
+        <v>21700</v>
       </c>
       <c r="F20" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="G20" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
@@ -1097,16 +1097,16 @@
         <v>-5700</v>
       </c>
       <c r="F21" s="3">
-        <v>-46600</v>
+        <v>-47400</v>
       </c>
       <c r="G21" s="3">
-        <v>-75000</v>
+        <v>-76300</v>
       </c>
       <c r="H21" s="3">
-        <v>-12800</v>
+        <v>-13000</v>
       </c>
       <c r="I21" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1133,7 +1133,7 @@
         <v>1700</v>
       </c>
       <c r="G22" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H22" s="3">
         <v>800</v>
@@ -1157,22 +1157,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="E23" s="3">
-        <v>-15500</v>
+        <v>-15800</v>
       </c>
       <c r="F23" s="3">
-        <v>-54100</v>
+        <v>-55000</v>
       </c>
       <c r="G23" s="3">
-        <v>-79800</v>
+        <v>-81100</v>
       </c>
       <c r="H23" s="3">
-        <v>-16700</v>
+        <v>-17000</v>
       </c>
       <c r="I23" s="3">
-        <v>-13400</v>
+        <v>-13600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1190,10 +1190,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F24" s="3">
         <v>800</v>
@@ -1256,22 +1256,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="E26" s="3">
-        <v>-16100</v>
+        <v>-16400</v>
       </c>
       <c r="F26" s="3">
-        <v>-54800</v>
+        <v>-55800</v>
       </c>
       <c r="G26" s="3">
-        <v>-80300</v>
+        <v>-81700</v>
       </c>
       <c r="H26" s="3">
-        <v>-16800</v>
+        <v>-17100</v>
       </c>
       <c r="I26" s="3">
-        <v>-12800</v>
+        <v>-13000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1289,22 +1289,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="E27" s="3">
-        <v>-15500</v>
+        <v>-15800</v>
       </c>
       <c r="F27" s="3">
-        <v>-54000</v>
+        <v>-54900</v>
       </c>
       <c r="G27" s="3">
-        <v>-79800</v>
+        <v>-81200</v>
       </c>
       <c r="H27" s="3">
-        <v>-16500</v>
+        <v>-16800</v>
       </c>
       <c r="I27" s="3">
-        <v>-12700</v>
+        <v>-12900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1457,13 +1457,13 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-21400</v>
+        <v>-21700</v>
       </c>
       <c r="F32" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="G32" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
@@ -1487,22 +1487,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="E33" s="3">
-        <v>-15500</v>
+        <v>-15800</v>
       </c>
       <c r="F33" s="3">
-        <v>-54000</v>
+        <v>-54900</v>
       </c>
       <c r="G33" s="3">
-        <v>-79800</v>
+        <v>-81200</v>
       </c>
       <c r="H33" s="3">
-        <v>-16500</v>
+        <v>-16800</v>
       </c>
       <c r="I33" s="3">
-        <v>-12700</v>
+        <v>-12900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1553,22 +1553,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="E35" s="3">
-        <v>-15500</v>
+        <v>-15800</v>
       </c>
       <c r="F35" s="3">
-        <v>-54000</v>
+        <v>-54900</v>
       </c>
       <c r="G35" s="3">
-        <v>-79800</v>
+        <v>-81200</v>
       </c>
       <c r="H35" s="3">
-        <v>-16500</v>
+        <v>-16800</v>
       </c>
       <c r="I35" s="3">
-        <v>-12700</v>
+        <v>-12900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18500</v>
+        <v>18800</v>
       </c>
       <c r="E41" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="F41" s="3">
-        <v>33400</v>
+        <v>33900</v>
       </c>
       <c r="G41" s="3">
-        <v>20700</v>
+        <v>21100</v>
       </c>
       <c r="H41" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I41" s="3">
         <v>3200</v>
       </c>
       <c r="J41" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1687,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="E42" s="3">
-        <v>16800</v>
+        <v>17000</v>
       </c>
       <c r="F42" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="G42" s="3">
-        <v>41500</v>
+        <v>42200</v>
       </c>
       <c r="H42" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="I42" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="J42" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39300</v>
+        <v>39900</v>
       </c>
       <c r="E43" s="3">
-        <v>74000</v>
+        <v>75200</v>
       </c>
       <c r="F43" s="3">
-        <v>59200</v>
+        <v>60200</v>
       </c>
       <c r="G43" s="3">
-        <v>30900</v>
+        <v>31400</v>
       </c>
       <c r="H43" s="3">
-        <v>24500</v>
+        <v>24900</v>
       </c>
       <c r="I43" s="3">
-        <v>23800</v>
+        <v>24200</v>
       </c>
       <c r="J43" s="3">
-        <v>20800</v>
+        <v>21200</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="E45" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="F45" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="G45" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="H45" s="3">
         <v>5200</v>
       </c>
       <c r="I45" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J45" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>82600</v>
+        <v>84000</v>
       </c>
       <c r="E46" s="3">
-        <v>131500</v>
+        <v>133700</v>
       </c>
       <c r="F46" s="3">
-        <v>119700</v>
+        <v>121800</v>
       </c>
       <c r="G46" s="3">
-        <v>103100</v>
+        <v>104800</v>
       </c>
       <c r="H46" s="3">
-        <v>49000</v>
+        <v>49800</v>
       </c>
       <c r="I46" s="3">
-        <v>41400</v>
+        <v>42100</v>
       </c>
       <c r="J46" s="3">
-        <v>47400</v>
+        <v>48200</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1867,7 +1867,7 @@
         <v>1500</v>
       </c>
       <c r="I47" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J47" s="3">
         <v>1500</v>
@@ -1885,7 +1885,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="E48" s="3">
         <v>2100</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23000</v>
+        <v>23400</v>
       </c>
       <c r="E49" s="3">
-        <v>30300</v>
+        <v>30800</v>
       </c>
       <c r="F49" s="3">
-        <v>30100</v>
+        <v>30600</v>
       </c>
       <c r="G49" s="3">
-        <v>21800</v>
+        <v>22100</v>
       </c>
       <c r="H49" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="I49" s="3">
-        <v>18300</v>
+        <v>18600</v>
       </c>
       <c r="J49" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2017,19 +2017,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E52" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F52" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G52" s="3">
         <v>1700</v>
       </c>
       <c r="H52" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>800</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>118500</v>
+        <v>120500</v>
       </c>
       <c r="E54" s="3">
-        <v>169800</v>
+        <v>172700</v>
       </c>
       <c r="F54" s="3">
-        <v>157200</v>
+        <v>159800</v>
       </c>
       <c r="G54" s="3">
-        <v>129500</v>
+        <v>131700</v>
       </c>
       <c r="H54" s="3">
-        <v>72400</v>
+        <v>73700</v>
       </c>
       <c r="I54" s="3">
-        <v>63300</v>
+        <v>64400</v>
       </c>
       <c r="J54" s="3">
-        <v>68400</v>
+        <v>69600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>38700</v>
+        <v>39300</v>
       </c>
       <c r="E57" s="3">
-        <v>71200</v>
+        <v>72400</v>
       </c>
       <c r="F57" s="3">
-        <v>68300</v>
+        <v>69500</v>
       </c>
       <c r="G57" s="3">
-        <v>42600</v>
+        <v>43300</v>
       </c>
       <c r="H57" s="3">
-        <v>27800</v>
+        <v>28200</v>
       </c>
       <c r="I57" s="3">
-        <v>31800</v>
+        <v>32300</v>
       </c>
       <c r="J57" s="3">
-        <v>23800</v>
+        <v>24200</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2179,13 +2179,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="E58" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="F58" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -2194,10 +2194,10 @@
         <v>1400</v>
       </c>
       <c r="I58" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J58" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33900</v>
+        <v>34500</v>
       </c>
       <c r="E59" s="3">
-        <v>47400</v>
+        <v>48200</v>
       </c>
       <c r="F59" s="3">
-        <v>70600</v>
+        <v>71800</v>
       </c>
       <c r="G59" s="3">
-        <v>36100</v>
+        <v>36700</v>
       </c>
       <c r="H59" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="I59" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="J59" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>86700</v>
+        <v>88200</v>
       </c>
       <c r="E60" s="3">
-        <v>134200</v>
+        <v>136500</v>
       </c>
       <c r="F60" s="3">
-        <v>145600</v>
+        <v>148000</v>
       </c>
       <c r="G60" s="3">
-        <v>78900</v>
+        <v>80200</v>
       </c>
       <c r="H60" s="3">
-        <v>47200</v>
+        <v>48000</v>
       </c>
       <c r="I60" s="3">
-        <v>47800</v>
+        <v>48600</v>
       </c>
       <c r="J60" s="3">
-        <v>35300</v>
+        <v>35900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2278,22 +2278,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G61" s="3">
         <v>400</v>
       </c>
       <c r="H61" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I61" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J61" s="3">
         <v>2800</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E62" s="3">
         <v>3100</v>
       </c>
       <c r="F62" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="G62" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H62" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="I62" s="3">
         <v>4100</v>
       </c>
       <c r="J62" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>98300</v>
+        <v>100000</v>
       </c>
       <c r="E66" s="3">
-        <v>137900</v>
+        <v>140200</v>
       </c>
       <c r="F66" s="3">
-        <v>160200</v>
+        <v>162900</v>
       </c>
       <c r="G66" s="3">
-        <v>87100</v>
+        <v>88600</v>
       </c>
       <c r="H66" s="3">
-        <v>66600</v>
+        <v>67800</v>
       </c>
       <c r="I66" s="3">
-        <v>53500</v>
+        <v>54400</v>
       </c>
       <c r="J66" s="3">
-        <v>48000</v>
+        <v>48800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-234900</v>
+        <v>-238900</v>
       </c>
       <c r="E72" s="3">
-        <v>-223500</v>
+        <v>-227300</v>
       </c>
       <c r="F72" s="3">
-        <v>-205200</v>
+        <v>-208700</v>
       </c>
       <c r="G72" s="3">
-        <v>-152500</v>
+        <v>-155100</v>
       </c>
       <c r="H72" s="3">
-        <v>-79100</v>
+        <v>-80500</v>
       </c>
       <c r="I72" s="3">
-        <v>-64100</v>
+        <v>-65200</v>
       </c>
       <c r="J72" s="3">
-        <v>-53600</v>
+        <v>-54500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20200</v>
+        <v>20500</v>
       </c>
       <c r="E76" s="3">
-        <v>31900</v>
+        <v>32500</v>
       </c>
       <c r="F76" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="G76" s="3">
-        <v>42500</v>
+        <v>43200</v>
       </c>
       <c r="H76" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="I76" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="J76" s="3">
-        <v>20400</v>
+        <v>20800</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2859,22 +2859,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="E81" s="3">
-        <v>-15500</v>
+        <v>-15800</v>
       </c>
       <c r="F81" s="3">
-        <v>-54000</v>
+        <v>-54900</v>
       </c>
       <c r="G81" s="3">
-        <v>-79800</v>
+        <v>-81200</v>
       </c>
       <c r="H81" s="3">
-        <v>-16500</v>
+        <v>-16800</v>
       </c>
       <c r="I81" s="3">
-        <v>-12700</v>
+        <v>-12900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2907,22 +2907,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="E83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="F83" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G83" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H83" s="3">
         <v>3200</v>
       </c>
       <c r="I83" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3105,22 +3105,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="E89" s="3">
-        <v>-47900</v>
+        <v>-48700</v>
       </c>
       <c r="F89" s="3">
-        <v>-11900</v>
+        <v>-12100</v>
       </c>
       <c r="G89" s="3">
-        <v>-21500</v>
+        <v>-21900</v>
       </c>
       <c r="H89" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="I89" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3159,7 +3159,7 @@
         <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="G91" s="3">
         <v>-900</v>
@@ -3255,19 +3255,19 @@
         <v>1300</v>
       </c>
       <c r="E94" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="F94" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="G94" s="3">
-        <v>-32200</v>
+        <v>-32800</v>
       </c>
       <c r="H94" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="I94" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3432,19 +3432,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="E100" s="3">
-        <v>39300</v>
+        <v>40000</v>
       </c>
       <c r="F100" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G100" s="3">
-        <v>69500</v>
+        <v>70700</v>
       </c>
       <c r="H100" s="3">
-        <v>15500</v>
+        <v>15700</v>
       </c>
       <c r="I100" s="3">
         <v>600</v>
@@ -3465,10 +3465,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F101" s="3">
         <v>200</v>
@@ -3498,16 +3498,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9700</v>
+        <v>-9900</v>
       </c>
       <c r="E102" s="3">
-        <v>-14900</v>
+        <v>-15200</v>
       </c>
       <c r="F102" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="G102" s="3">
-        <v>15500</v>
+        <v>15700</v>
       </c>
       <c r="H102" s="3">
         <v>2300</v>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -719,22 +719,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>99900</v>
+        <v>99700</v>
       </c>
       <c r="E8" s="3">
-        <v>128800</v>
+        <v>128600</v>
       </c>
       <c r="F8" s="3">
-        <v>168500</v>
+        <v>168300</v>
       </c>
       <c r="G8" s="3">
-        <v>128700</v>
+        <v>128600</v>
       </c>
       <c r="H8" s="3">
-        <v>114800</v>
+        <v>114700</v>
       </c>
       <c r="I8" s="3">
-        <v>89800</v>
+        <v>89700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -755,16 +755,16 @@
         <v>40200</v>
       </c>
       <c r="E9" s="3">
-        <v>58900</v>
+        <v>58800</v>
       </c>
       <c r="F9" s="3">
-        <v>67800</v>
+        <v>67700</v>
       </c>
       <c r="G9" s="3">
-        <v>57500</v>
+        <v>57400</v>
       </c>
       <c r="H9" s="3">
-        <v>57300</v>
+        <v>57200</v>
       </c>
       <c r="I9" s="3">
         <v>43400</v>
@@ -785,22 +785,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>59700</v>
+        <v>59600</v>
       </c>
       <c r="E10" s="3">
-        <v>69800</v>
+        <v>69700</v>
       </c>
       <c r="F10" s="3">
-        <v>100700</v>
+        <v>100500</v>
       </c>
       <c r="G10" s="3">
-        <v>71200</v>
+        <v>71100</v>
       </c>
       <c r="H10" s="3">
-        <v>57500</v>
+        <v>57400</v>
       </c>
       <c r="I10" s="3">
-        <v>46400</v>
+        <v>46300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>58400</v>
+        <v>58300</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>8000</v>
       </c>
       <c r="F15" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G15" s="3">
         <v>3800</v>
@@ -977,22 +977,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>108500</v>
+        <v>108300</v>
       </c>
       <c r="E17" s="3">
-        <v>164300</v>
+        <v>164000</v>
       </c>
       <c r="F17" s="3">
-        <v>214800</v>
+        <v>214500</v>
       </c>
       <c r="G17" s="3">
-        <v>212800</v>
+        <v>212500</v>
       </c>
       <c r="H17" s="3">
-        <v>131400</v>
+        <v>131200</v>
       </c>
       <c r="I17" s="3">
-        <v>103400</v>
+        <v>103200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1013,19 +1013,19 @@
         <v>-8600</v>
       </c>
       <c r="E18" s="3">
-        <v>-35500</v>
+        <v>-35400</v>
       </c>
       <c r="F18" s="3">
         <v>-46200</v>
       </c>
       <c r="G18" s="3">
-        <v>-84000</v>
+        <v>-83900</v>
       </c>
       <c r="H18" s="3">
         <v>-16600</v>
       </c>
       <c r="I18" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1064,10 +1064,10 @@
         <v>21700</v>
       </c>
       <c r="F20" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="G20" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
@@ -1100,7 +1100,7 @@
         <v>-47400</v>
       </c>
       <c r="G21" s="3">
-        <v>-76300</v>
+        <v>-76200</v>
       </c>
       <c r="H21" s="3">
         <v>-13000</v>
@@ -1160,13 +1160,13 @@
         <v>-10600</v>
       </c>
       <c r="E23" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="F23" s="3">
-        <v>-55000</v>
+        <v>-54900</v>
       </c>
       <c r="G23" s="3">
-        <v>-81100</v>
+        <v>-81000</v>
       </c>
       <c r="H23" s="3">
         <v>-17000</v>
@@ -1256,16 +1256,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="E26" s="3">
         <v>-16400</v>
       </c>
       <c r="F26" s="3">
-        <v>-55800</v>
+        <v>-55700</v>
       </c>
       <c r="G26" s="3">
-        <v>-81700</v>
+        <v>-81600</v>
       </c>
       <c r="H26" s="3">
         <v>-17100</v>
@@ -1298,10 +1298,10 @@
         <v>-54900</v>
       </c>
       <c r="G27" s="3">
-        <v>-81200</v>
+        <v>-81100</v>
       </c>
       <c r="H27" s="3">
-        <v>-16800</v>
+        <v>-16700</v>
       </c>
       <c r="I27" s="3">
         <v>-12900</v>
@@ -1460,10 +1460,10 @@
         <v>-21700</v>
       </c>
       <c r="F32" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="G32" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
@@ -1496,10 +1496,10 @@
         <v>-54900</v>
       </c>
       <c r="G33" s="3">
-        <v>-81200</v>
+        <v>-81100</v>
       </c>
       <c r="H33" s="3">
-        <v>-16800</v>
+        <v>-16700</v>
       </c>
       <c r="I33" s="3">
         <v>-12900</v>
@@ -1562,10 +1562,10 @@
         <v>-54900</v>
       </c>
       <c r="G35" s="3">
-        <v>-81200</v>
+        <v>-81100</v>
       </c>
       <c r="H35" s="3">
-        <v>-16800</v>
+        <v>-16700</v>
       </c>
       <c r="I35" s="3">
         <v>-12900</v>
@@ -1687,7 +1687,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="E42" s="3">
         <v>17000</v>
@@ -1696,7 +1696,7 @@
         <v>14500</v>
       </c>
       <c r="G42" s="3">
-        <v>42200</v>
+        <v>42100</v>
       </c>
       <c r="H42" s="3">
         <v>14200</v>
@@ -1705,7 +1705,7 @@
         <v>10300</v>
       </c>
       <c r="J42" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1723,22 +1723,22 @@
         <v>39900</v>
       </c>
       <c r="E43" s="3">
-        <v>75200</v>
+        <v>75100</v>
       </c>
       <c r="F43" s="3">
-        <v>60200</v>
+        <v>60100</v>
       </c>
       <c r="G43" s="3">
         <v>31400</v>
       </c>
       <c r="H43" s="3">
-        <v>24900</v>
+        <v>24800</v>
       </c>
       <c r="I43" s="3">
-        <v>24200</v>
+        <v>24100</v>
       </c>
       <c r="J43" s="3">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1801,7 +1801,7 @@
         <v>5200</v>
       </c>
       <c r="I45" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="J45" s="3">
         <v>5200</v>
@@ -1819,22 +1819,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>84000</v>
+        <v>83900</v>
       </c>
       <c r="E46" s="3">
-        <v>133700</v>
+        <v>133600</v>
       </c>
       <c r="F46" s="3">
-        <v>121800</v>
+        <v>121600</v>
       </c>
       <c r="G46" s="3">
-        <v>104800</v>
+        <v>104700</v>
       </c>
       <c r="H46" s="3">
         <v>49800</v>
       </c>
       <c r="I46" s="3">
-        <v>42100</v>
+        <v>42000</v>
       </c>
       <c r="J46" s="3">
         <v>48200</v>
@@ -1921,7 +1921,7 @@
         <v>23400</v>
       </c>
       <c r="E49" s="3">
-        <v>30800</v>
+        <v>30700</v>
       </c>
       <c r="F49" s="3">
         <v>30600</v>
@@ -1936,7 +1936,7 @@
         <v>18600</v>
       </c>
       <c r="J49" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>120500</v>
+        <v>120300</v>
       </c>
       <c r="E54" s="3">
-        <v>172700</v>
+        <v>172500</v>
       </c>
       <c r="F54" s="3">
-        <v>159800</v>
+        <v>159600</v>
       </c>
       <c r="G54" s="3">
-        <v>131700</v>
+        <v>131600</v>
       </c>
       <c r="H54" s="3">
-        <v>73700</v>
+        <v>73600</v>
       </c>
       <c r="I54" s="3">
-        <v>64400</v>
+        <v>64300</v>
       </c>
       <c r="J54" s="3">
-        <v>69600</v>
+        <v>69500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2149,10 +2149,10 @@
         <v>39300</v>
       </c>
       <c r="E57" s="3">
-        <v>72400</v>
+        <v>72300</v>
       </c>
       <c r="F57" s="3">
-        <v>69500</v>
+        <v>69400</v>
       </c>
       <c r="G57" s="3">
         <v>43300</v>
@@ -2218,7 +2218,7 @@
         <v>48200</v>
       </c>
       <c r="F59" s="3">
-        <v>71800</v>
+        <v>71700</v>
       </c>
       <c r="G59" s="3">
         <v>36700</v>
@@ -2227,7 +2227,7 @@
         <v>18400</v>
       </c>
       <c r="I59" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="J59" s="3">
         <v>8700</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>88200</v>
+        <v>88000</v>
       </c>
       <c r="E60" s="3">
-        <v>136500</v>
+        <v>136300</v>
       </c>
       <c r="F60" s="3">
-        <v>148000</v>
+        <v>147800</v>
       </c>
       <c r="G60" s="3">
-        <v>80200</v>
+        <v>80100</v>
       </c>
       <c r="H60" s="3">
-        <v>48000</v>
+        <v>47900</v>
       </c>
       <c r="I60" s="3">
-        <v>48600</v>
+        <v>48500</v>
       </c>
       <c r="J60" s="3">
-        <v>35900</v>
+        <v>35800</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2284,7 +2284,7 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G61" s="3">
         <v>400</v>
@@ -2317,7 +2317,7 @@
         <v>3100</v>
       </c>
       <c r="F62" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="G62" s="3">
         <v>7200</v>
@@ -2443,22 +2443,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100000</v>
+        <v>99800</v>
       </c>
       <c r="E66" s="3">
-        <v>140200</v>
+        <v>140000</v>
       </c>
       <c r="F66" s="3">
-        <v>162900</v>
+        <v>162700</v>
       </c>
       <c r="G66" s="3">
-        <v>88600</v>
+        <v>88400</v>
       </c>
       <c r="H66" s="3">
-        <v>67800</v>
+        <v>67700</v>
       </c>
       <c r="I66" s="3">
-        <v>54400</v>
+        <v>54300</v>
       </c>
       <c r="J66" s="3">
         <v>48800</v>
@@ -2623,22 +2623,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-238900</v>
+        <v>-238600</v>
       </c>
       <c r="E72" s="3">
-        <v>-227300</v>
+        <v>-227000</v>
       </c>
       <c r="F72" s="3">
-        <v>-208700</v>
+        <v>-208400</v>
       </c>
       <c r="G72" s="3">
-        <v>-155100</v>
+        <v>-154800</v>
       </c>
       <c r="H72" s="3">
-        <v>-80500</v>
+        <v>-80400</v>
       </c>
       <c r="I72" s="3">
-        <v>-65200</v>
+        <v>-65100</v>
       </c>
       <c r="J72" s="3">
         <v>-54500</v>
@@ -2758,13 +2758,13 @@
         <v>20500</v>
       </c>
       <c r="E76" s="3">
-        <v>32500</v>
+        <v>32400</v>
       </c>
       <c r="F76" s="3">
         <v>-3100</v>
       </c>
       <c r="G76" s="3">
-        <v>43200</v>
+        <v>43100</v>
       </c>
       <c r="H76" s="3">
         <v>5900</v>
@@ -2773,7 +2773,7 @@
         <v>10000</v>
       </c>
       <c r="J76" s="3">
-        <v>20800</v>
+        <v>20700</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2868,10 +2868,10 @@
         <v>-54900</v>
       </c>
       <c r="G81" s="3">
-        <v>-81200</v>
+        <v>-81100</v>
       </c>
       <c r="H81" s="3">
-        <v>-16800</v>
+        <v>-16700</v>
       </c>
       <c r="I81" s="3">
         <v>-12900</v>
@@ -2913,7 +2913,7 @@
         <v>8000</v>
       </c>
       <c r="F83" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G83" s="3">
         <v>3800</v>
@@ -3114,7 +3114,7 @@
         <v>-12100</v>
       </c>
       <c r="G89" s="3">
-        <v>-21900</v>
+        <v>-21800</v>
       </c>
       <c r="H89" s="3">
         <v>-6300</v>
@@ -3261,7 +3261,7 @@
         <v>16800</v>
       </c>
       <c r="G94" s="3">
-        <v>-32800</v>
+        <v>-32700</v>
       </c>
       <c r="H94" s="3">
         <v>-6500</v>
@@ -3435,13 +3435,13 @@
         <v>-4600</v>
       </c>
       <c r="E100" s="3">
-        <v>40000</v>
+        <v>39900</v>
       </c>
       <c r="F100" s="3">
         <v>7900</v>
       </c>
       <c r="G100" s="3">
-        <v>70700</v>
+        <v>70600</v>
       </c>
       <c r="H100" s="3">
         <v>15700</v>
@@ -3501,7 +3501,7 @@
         <v>-9900</v>
       </c>
       <c r="E102" s="3">
-        <v>-15200</v>
+        <v>-15100</v>
       </c>
       <c r="F102" s="3">
         <v>12800</v>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>YTRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,82 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41730</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>99700</v>
+        <v>17100</v>
       </c>
       <c r="E8" s="3">
-        <v>128600</v>
+        <v>97600</v>
       </c>
       <c r="F8" s="3">
-        <v>168300</v>
+        <v>125900</v>
       </c>
       <c r="G8" s="3">
-        <v>128600</v>
+        <v>164700</v>
       </c>
       <c r="H8" s="3">
-        <v>114700</v>
+        <v>125800</v>
       </c>
       <c r="I8" s="3">
-        <v>89700</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>112200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>87800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -745,32 +748,35 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>40200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>58800</v>
+        <v>39300</v>
       </c>
       <c r="F9" s="3">
-        <v>67700</v>
+        <v>57600</v>
       </c>
       <c r="G9" s="3">
-        <v>57400</v>
+        <v>66300</v>
       </c>
       <c r="H9" s="3">
-        <v>57200</v>
+        <v>56200</v>
       </c>
       <c r="I9" s="3">
-        <v>43400</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>56000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>42400</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -778,32 +784,35 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>59600</v>
+        <v>16800</v>
       </c>
       <c r="E10" s="3">
-        <v>69700</v>
+        <v>58300</v>
       </c>
       <c r="F10" s="3">
-        <v>100500</v>
+        <v>68300</v>
       </c>
       <c r="G10" s="3">
-        <v>71100</v>
+        <v>98400</v>
       </c>
       <c r="H10" s="3">
-        <v>57400</v>
+        <v>69600</v>
       </c>
       <c r="I10" s="3">
-        <v>46300</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>56200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>45400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -811,9 +820,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,29 +908,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3100</v>
+        <v>3600</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>58300</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>57100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -925,32 +944,35 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9200</v>
+        <v>10100</v>
       </c>
       <c r="E15" s="3">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F15" s="3">
-        <v>5800</v>
+        <v>7800</v>
       </c>
       <c r="G15" s="3">
-        <v>3800</v>
+        <v>5700</v>
       </c>
       <c r="H15" s="3">
-        <v>3200</v>
+        <v>3700</v>
       </c>
       <c r="I15" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -958,9 +980,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,31 +996,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>108300</v>
+        <v>36900</v>
       </c>
       <c r="E17" s="3">
-        <v>164000</v>
+        <v>106000</v>
       </c>
       <c r="F17" s="3">
-        <v>214500</v>
+        <v>160500</v>
       </c>
       <c r="G17" s="3">
-        <v>212500</v>
+        <v>209900</v>
       </c>
       <c r="H17" s="3">
-        <v>131200</v>
+        <v>208000</v>
       </c>
       <c r="I17" s="3">
-        <v>103200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>128400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>101100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1003,32 +1029,35 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8600</v>
+        <v>-19800</v>
       </c>
       <c r="E18" s="3">
-        <v>-35400</v>
+        <v>-8400</v>
       </c>
       <c r="F18" s="3">
-        <v>-46200</v>
+        <v>-34700</v>
       </c>
       <c r="G18" s="3">
-        <v>-83900</v>
+        <v>-45200</v>
       </c>
       <c r="H18" s="3">
-        <v>-16600</v>
+        <v>-82100</v>
       </c>
       <c r="I18" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-16200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-13300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1036,9 +1065,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,31 +1084,32 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>21700</v>
-      </c>
       <c r="F20" s="3">
-        <v>-7000</v>
+        <v>21200</v>
       </c>
       <c r="G20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="H20" s="3">
         <v>3900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>400</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1084,32 +1117,35 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
-        <v>-5700</v>
-      </c>
       <c r="F21" s="3">
-        <v>-47400</v>
+        <v>-5600</v>
       </c>
       <c r="G21" s="3">
-        <v>-76200</v>
+        <v>-46400</v>
       </c>
       <c r="H21" s="3">
-        <v>-13000</v>
+        <v>-74600</v>
       </c>
       <c r="I21" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-12700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-10000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1117,65 +1153,71 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
-        <v>1700</v>
-      </c>
       <c r="G22" s="3">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="H22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10600</v>
+        <v>-15200</v>
       </c>
       <c r="E23" s="3">
-        <v>-15700</v>
+        <v>-10400</v>
       </c>
       <c r="F23" s="3">
-        <v>-54900</v>
+        <v>-15400</v>
       </c>
       <c r="G23" s="3">
-        <v>-81000</v>
+        <v>-53700</v>
       </c>
       <c r="H23" s="3">
-        <v>-17000</v>
+        <v>-79300</v>
       </c>
       <c r="I23" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-16600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-13300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1183,42 +1225,48 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E24" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,32 +1297,35 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11500</v>
+        <v>-16100</v>
       </c>
       <c r="E26" s="3">
-        <v>-16400</v>
+        <v>-11300</v>
       </c>
       <c r="F26" s="3">
-        <v>-55700</v>
+        <v>-16100</v>
       </c>
       <c r="G26" s="3">
-        <v>-81600</v>
+        <v>-54500</v>
       </c>
       <c r="H26" s="3">
-        <v>-17100</v>
+        <v>-79900</v>
       </c>
       <c r="I26" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-16700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-12700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1282,32 +1333,35 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11500</v>
+        <v>-15800</v>
       </c>
       <c r="E27" s="3">
-        <v>-15800</v>
+        <v>-11200</v>
       </c>
       <c r="F27" s="3">
-        <v>-54900</v>
+        <v>-15400</v>
       </c>
       <c r="G27" s="3">
-        <v>-81100</v>
+        <v>-53700</v>
       </c>
       <c r="H27" s="3">
-        <v>-16700</v>
+        <v>-79400</v>
       </c>
       <c r="I27" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-16400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-12600</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1315,9 +1369,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,32 +1513,35 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-21700</v>
-      </c>
       <c r="F32" s="3">
-        <v>7000</v>
+        <v>-21200</v>
       </c>
       <c r="G32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-400</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>-400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1480,32 +1549,35 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11500</v>
+        <v>-15800</v>
       </c>
       <c r="E33" s="3">
-        <v>-15800</v>
+        <v>-11200</v>
       </c>
       <c r="F33" s="3">
-        <v>-54900</v>
+        <v>-15400</v>
       </c>
       <c r="G33" s="3">
-        <v>-81100</v>
+        <v>-53700</v>
       </c>
       <c r="H33" s="3">
-        <v>-16700</v>
+        <v>-79400</v>
       </c>
       <c r="I33" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-16400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-12600</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1513,9 +1585,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,32 +1621,35 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11500</v>
+        <v>-15800</v>
       </c>
       <c r="E35" s="3">
-        <v>-15800</v>
+        <v>-11200</v>
       </c>
       <c r="F35" s="3">
-        <v>-54900</v>
+        <v>-15400</v>
       </c>
       <c r="G35" s="3">
-        <v>-81100</v>
+        <v>-53700</v>
       </c>
       <c r="H35" s="3">
-        <v>-16700</v>
+        <v>-79400</v>
       </c>
       <c r="I35" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-16400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-12600</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1579,47 +1657,53 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41730</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,107 +1733,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18800</v>
+        <v>22000</v>
       </c>
       <c r="E41" s="3">
-        <v>29700</v>
+        <v>18000</v>
       </c>
       <c r="F41" s="3">
-        <v>33900</v>
+        <v>23800</v>
       </c>
       <c r="G41" s="3">
-        <v>21100</v>
+        <v>30300</v>
       </c>
       <c r="H41" s="3">
-        <v>5400</v>
+        <v>17000</v>
       </c>
       <c r="I41" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="J41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14100</v>
+        <v>8700</v>
       </c>
       <c r="E42" s="3">
-        <v>17000</v>
+        <v>13800</v>
       </c>
       <c r="F42" s="3">
-        <v>14500</v>
+        <v>16700</v>
       </c>
       <c r="G42" s="3">
-        <v>42100</v>
+        <v>14200</v>
       </c>
       <c r="H42" s="3">
-        <v>14200</v>
+        <v>41200</v>
       </c>
       <c r="I42" s="3">
-        <v>10300</v>
+        <v>13900</v>
       </c>
       <c r="J42" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K42" s="3">
         <v>16800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39900</v>
+        <v>16800</v>
       </c>
       <c r="E43" s="3">
-        <v>75100</v>
+        <v>39400</v>
       </c>
       <c r="F43" s="3">
-        <v>60100</v>
+        <v>78800</v>
       </c>
       <c r="G43" s="3">
-        <v>31400</v>
+        <v>61700</v>
       </c>
       <c r="H43" s="3">
-        <v>24800</v>
+        <v>34400</v>
       </c>
       <c r="I43" s="3">
-        <v>24100</v>
+        <v>26000</v>
       </c>
       <c r="J43" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K43" s="3">
         <v>21100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1756,197 +1851,215 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11100</v>
+        <v>7600</v>
       </c>
       <c r="E45" s="3">
-        <v>11700</v>
+        <v>10800</v>
       </c>
       <c r="F45" s="3">
-        <v>12800</v>
+        <v>11400</v>
       </c>
       <c r="G45" s="3">
-        <v>9900</v>
+        <v>12600</v>
       </c>
       <c r="H45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>83900</v>
+        <v>55100</v>
       </c>
       <c r="E46" s="3">
-        <v>133600</v>
+        <v>82100</v>
       </c>
       <c r="F46" s="3">
-        <v>121600</v>
+        <v>130700</v>
       </c>
       <c r="G46" s="3">
-        <v>104700</v>
+        <v>119000</v>
       </c>
       <c r="H46" s="3">
-        <v>49800</v>
+        <v>102500</v>
       </c>
       <c r="I46" s="3">
-        <v>42000</v>
+        <v>48700</v>
       </c>
       <c r="J46" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K46" s="3">
         <v>48200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>600</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1500</v>
       </c>
-      <c r="I47" s="3">
-        <v>1700</v>
-      </c>
       <c r="J47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8300</v>
+        <v>6400</v>
       </c>
       <c r="E48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1300</v>
       </c>
       <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>1300</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23400</v>
+        <v>12000</v>
       </c>
       <c r="E49" s="3">
-        <v>30700</v>
+        <v>22900</v>
       </c>
       <c r="F49" s="3">
-        <v>30600</v>
+        <v>30100</v>
       </c>
       <c r="G49" s="3">
-        <v>22100</v>
+        <v>29900</v>
       </c>
       <c r="H49" s="3">
-        <v>19400</v>
+        <v>21600</v>
       </c>
       <c r="I49" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="J49" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K49" s="3">
         <v>18300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="E52" s="3">
-        <v>5300</v>
+        <v>4300</v>
       </c>
       <c r="F52" s="3">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="G52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
-        <v>1200</v>
-      </c>
       <c r="I52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>120300</v>
+        <v>77300</v>
       </c>
       <c r="E54" s="3">
-        <v>172500</v>
+        <v>117800</v>
       </c>
       <c r="F54" s="3">
-        <v>159600</v>
+        <v>168800</v>
       </c>
       <c r="G54" s="3">
-        <v>131600</v>
+        <v>156200</v>
       </c>
       <c r="H54" s="3">
-        <v>73600</v>
+        <v>128800</v>
       </c>
       <c r="I54" s="3">
-        <v>64300</v>
+        <v>72000</v>
       </c>
       <c r="J54" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K54" s="3">
         <v>69500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>39300</v>
+        <v>29800</v>
       </c>
       <c r="E57" s="3">
-        <v>72300</v>
+        <v>38500</v>
       </c>
       <c r="F57" s="3">
-        <v>69400</v>
+        <v>70800</v>
       </c>
       <c r="G57" s="3">
-        <v>43300</v>
+        <v>67900</v>
       </c>
       <c r="H57" s="3">
-        <v>28200</v>
+        <v>42300</v>
       </c>
       <c r="I57" s="3">
-        <v>32300</v>
+        <v>27600</v>
       </c>
       <c r="J57" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K57" s="3">
         <v>24200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14300</v>
+        <v>2700</v>
       </c>
       <c r="E58" s="3">
-        <v>15800</v>
+        <v>14000</v>
       </c>
       <c r="F58" s="3">
-        <v>6800</v>
+        <v>15500</v>
       </c>
       <c r="G58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
-        <v>1700</v>
-      </c>
       <c r="J58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34500</v>
+        <v>14100</v>
       </c>
       <c r="E59" s="3">
-        <v>48200</v>
+        <v>33700</v>
       </c>
       <c r="F59" s="3">
-        <v>71700</v>
+        <v>47100</v>
       </c>
       <c r="G59" s="3">
-        <v>36700</v>
+        <v>70200</v>
       </c>
       <c r="H59" s="3">
-        <v>18400</v>
+        <v>35900</v>
       </c>
       <c r="I59" s="3">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="J59" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K59" s="3">
         <v>8700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>88000</v>
+        <v>46700</v>
       </c>
       <c r="E60" s="3">
-        <v>136300</v>
+        <v>86200</v>
       </c>
       <c r="F60" s="3">
-        <v>147800</v>
+        <v>133400</v>
       </c>
       <c r="G60" s="3">
-        <v>80100</v>
+        <v>144700</v>
       </c>
       <c r="H60" s="3">
-        <v>47900</v>
+        <v>78400</v>
       </c>
       <c r="I60" s="3">
-        <v>48500</v>
+        <v>46900</v>
       </c>
       <c r="J60" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K60" s="3">
         <v>35800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6700</v>
+        <v>5800</v>
       </c>
       <c r="E61" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>4900</v>
-      </c>
       <c r="G61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
-        <v>5600</v>
-      </c>
       <c r="I61" s="3">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="J61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4900</v>
+        <v>9200</v>
       </c>
       <c r="E62" s="3">
-        <v>3100</v>
+        <v>4800</v>
       </c>
       <c r="F62" s="3">
-        <v>9900</v>
+        <v>3000</v>
       </c>
       <c r="G62" s="3">
-        <v>7200</v>
+        <v>9700</v>
       </c>
       <c r="H62" s="3">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="I62" s="3">
+        <v>13700</v>
+      </c>
+      <c r="J62" s="3">
         <v>4100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99800</v>
+        <v>61700</v>
       </c>
       <c r="E66" s="3">
-        <v>140000</v>
+        <v>97700</v>
       </c>
       <c r="F66" s="3">
-        <v>162700</v>
+        <v>137100</v>
       </c>
       <c r="G66" s="3">
-        <v>88400</v>
+        <v>159300</v>
       </c>
       <c r="H66" s="3">
-        <v>67700</v>
+        <v>86600</v>
       </c>
       <c r="I66" s="3">
-        <v>54300</v>
+        <v>66200</v>
       </c>
       <c r="J66" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K66" s="3">
         <v>48800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-238600</v>
+        <v>-256200</v>
       </c>
       <c r="E72" s="3">
-        <v>-227000</v>
+        <v>-233600</v>
       </c>
       <c r="F72" s="3">
-        <v>-208400</v>
+        <v>-222200</v>
       </c>
       <c r="G72" s="3">
-        <v>-154800</v>
+        <v>-204000</v>
       </c>
       <c r="H72" s="3">
-        <v>-80400</v>
+        <v>-151600</v>
       </c>
       <c r="I72" s="3">
-        <v>-65100</v>
+        <v>-78700</v>
       </c>
       <c r="J72" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-54500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20500</v>
+        <v>15600</v>
       </c>
       <c r="E76" s="3">
-        <v>32400</v>
+        <v>20100</v>
       </c>
       <c r="F76" s="3">
-        <v>-3100</v>
+        <v>31700</v>
       </c>
       <c r="G76" s="3">
-        <v>43100</v>
+        <v>-3000</v>
       </c>
       <c r="H76" s="3">
-        <v>5900</v>
+        <v>42200</v>
       </c>
       <c r="I76" s="3">
-        <v>10000</v>
+        <v>5800</v>
       </c>
       <c r="J76" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K76" s="3">
         <v>20700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,70 +3002,76 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41730</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11500</v>
+        <v>-15800</v>
       </c>
       <c r="E81" s="3">
-        <v>-15800</v>
+        <v>-11200</v>
       </c>
       <c r="F81" s="3">
-        <v>-54900</v>
+        <v>-15400</v>
       </c>
       <c r="G81" s="3">
-        <v>-81100</v>
+        <v>-53700</v>
       </c>
       <c r="H81" s="3">
-        <v>-16700</v>
+        <v>-79400</v>
       </c>
       <c r="I81" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-16400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-12600</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2885,9 +3079,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,31 +3098,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9200</v>
+        <v>10100</v>
       </c>
       <c r="E83" s="3">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F83" s="3">
-        <v>5800</v>
+        <v>7800</v>
       </c>
       <c r="G83" s="3">
-        <v>3800</v>
+        <v>5700</v>
       </c>
       <c r="H83" s="3">
-        <v>3200</v>
+        <v>3700</v>
       </c>
       <c r="I83" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2933,9 +3131,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,32 +3311,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7600</v>
+        <v>10300</v>
       </c>
       <c r="E89" s="3">
-        <v>-48700</v>
+        <v>-7400</v>
       </c>
       <c r="F89" s="3">
-        <v>-12100</v>
+        <v>-47600</v>
       </c>
       <c r="G89" s="3">
-        <v>-21800</v>
+        <v>-11900</v>
       </c>
       <c r="H89" s="3">
-        <v>-6300</v>
+        <v>-21400</v>
       </c>
       <c r="I89" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-6200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-5200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3131,9 +3347,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-3100</v>
-      </c>
       <c r="G91" s="3">
-        <v>-900</v>
+        <v>-3000</v>
       </c>
       <c r="H91" s="3">
         <v>-900</v>
       </c>
       <c r="I91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,32 +3471,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>1300</v>
       </c>
-      <c r="E94" s="3">
-        <v>-8900</v>
-      </c>
       <c r="F94" s="3">
-        <v>16800</v>
+        <v>-8700</v>
       </c>
       <c r="G94" s="3">
-        <v>-32700</v>
+        <v>16400</v>
       </c>
       <c r="H94" s="3">
-        <v>-6500</v>
+        <v>-32000</v>
       </c>
       <c r="I94" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-6400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>4300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3278,9 +3507,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3526,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4600</v>
+        <v>7200</v>
       </c>
       <c r="E100" s="3">
-        <v>39900</v>
+        <v>-4500</v>
       </c>
       <c r="F100" s="3">
-        <v>7900</v>
+        <v>39100</v>
       </c>
       <c r="G100" s="3">
-        <v>70600</v>
+        <v>7800</v>
       </c>
       <c r="H100" s="3">
-        <v>15700</v>
+        <v>69100</v>
       </c>
       <c r="I100" s="3">
+        <v>15400</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1000</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="F101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9900</v>
+        <v>14300</v>
       </c>
       <c r="E102" s="3">
-        <v>-15100</v>
+        <v>-9600</v>
       </c>
       <c r="F102" s="3">
-        <v>12800</v>
+        <v>-14800</v>
       </c>
       <c r="G102" s="3">
-        <v>15700</v>
+        <v>12500</v>
       </c>
       <c r="H102" s="3">
+        <v>15400</v>
+      </c>
+      <c r="I102" s="3">
         <v>2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="E8" s="3">
-        <v>97600</v>
+        <v>96800</v>
       </c>
       <c r="F8" s="3">
-        <v>125900</v>
+        <v>124700</v>
       </c>
       <c r="G8" s="3">
-        <v>164700</v>
+        <v>163300</v>
       </c>
       <c r="H8" s="3">
-        <v>125800</v>
+        <v>124700</v>
       </c>
       <c r="I8" s="3">
-        <v>112200</v>
+        <v>111200</v>
       </c>
       <c r="J8" s="3">
-        <v>87800</v>
+        <v>87000</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -761,22 +761,22 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>39300</v>
+        <v>39000</v>
       </c>
       <c r="F9" s="3">
-        <v>57600</v>
+        <v>57100</v>
       </c>
       <c r="G9" s="3">
-        <v>66300</v>
+        <v>65700</v>
       </c>
       <c r="H9" s="3">
-        <v>56200</v>
+        <v>55700</v>
       </c>
       <c r="I9" s="3">
-        <v>56000</v>
+        <v>55500</v>
       </c>
       <c r="J9" s="3">
-        <v>42400</v>
+        <v>42100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -794,25 +794,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="E10" s="3">
-        <v>58300</v>
+        <v>57800</v>
       </c>
       <c r="F10" s="3">
-        <v>68300</v>
+        <v>67700</v>
       </c>
       <c r="G10" s="3">
-        <v>98400</v>
+        <v>97500</v>
       </c>
       <c r="H10" s="3">
-        <v>69600</v>
+        <v>69000</v>
       </c>
       <c r="I10" s="3">
-        <v>56200</v>
+        <v>55700</v>
       </c>
       <c r="J10" s="3">
-        <v>45400</v>
+        <v>45000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -918,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E14" s="3">
         <v>3000</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>57100</v>
+        <v>56600</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -954,10 +954,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="E15" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F15" s="3">
         <v>7800</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36900</v>
+        <v>36500</v>
       </c>
       <c r="E17" s="3">
-        <v>106000</v>
+        <v>105100</v>
       </c>
       <c r="F17" s="3">
-        <v>160500</v>
+        <v>159100</v>
       </c>
       <c r="G17" s="3">
-        <v>209900</v>
+        <v>208100</v>
       </c>
       <c r="H17" s="3">
-        <v>208000</v>
+        <v>206100</v>
       </c>
       <c r="I17" s="3">
-        <v>128400</v>
+        <v>127300</v>
       </c>
       <c r="J17" s="3">
-        <v>101100</v>
+        <v>100200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19800</v>
+        <v>-19600</v>
       </c>
       <c r="E18" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="F18" s="3">
-        <v>-34700</v>
+        <v>-34400</v>
       </c>
       <c r="G18" s="3">
-        <v>-45200</v>
+        <v>-44800</v>
       </c>
       <c r="H18" s="3">
-        <v>-82100</v>
+        <v>-81400</v>
       </c>
       <c r="I18" s="3">
-        <v>-16200</v>
+        <v>-16100</v>
       </c>
       <c r="J18" s="3">
-        <v>-13300</v>
+        <v>-13100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1091,19 +1091,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="G20" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="H20" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
@@ -1136,16 +1136,16 @@
         <v>-5600</v>
       </c>
       <c r="G21" s="3">
-        <v>-46400</v>
+        <v>-45900</v>
       </c>
       <c r="H21" s="3">
-        <v>-74600</v>
+        <v>-73900</v>
       </c>
       <c r="I21" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="J21" s="3">
-        <v>-10000</v>
+        <v>-9900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1169,7 +1169,7 @@
         <v>2200</v>
       </c>
       <c r="F22" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G22" s="3">
         <v>1600</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15200</v>
+        <v>-15100</v>
       </c>
       <c r="E23" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="F23" s="3">
-        <v>-15400</v>
+        <v>-15300</v>
       </c>
       <c r="G23" s="3">
-        <v>-53700</v>
+        <v>-53300</v>
       </c>
       <c r="H23" s="3">
-        <v>-79300</v>
+        <v>-78600</v>
       </c>
       <c r="I23" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="J23" s="3">
-        <v>-13300</v>
+        <v>-13200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1247,7 +1247,7 @@
         <v>800</v>
       </c>
       <c r="H24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16100</v>
+        <v>-15900</v>
       </c>
       <c r="E26" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="F26" s="3">
-        <v>-16100</v>
+        <v>-15900</v>
       </c>
       <c r="G26" s="3">
-        <v>-54500</v>
+        <v>-54000</v>
       </c>
       <c r="H26" s="3">
-        <v>-79900</v>
+        <v>-79100</v>
       </c>
       <c r="I26" s="3">
-        <v>-16700</v>
+        <v>-16600</v>
       </c>
       <c r="J26" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="E27" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="F27" s="3">
-        <v>-15400</v>
+        <v>-15300</v>
       </c>
       <c r="G27" s="3">
-        <v>-53700</v>
+        <v>-53200</v>
       </c>
       <c r="H27" s="3">
-        <v>-79400</v>
+        <v>-78700</v>
       </c>
       <c r="I27" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="J27" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1523,19 +1523,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="G32" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="H32" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="E33" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="F33" s="3">
-        <v>-15400</v>
+        <v>-15300</v>
       </c>
       <c r="G33" s="3">
-        <v>-53700</v>
+        <v>-53200</v>
       </c>
       <c r="H33" s="3">
-        <v>-79400</v>
+        <v>-78700</v>
       </c>
       <c r="I33" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="J33" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="E35" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="F35" s="3">
-        <v>-15400</v>
+        <v>-15300</v>
       </c>
       <c r="G35" s="3">
-        <v>-53700</v>
+        <v>-53200</v>
       </c>
       <c r="H35" s="3">
-        <v>-79400</v>
+        <v>-78700</v>
       </c>
       <c r="I35" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="J35" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1740,22 +1740,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="E41" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="F41" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="G41" s="3">
-        <v>30300</v>
+        <v>30100</v>
       </c>
       <c r="H41" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="I41" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J41" s="3">
         <v>1800</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="E42" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="F42" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="G42" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="H42" s="3">
-        <v>41200</v>
+        <v>40800</v>
       </c>
       <c r="I42" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="J42" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="K42" s="3">
         <v>16800</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="E43" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="F43" s="3">
-        <v>78800</v>
+        <v>78100</v>
       </c>
       <c r="G43" s="3">
-        <v>61700</v>
+        <v>61100</v>
       </c>
       <c r="H43" s="3">
-        <v>34400</v>
+        <v>34100</v>
       </c>
       <c r="I43" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="J43" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="K43" s="3">
         <v>21100</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="E45" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="F45" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="G45" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="H45" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="I45" s="3">
         <v>5100</v>
       </c>
       <c r="J45" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K45" s="3">
         <v>5200</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>55100</v>
+        <v>54600</v>
       </c>
       <c r="E46" s="3">
-        <v>82100</v>
+        <v>81400</v>
       </c>
       <c r="F46" s="3">
-        <v>130700</v>
+        <v>129600</v>
       </c>
       <c r="G46" s="3">
-        <v>119000</v>
+        <v>118000</v>
       </c>
       <c r="H46" s="3">
-        <v>102500</v>
+        <v>101600</v>
       </c>
       <c r="I46" s="3">
-        <v>48700</v>
+        <v>48300</v>
       </c>
       <c r="J46" s="3">
-        <v>41100</v>
+        <v>40800</v>
       </c>
       <c r="K46" s="3">
         <v>48200</v>
@@ -1992,16 +1992,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="F48" s="3">
         <v>2100</v>
       </c>
       <c r="G48" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H48" s="3">
         <v>1900</v>
@@ -2010,7 +2010,7 @@
         <v>1700</v>
       </c>
       <c r="J48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K48" s="3">
         <v>1300</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="E49" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="F49" s="3">
-        <v>30100</v>
+        <v>29800</v>
       </c>
       <c r="G49" s="3">
-        <v>29900</v>
+        <v>29700</v>
       </c>
       <c r="H49" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="I49" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="J49" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="K49" s="3">
         <v>18300</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
         <v>4300</v>
       </c>
       <c r="F52" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G52" s="3">
         <v>3100</v>
       </c>
       <c r="H52" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I52" s="3">
         <v>1100</v>
       </c>
       <c r="J52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77300</v>
+        <v>76600</v>
       </c>
       <c r="E54" s="3">
-        <v>117800</v>
+        <v>116700</v>
       </c>
       <c r="F54" s="3">
-        <v>168800</v>
+        <v>167300</v>
       </c>
       <c r="G54" s="3">
-        <v>156200</v>
+        <v>154900</v>
       </c>
       <c r="H54" s="3">
-        <v>128800</v>
+        <v>127600</v>
       </c>
       <c r="I54" s="3">
-        <v>72000</v>
+        <v>71400</v>
       </c>
       <c r="J54" s="3">
-        <v>63000</v>
+        <v>62400</v>
       </c>
       <c r="K54" s="3">
         <v>69500</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29800</v>
+        <v>29500</v>
       </c>
       <c r="E57" s="3">
-        <v>38500</v>
+        <v>38100</v>
       </c>
       <c r="F57" s="3">
-        <v>70800</v>
+        <v>70200</v>
       </c>
       <c r="G57" s="3">
-        <v>67900</v>
+        <v>67300</v>
       </c>
       <c r="H57" s="3">
-        <v>42300</v>
+        <v>42000</v>
       </c>
       <c r="I57" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="J57" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="K57" s="3">
         <v>24200</v>
@@ -2315,10 +2315,10 @@
         <v>2700</v>
       </c>
       <c r="E58" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="F58" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="G58" s="3">
         <v>6600</v>
@@ -2327,7 +2327,7 @@
         <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J58" s="3">
         <v>1600</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>46700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>69500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>35600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>17800</v>
+      </c>
+      <c r="J59" s="3">
         <v>14100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>33700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>47100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>70200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>35900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>18000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>14200</v>
       </c>
       <c r="K59" s="3">
         <v>8700</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46700</v>
+        <v>46300</v>
       </c>
       <c r="E60" s="3">
-        <v>86200</v>
+        <v>85400</v>
       </c>
       <c r="F60" s="3">
-        <v>133400</v>
+        <v>132300</v>
       </c>
       <c r="G60" s="3">
-        <v>144700</v>
+        <v>143400</v>
       </c>
       <c r="H60" s="3">
-        <v>78400</v>
+        <v>77700</v>
       </c>
       <c r="I60" s="3">
-        <v>46900</v>
+        <v>46500</v>
       </c>
       <c r="J60" s="3">
-        <v>47500</v>
+        <v>47100</v>
       </c>
       <c r="K60" s="3">
         <v>35800</v>
@@ -2420,7 +2420,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="E61" s="3">
         <v>6500</v>
@@ -2435,7 +2435,7 @@
         <v>400</v>
       </c>
       <c r="I61" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="J61" s="3">
         <v>1500</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="E62" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F62" s="3">
         <v>3000</v>
       </c>
       <c r="G62" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="H62" s="3">
         <v>7000</v>
       </c>
       <c r="I62" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="J62" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K62" s="3">
         <v>10100</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>61700</v>
+        <v>61200</v>
       </c>
       <c r="E66" s="3">
-        <v>97700</v>
+        <v>96900</v>
       </c>
       <c r="F66" s="3">
-        <v>137100</v>
+        <v>135900</v>
       </c>
       <c r="G66" s="3">
-        <v>159300</v>
+        <v>157800</v>
       </c>
       <c r="H66" s="3">
-        <v>86600</v>
+        <v>85800</v>
       </c>
       <c r="I66" s="3">
-        <v>66200</v>
+        <v>65600</v>
       </c>
       <c r="J66" s="3">
-        <v>53200</v>
+        <v>52700</v>
       </c>
       <c r="K66" s="3">
         <v>48800</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-256200</v>
+        <v>-253900</v>
       </c>
       <c r="E72" s="3">
-        <v>-233600</v>
+        <v>-231500</v>
       </c>
       <c r="F72" s="3">
-        <v>-222200</v>
+        <v>-220200</v>
       </c>
       <c r="G72" s="3">
-        <v>-204000</v>
+        <v>-202200</v>
       </c>
       <c r="H72" s="3">
-        <v>-151600</v>
+        <v>-150200</v>
       </c>
       <c r="I72" s="3">
-        <v>-78700</v>
+        <v>-78000</v>
       </c>
       <c r="J72" s="3">
-        <v>-63800</v>
+        <v>-63200</v>
       </c>
       <c r="K72" s="3">
         <v>-54500</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="E76" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="F76" s="3">
-        <v>31700</v>
+        <v>31500</v>
       </c>
       <c r="G76" s="3">
         <v>-3000</v>
       </c>
       <c r="H76" s="3">
-        <v>42200</v>
+        <v>41800</v>
       </c>
       <c r="I76" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="J76" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="K76" s="3">
         <v>20700</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="E81" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="F81" s="3">
-        <v>-15400</v>
+        <v>-15300</v>
       </c>
       <c r="G81" s="3">
-        <v>-53700</v>
+        <v>-53200</v>
       </c>
       <c r="H81" s="3">
-        <v>-79400</v>
+        <v>-78700</v>
       </c>
       <c r="I81" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="J81" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3105,10 +3105,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="E83" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F83" s="3">
         <v>7800</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="E89" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="F89" s="3">
-        <v>-47600</v>
+        <v>-47200</v>
       </c>
       <c r="G89" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="H89" s="3">
-        <v>-21400</v>
+        <v>-21200</v>
       </c>
       <c r="I89" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="J89" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3490,13 +3490,13 @@
         <v>-8700</v>
       </c>
       <c r="G94" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="H94" s="3">
-        <v>-32000</v>
+        <v>-31700</v>
       </c>
       <c r="I94" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="J94" s="3">
         <v>4300</v>
@@ -3677,22 +3677,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="E100" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="F100" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="G100" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="H100" s="3">
-        <v>69100</v>
+        <v>68500</v>
       </c>
       <c r="I100" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="J100" s="3">
         <v>600</v>
@@ -3749,22 +3749,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="E102" s="3">
         <v>-9600</v>
       </c>
       <c r="F102" s="3">
-        <v>-14800</v>
+        <v>-14700</v>
       </c>
       <c r="G102" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="H102" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="I102" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>16900</v>
+        <v>16600</v>
       </c>
       <c r="E8" s="3">
-        <v>96800</v>
+        <v>94900</v>
       </c>
       <c r="F8" s="3">
-        <v>124700</v>
+        <v>122300</v>
       </c>
       <c r="G8" s="3">
-        <v>163300</v>
+        <v>160100</v>
       </c>
       <c r="H8" s="3">
-        <v>124700</v>
+        <v>122300</v>
       </c>
       <c r="I8" s="3">
-        <v>111200</v>
+        <v>109100</v>
       </c>
       <c r="J8" s="3">
-        <v>87000</v>
+        <v>85300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -761,22 +761,22 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>39000</v>
+        <v>38200</v>
       </c>
       <c r="F9" s="3">
-        <v>57100</v>
+        <v>56000</v>
       </c>
       <c r="G9" s="3">
-        <v>65700</v>
+        <v>64400</v>
       </c>
       <c r="H9" s="3">
-        <v>55700</v>
+        <v>54600</v>
       </c>
       <c r="I9" s="3">
-        <v>55500</v>
+        <v>54400</v>
       </c>
       <c r="J9" s="3">
-        <v>42100</v>
+        <v>41200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -794,25 +794,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="E10" s="3">
-        <v>57800</v>
+        <v>56700</v>
       </c>
       <c r="F10" s="3">
+        <v>66300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>95600</v>
+      </c>
+      <c r="H10" s="3">
         <v>67700</v>
       </c>
-      <c r="G10" s="3">
-        <v>97500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>69000</v>
-      </c>
       <c r="I10" s="3">
-        <v>55700</v>
+        <v>54600</v>
       </c>
       <c r="J10" s="3">
-        <v>45000</v>
+        <v>44100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -921,7 +921,7 @@
         <v>3500</v>
       </c>
       <c r="E14" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>56600</v>
+        <v>55400</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="E15" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F15" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="G15" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="H15" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I15" s="3">
         <v>3100</v>
       </c>
       <c r="J15" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36500</v>
+        <v>35800</v>
       </c>
       <c r="E17" s="3">
-        <v>105100</v>
+        <v>103000</v>
       </c>
       <c r="F17" s="3">
-        <v>159100</v>
+        <v>156000</v>
       </c>
       <c r="G17" s="3">
-        <v>208100</v>
+        <v>204000</v>
       </c>
       <c r="H17" s="3">
-        <v>206100</v>
+        <v>202100</v>
       </c>
       <c r="I17" s="3">
-        <v>127300</v>
+        <v>124800</v>
       </c>
       <c r="J17" s="3">
-        <v>100200</v>
+        <v>98200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19600</v>
+        <v>-19200</v>
       </c>
       <c r="E18" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="F18" s="3">
-        <v>-34400</v>
+        <v>-33700</v>
       </c>
       <c r="G18" s="3">
-        <v>-44800</v>
+        <v>-43900</v>
       </c>
       <c r="H18" s="3">
-        <v>-81400</v>
+        <v>-79800</v>
       </c>
       <c r="I18" s="3">
-        <v>-16100</v>
+        <v>-15700</v>
       </c>
       <c r="J18" s="3">
-        <v>-13100</v>
+        <v>-12900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1091,16 +1091,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>21000</v>
+        <v>20600</v>
       </c>
       <c r="G20" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="H20" s="3">
         <v>3800</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="E21" s="3">
         <v>800</v>
       </c>
       <c r="F21" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="G21" s="3">
-        <v>-45900</v>
+        <v>-45000</v>
       </c>
       <c r="H21" s="3">
-        <v>-73900</v>
+        <v>-72400</v>
       </c>
       <c r="I21" s="3">
-        <v>-12600</v>
+        <v>-12300</v>
       </c>
       <c r="J21" s="3">
-        <v>-9900</v>
+        <v>-9700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1166,7 +1166,7 @@
         <v>1200</v>
       </c>
       <c r="E22" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F22" s="3">
         <v>1900</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15100</v>
+        <v>-14800</v>
       </c>
       <c r="E23" s="3">
-        <v>-10300</v>
+        <v>-10100</v>
       </c>
       <c r="F23" s="3">
-        <v>-15300</v>
+        <v>-15000</v>
       </c>
       <c r="G23" s="3">
-        <v>-53300</v>
+        <v>-52200</v>
       </c>
       <c r="H23" s="3">
-        <v>-78600</v>
+        <v>-77100</v>
       </c>
       <c r="I23" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="J23" s="3">
-        <v>-13200</v>
+        <v>-12900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1235,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
         <v>900</v>
@@ -1244,7 +1244,7 @@
         <v>600</v>
       </c>
       <c r="G24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H24" s="3">
         <v>500</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15900</v>
+        <v>-15600</v>
       </c>
       <c r="E26" s="3">
-        <v>-11200</v>
+        <v>-11000</v>
       </c>
       <c r="F26" s="3">
-        <v>-15900</v>
+        <v>-15600</v>
       </c>
       <c r="G26" s="3">
-        <v>-54000</v>
+        <v>-53000</v>
       </c>
       <c r="H26" s="3">
-        <v>-79100</v>
+        <v>-77600</v>
       </c>
       <c r="I26" s="3">
-        <v>-16600</v>
+        <v>-16200</v>
       </c>
       <c r="J26" s="3">
-        <v>-12600</v>
+        <v>-12400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15700</v>
+        <v>-15400</v>
       </c>
       <c r="E27" s="3">
-        <v>-11100</v>
+        <v>-10900</v>
       </c>
       <c r="F27" s="3">
-        <v>-15300</v>
+        <v>-15000</v>
       </c>
       <c r="G27" s="3">
-        <v>-53200</v>
+        <v>-52200</v>
       </c>
       <c r="H27" s="3">
-        <v>-78700</v>
+        <v>-77100</v>
       </c>
       <c r="I27" s="3">
-        <v>-16200</v>
+        <v>-15900</v>
       </c>
       <c r="J27" s="3">
-        <v>-12500</v>
+        <v>-12200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1523,16 +1523,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-21000</v>
+        <v>-20600</v>
       </c>
       <c r="G32" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="H32" s="3">
         <v>-3800</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15700</v>
+        <v>-15400</v>
       </c>
       <c r="E33" s="3">
-        <v>-11100</v>
+        <v>-10900</v>
       </c>
       <c r="F33" s="3">
-        <v>-15300</v>
+        <v>-15000</v>
       </c>
       <c r="G33" s="3">
-        <v>-53200</v>
+        <v>-52200</v>
       </c>
       <c r="H33" s="3">
-        <v>-78700</v>
+        <v>-77100</v>
       </c>
       <c r="I33" s="3">
-        <v>-16200</v>
+        <v>-15900</v>
       </c>
       <c r="J33" s="3">
-        <v>-12500</v>
+        <v>-12200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15700</v>
+        <v>-15400</v>
       </c>
       <c r="E35" s="3">
-        <v>-11100</v>
+        <v>-10900</v>
       </c>
       <c r="F35" s="3">
-        <v>-15300</v>
+        <v>-15000</v>
       </c>
       <c r="G35" s="3">
-        <v>-53200</v>
+        <v>-52200</v>
       </c>
       <c r="H35" s="3">
-        <v>-78700</v>
+        <v>-77100</v>
       </c>
       <c r="I35" s="3">
-        <v>-16200</v>
+        <v>-15900</v>
       </c>
       <c r="J35" s="3">
-        <v>-12500</v>
+        <v>-12200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1740,19 +1740,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21800</v>
+        <v>21400</v>
       </c>
       <c r="E41" s="3">
-        <v>17900</v>
+        <v>17500</v>
       </c>
       <c r="F41" s="3">
-        <v>23600</v>
+        <v>23100</v>
       </c>
       <c r="G41" s="3">
-        <v>30100</v>
+        <v>29500</v>
       </c>
       <c r="H41" s="3">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="I41" s="3">
         <v>3500</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="E42" s="3">
-        <v>13700</v>
+        <v>13400</v>
       </c>
       <c r="F42" s="3">
-        <v>16500</v>
+        <v>16200</v>
       </c>
       <c r="G42" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="H42" s="3">
-        <v>40800</v>
+        <v>40000</v>
       </c>
       <c r="I42" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="J42" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="K42" s="3">
         <v>16800</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="E43" s="3">
-        <v>39000</v>
+        <v>38200</v>
       </c>
       <c r="F43" s="3">
-        <v>78100</v>
+        <v>76600</v>
       </c>
       <c r="G43" s="3">
-        <v>61100</v>
+        <v>59900</v>
       </c>
       <c r="H43" s="3">
-        <v>34100</v>
+        <v>33400</v>
       </c>
       <c r="I43" s="3">
-        <v>25800</v>
+        <v>25300</v>
       </c>
       <c r="J43" s="3">
-        <v>24700</v>
+        <v>24200</v>
       </c>
       <c r="K43" s="3">
         <v>21100</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E45" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="F45" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="G45" s="3">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="H45" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="I45" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="J45" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K45" s="3">
         <v>5200</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>54600</v>
+        <v>53500</v>
       </c>
       <c r="E46" s="3">
-        <v>81400</v>
+        <v>79800</v>
       </c>
       <c r="F46" s="3">
-        <v>129600</v>
+        <v>127000</v>
       </c>
       <c r="G46" s="3">
-        <v>118000</v>
+        <v>115700</v>
       </c>
       <c r="H46" s="3">
-        <v>101600</v>
+        <v>99600</v>
       </c>
       <c r="I46" s="3">
-        <v>48300</v>
+        <v>47300</v>
       </c>
       <c r="J46" s="3">
-        <v>40800</v>
+        <v>40000</v>
       </c>
       <c r="K46" s="3">
         <v>48200</v>
@@ -1971,7 +1971,7 @@
         <v>1100</v>
       </c>
       <c r="I47" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J47" s="3">
         <v>1600</v>
@@ -1992,13 +1992,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="E48" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="F48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="3">
         <v>3200</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="E49" s="3">
-        <v>22700</v>
+        <v>22300</v>
       </c>
       <c r="F49" s="3">
-        <v>29800</v>
+        <v>29200</v>
       </c>
       <c r="G49" s="3">
-        <v>29700</v>
+        <v>29100</v>
       </c>
       <c r="H49" s="3">
-        <v>21400</v>
+        <v>21000</v>
       </c>
       <c r="I49" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="J49" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="K49" s="3">
         <v>18300</v>
@@ -2139,13 +2139,13 @@
         <v>3200</v>
       </c>
       <c r="E52" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="F52" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="G52" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H52" s="3">
         <v>1600</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>76600</v>
+        <v>75100</v>
       </c>
       <c r="E54" s="3">
-        <v>116700</v>
+        <v>114500</v>
       </c>
       <c r="F54" s="3">
-        <v>167300</v>
+        <v>164100</v>
       </c>
       <c r="G54" s="3">
-        <v>154900</v>
+        <v>151800</v>
       </c>
       <c r="H54" s="3">
-        <v>127600</v>
+        <v>125100</v>
       </c>
       <c r="I54" s="3">
-        <v>71400</v>
+        <v>70000</v>
       </c>
       <c r="J54" s="3">
-        <v>62400</v>
+        <v>61200</v>
       </c>
       <c r="K54" s="3">
         <v>69500</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="E57" s="3">
-        <v>38100</v>
+        <v>37400</v>
       </c>
       <c r="F57" s="3">
-        <v>70200</v>
+        <v>68800</v>
       </c>
       <c r="G57" s="3">
-        <v>67300</v>
+        <v>66000</v>
       </c>
       <c r="H57" s="3">
-        <v>42000</v>
+        <v>41200</v>
       </c>
       <c r="I57" s="3">
-        <v>27300</v>
+        <v>26800</v>
       </c>
       <c r="J57" s="3">
-        <v>31300</v>
+        <v>30700</v>
       </c>
       <c r="K57" s="3">
         <v>24200</v>
@@ -2315,13 +2315,13 @@
         <v>2700</v>
       </c>
       <c r="E58" s="3">
-        <v>13900</v>
+        <v>13600</v>
       </c>
       <c r="F58" s="3">
-        <v>15400</v>
+        <v>15100</v>
       </c>
       <c r="G58" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="E59" s="3">
-        <v>33400</v>
+        <v>32800</v>
       </c>
       <c r="F59" s="3">
-        <v>46700</v>
+        <v>45800</v>
       </c>
       <c r="G59" s="3">
-        <v>69500</v>
+        <v>68200</v>
       </c>
       <c r="H59" s="3">
-        <v>35600</v>
+        <v>34900</v>
       </c>
       <c r="I59" s="3">
-        <v>17800</v>
+        <v>17500</v>
       </c>
       <c r="J59" s="3">
-        <v>14100</v>
+        <v>13800</v>
       </c>
       <c r="K59" s="3">
         <v>8700</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46300</v>
+        <v>45400</v>
       </c>
       <c r="E60" s="3">
-        <v>85400</v>
+        <v>83700</v>
       </c>
       <c r="F60" s="3">
-        <v>132300</v>
+        <v>129700</v>
       </c>
       <c r="G60" s="3">
-        <v>143400</v>
+        <v>140600</v>
       </c>
       <c r="H60" s="3">
-        <v>77700</v>
+        <v>76200</v>
       </c>
       <c r="I60" s="3">
-        <v>46500</v>
+        <v>45600</v>
       </c>
       <c r="J60" s="3">
-        <v>47100</v>
+        <v>46100</v>
       </c>
       <c r="K60" s="3">
         <v>35800</v>
@@ -2420,22 +2420,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="E61" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
       </c>
       <c r="G61" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H61" s="3">
         <v>400</v>
       </c>
       <c r="I61" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="J61" s="3">
         <v>1500</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="E62" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F62" s="3">
         <v>3000</v>
       </c>
       <c r="G62" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="H62" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="I62" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="J62" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="K62" s="3">
         <v>10100</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>61200</v>
+        <v>60000</v>
       </c>
       <c r="E66" s="3">
-        <v>96900</v>
+        <v>95000</v>
       </c>
       <c r="F66" s="3">
-        <v>135900</v>
+        <v>133200</v>
       </c>
       <c r="G66" s="3">
-        <v>157800</v>
+        <v>154800</v>
       </c>
       <c r="H66" s="3">
-        <v>85800</v>
+        <v>84100</v>
       </c>
       <c r="I66" s="3">
-        <v>65600</v>
+        <v>64400</v>
       </c>
       <c r="J66" s="3">
-        <v>52700</v>
+        <v>51700</v>
       </c>
       <c r="K66" s="3">
         <v>48800</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-253900</v>
+        <v>-248900</v>
       </c>
       <c r="E72" s="3">
-        <v>-231500</v>
+        <v>-227000</v>
       </c>
       <c r="F72" s="3">
-        <v>-220200</v>
+        <v>-215900</v>
       </c>
       <c r="G72" s="3">
-        <v>-202200</v>
+        <v>-198300</v>
       </c>
       <c r="H72" s="3">
-        <v>-150200</v>
+        <v>-147300</v>
       </c>
       <c r="I72" s="3">
-        <v>-78000</v>
+        <v>-76400</v>
       </c>
       <c r="J72" s="3">
-        <v>-63200</v>
+        <v>-62000</v>
       </c>
       <c r="K72" s="3">
         <v>-54500</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15400</v>
+        <v>15100</v>
       </c>
       <c r="E76" s="3">
-        <v>19900</v>
+        <v>19500</v>
       </c>
       <c r="F76" s="3">
-        <v>31500</v>
+        <v>30800</v>
       </c>
       <c r="G76" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="H76" s="3">
-        <v>41800</v>
+        <v>41000</v>
       </c>
       <c r="I76" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="J76" s="3">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="K76" s="3">
         <v>20700</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15700</v>
+        <v>-15400</v>
       </c>
       <c r="E81" s="3">
-        <v>-11100</v>
+        <v>-10900</v>
       </c>
       <c r="F81" s="3">
-        <v>-15300</v>
+        <v>-15000</v>
       </c>
       <c r="G81" s="3">
-        <v>-53200</v>
+        <v>-52200</v>
       </c>
       <c r="H81" s="3">
-        <v>-78700</v>
+        <v>-77100</v>
       </c>
       <c r="I81" s="3">
-        <v>-16200</v>
+        <v>-15900</v>
       </c>
       <c r="J81" s="3">
-        <v>-12500</v>
+        <v>-12200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="E83" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F83" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="G83" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="H83" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I83" s="3">
         <v>3100</v>
       </c>
       <c r="J83" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="E89" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="F89" s="3">
-        <v>-47200</v>
+        <v>-46300</v>
       </c>
       <c r="G89" s="3">
-        <v>-11800</v>
+        <v>-11500</v>
       </c>
       <c r="H89" s="3">
-        <v>-21200</v>
+        <v>-20800</v>
       </c>
       <c r="I89" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="J89" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3382,7 +3382,7 @@
         <v>-400</v>
       </c>
       <c r="G91" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="H91" s="3">
         <v>-900</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E94" s="3">
         <v>1300</v>
       </c>
       <c r="F94" s="3">
-        <v>-8700</v>
+        <v>-8500</v>
       </c>
       <c r="G94" s="3">
-        <v>16300</v>
+        <v>16000</v>
       </c>
       <c r="H94" s="3">
-        <v>-31700</v>
+        <v>-31100</v>
       </c>
       <c r="I94" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="J94" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3677,22 +3677,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E100" s="3">
         <v>-4400</v>
       </c>
       <c r="F100" s="3">
-        <v>38700</v>
+        <v>38000</v>
       </c>
       <c r="G100" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="H100" s="3">
-        <v>68500</v>
+        <v>67100</v>
       </c>
       <c r="I100" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="J100" s="3">
         <v>600</v>
@@ -3719,7 +3719,7 @@
         <v>900</v>
       </c>
       <c r="F101" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
@@ -3749,19 +3749,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="E102" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="F102" s="3">
-        <v>-14700</v>
+        <v>-14400</v>
       </c>
       <c r="G102" s="3">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="H102" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="I102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="E8" s="3">
-        <v>94900</v>
+        <v>93800</v>
       </c>
       <c r="F8" s="3">
-        <v>122300</v>
+        <v>120900</v>
       </c>
       <c r="G8" s="3">
-        <v>160100</v>
+        <v>158300</v>
       </c>
       <c r="H8" s="3">
-        <v>122300</v>
+        <v>120900</v>
       </c>
       <c r="I8" s="3">
-        <v>109100</v>
+        <v>107800</v>
       </c>
       <c r="J8" s="3">
-        <v>85300</v>
+        <v>84300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -761,22 +761,22 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>38200</v>
+        <v>37800</v>
       </c>
       <c r="F9" s="3">
-        <v>56000</v>
+        <v>55300</v>
       </c>
       <c r="G9" s="3">
-        <v>64400</v>
+        <v>63700</v>
       </c>
       <c r="H9" s="3">
-        <v>54600</v>
+        <v>54000</v>
       </c>
       <c r="I9" s="3">
-        <v>54400</v>
+        <v>53800</v>
       </c>
       <c r="J9" s="3">
-        <v>41200</v>
+        <v>40800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -794,25 +794,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="E10" s="3">
-        <v>56700</v>
+        <v>56000</v>
       </c>
       <c r="F10" s="3">
-        <v>66300</v>
+        <v>65600</v>
       </c>
       <c r="G10" s="3">
-        <v>95600</v>
+        <v>94500</v>
       </c>
       <c r="H10" s="3">
-        <v>67700</v>
+        <v>66900</v>
       </c>
       <c r="I10" s="3">
-        <v>54600</v>
+        <v>54000</v>
       </c>
       <c r="J10" s="3">
-        <v>44100</v>
+        <v>43600</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -918,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E14" s="3">
         <v>2900</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>55400</v>
+        <v>54800</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="E15" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="F15" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="G15" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="H15" s="3">
         <v>3600</v>
       </c>
       <c r="I15" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J15" s="3">
         <v>2700</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>35800</v>
+        <v>35400</v>
       </c>
       <c r="E17" s="3">
-        <v>103000</v>
+        <v>101900</v>
       </c>
       <c r="F17" s="3">
-        <v>156000</v>
+        <v>154200</v>
       </c>
       <c r="G17" s="3">
-        <v>204000</v>
+        <v>201700</v>
       </c>
       <c r="H17" s="3">
-        <v>202100</v>
+        <v>199800</v>
       </c>
       <c r="I17" s="3">
-        <v>124800</v>
+        <v>123400</v>
       </c>
       <c r="J17" s="3">
-        <v>98200</v>
+        <v>97100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="E18" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="F18" s="3">
-        <v>-33700</v>
+        <v>-33300</v>
       </c>
       <c r="G18" s="3">
-        <v>-43900</v>
+        <v>-43400</v>
       </c>
       <c r="H18" s="3">
-        <v>-79800</v>
+        <v>-78900</v>
       </c>
       <c r="I18" s="3">
-        <v>-15700</v>
+        <v>-15600</v>
       </c>
       <c r="J18" s="3">
-        <v>-12900</v>
+        <v>-12700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1097,16 +1097,16 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="G20" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="H20" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
@@ -1136,16 +1136,16 @@
         <v>-5400</v>
       </c>
       <c r="G21" s="3">
-        <v>-45000</v>
+        <v>-44500</v>
       </c>
       <c r="H21" s="3">
-        <v>-72400</v>
+        <v>-71600</v>
       </c>
       <c r="I21" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="J21" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-15000</v>
-      </c>
       <c r="G23" s="3">
-        <v>-52200</v>
+        <v>-51600</v>
       </c>
       <c r="H23" s="3">
-        <v>-77100</v>
+        <v>-76200</v>
       </c>
       <c r="I23" s="3">
-        <v>-16200</v>
+        <v>-16000</v>
       </c>
       <c r="J23" s="3">
-        <v>-12900</v>
+        <v>-12800</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="E26" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="F26" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="G26" s="3">
-        <v>-53000</v>
+        <v>-52400</v>
       </c>
       <c r="H26" s="3">
-        <v>-77600</v>
+        <v>-76700</v>
       </c>
       <c r="I26" s="3">
-        <v>-16200</v>
+        <v>-16100</v>
       </c>
       <c r="J26" s="3">
-        <v>-12400</v>
+        <v>-12200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15400</v>
+        <v>-15200</v>
       </c>
       <c r="E27" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="F27" s="3">
-        <v>-15000</v>
+        <v>-14800</v>
       </c>
       <c r="G27" s="3">
-        <v>-52200</v>
+        <v>-51600</v>
       </c>
       <c r="H27" s="3">
-        <v>-77100</v>
+        <v>-76200</v>
       </c>
       <c r="I27" s="3">
-        <v>-15900</v>
+        <v>-15700</v>
       </c>
       <c r="J27" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1529,16 +1529,16 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-20600</v>
+        <v>-20400</v>
       </c>
       <c r="G32" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="H32" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="I32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J32" s="3">
         <v>-400</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15400</v>
+        <v>-15200</v>
       </c>
       <c r="E33" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="F33" s="3">
-        <v>-15000</v>
+        <v>-14800</v>
       </c>
       <c r="G33" s="3">
-        <v>-52200</v>
+        <v>-51600</v>
       </c>
       <c r="H33" s="3">
-        <v>-77100</v>
+        <v>-76200</v>
       </c>
       <c r="I33" s="3">
-        <v>-15900</v>
+        <v>-15700</v>
       </c>
       <c r="J33" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15400</v>
+        <v>-15200</v>
       </c>
       <c r="E35" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="F35" s="3">
-        <v>-15000</v>
+        <v>-14800</v>
       </c>
       <c r="G35" s="3">
-        <v>-52200</v>
+        <v>-51600</v>
       </c>
       <c r="H35" s="3">
-        <v>-77100</v>
+        <v>-76200</v>
       </c>
       <c r="I35" s="3">
-        <v>-15900</v>
+        <v>-15700</v>
       </c>
       <c r="J35" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1740,22 +1740,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21400</v>
+        <v>21100</v>
       </c>
       <c r="E41" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="F41" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="G41" s="3">
-        <v>29500</v>
+        <v>29100</v>
       </c>
       <c r="H41" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="I41" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J41" s="3">
         <v>1800</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="E42" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="F42" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="G42" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="H42" s="3">
-        <v>40000</v>
+        <v>39600</v>
       </c>
       <c r="I42" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="J42" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="K42" s="3">
         <v>16800</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="E43" s="3">
-        <v>38200</v>
+        <v>37800</v>
       </c>
       <c r="F43" s="3">
-        <v>76600</v>
+        <v>75700</v>
       </c>
       <c r="G43" s="3">
-        <v>59900</v>
+        <v>59200</v>
       </c>
       <c r="H43" s="3">
-        <v>33400</v>
+        <v>33000</v>
       </c>
       <c r="I43" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="J43" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="K43" s="3">
         <v>21100</v>
@@ -1884,22 +1884,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E45" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="F45" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="G45" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="H45" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="I45" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="J45" s="3">
         <v>4000</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>53500</v>
+        <v>52900</v>
       </c>
       <c r="E46" s="3">
-        <v>79800</v>
+        <v>78800</v>
       </c>
       <c r="F46" s="3">
-        <v>127000</v>
+        <v>125600</v>
       </c>
       <c r="G46" s="3">
-        <v>115700</v>
+        <v>114300</v>
       </c>
       <c r="H46" s="3">
-        <v>99600</v>
+        <v>98400</v>
       </c>
       <c r="I46" s="3">
-        <v>47300</v>
+        <v>46800</v>
       </c>
       <c r="J46" s="3">
-        <v>40000</v>
+        <v>39500</v>
       </c>
       <c r="K46" s="3">
         <v>48200</v>
@@ -1992,22 +1992,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="F48" s="3">
         <v>2000</v>
       </c>
       <c r="G48" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I48" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J48" s="3">
         <v>1200</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="E49" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="F49" s="3">
-        <v>29200</v>
+        <v>28900</v>
       </c>
       <c r="G49" s="3">
-        <v>29100</v>
+        <v>28800</v>
       </c>
       <c r="H49" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="I49" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="J49" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="K49" s="3">
         <v>18300</v>
@@ -2136,10 +2136,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E52" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="F52" s="3">
         <v>5000</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75100</v>
+        <v>74300</v>
       </c>
       <c r="E54" s="3">
-        <v>114500</v>
+        <v>113200</v>
       </c>
       <c r="F54" s="3">
-        <v>164100</v>
+        <v>162200</v>
       </c>
       <c r="G54" s="3">
-        <v>151800</v>
+        <v>150100</v>
       </c>
       <c r="H54" s="3">
-        <v>125100</v>
+        <v>123700</v>
       </c>
       <c r="I54" s="3">
-        <v>70000</v>
+        <v>69200</v>
       </c>
       <c r="J54" s="3">
-        <v>61200</v>
+        <v>60500</v>
       </c>
       <c r="K54" s="3">
         <v>69500</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29000</v>
+        <v>28600</v>
       </c>
       <c r="E57" s="3">
-        <v>37400</v>
+        <v>36900</v>
       </c>
       <c r="F57" s="3">
-        <v>68800</v>
+        <v>68000</v>
       </c>
       <c r="G57" s="3">
-        <v>66000</v>
+        <v>65200</v>
       </c>
       <c r="H57" s="3">
-        <v>41200</v>
+        <v>40700</v>
       </c>
       <c r="I57" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="J57" s="3">
-        <v>30700</v>
+        <v>30400</v>
       </c>
       <c r="K57" s="3">
         <v>24200</v>
@@ -2312,13 +2312,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E58" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="F58" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="G58" s="3">
         <v>6400</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>32400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>67400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>34500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>17300</v>
+      </c>
+      <c r="J59" s="3">
         <v>13700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>32800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>45800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>68200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>34900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>17500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>13800</v>
       </c>
       <c r="K59" s="3">
         <v>8700</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45400</v>
+        <v>44800</v>
       </c>
       <c r="E60" s="3">
-        <v>83700</v>
+        <v>82800</v>
       </c>
       <c r="F60" s="3">
-        <v>129700</v>
+        <v>128200</v>
       </c>
       <c r="G60" s="3">
-        <v>140600</v>
+        <v>139000</v>
       </c>
       <c r="H60" s="3">
-        <v>76200</v>
+        <v>75300</v>
       </c>
       <c r="I60" s="3">
+        <v>45100</v>
+      </c>
+      <c r="J60" s="3">
         <v>45600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>46100</v>
       </c>
       <c r="K60" s="3">
         <v>35800</v>
@@ -2435,7 +2435,7 @@
         <v>400</v>
       </c>
       <c r="I61" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="J61" s="3">
         <v>1500</v>
@@ -2456,22 +2456,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="E62" s="3">
         <v>4600</v>
       </c>
       <c r="F62" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G62" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="H62" s="3">
         <v>6800</v>
       </c>
       <c r="I62" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="J62" s="3">
         <v>3900</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>60000</v>
+        <v>59300</v>
       </c>
       <c r="E66" s="3">
-        <v>95000</v>
+        <v>93900</v>
       </c>
       <c r="F66" s="3">
-        <v>133200</v>
+        <v>131700</v>
       </c>
       <c r="G66" s="3">
-        <v>154800</v>
+        <v>153000</v>
       </c>
       <c r="H66" s="3">
-        <v>84100</v>
+        <v>83200</v>
       </c>
       <c r="I66" s="3">
-        <v>64400</v>
+        <v>63600</v>
       </c>
       <c r="J66" s="3">
-        <v>51700</v>
+        <v>51100</v>
       </c>
       <c r="K66" s="3">
         <v>48800</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-248900</v>
+        <v>-246100</v>
       </c>
       <c r="E72" s="3">
-        <v>-227000</v>
+        <v>-224400</v>
       </c>
       <c r="F72" s="3">
-        <v>-215900</v>
+        <v>-213400</v>
       </c>
       <c r="G72" s="3">
-        <v>-198300</v>
+        <v>-196000</v>
       </c>
       <c r="H72" s="3">
-        <v>-147300</v>
+        <v>-145600</v>
       </c>
       <c r="I72" s="3">
-        <v>-76400</v>
+        <v>-75600</v>
       </c>
       <c r="J72" s="3">
-        <v>-62000</v>
+        <v>-61300</v>
       </c>
       <c r="K72" s="3">
         <v>-54500</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="E76" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="F76" s="3">
-        <v>30800</v>
+        <v>30500</v>
       </c>
       <c r="G76" s="3">
         <v>-2900</v>
       </c>
       <c r="H76" s="3">
-        <v>41000</v>
+        <v>40500</v>
       </c>
       <c r="I76" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="J76" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="K76" s="3">
         <v>20700</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15400</v>
+        <v>-15200</v>
       </c>
       <c r="E81" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="F81" s="3">
-        <v>-15000</v>
+        <v>-14800</v>
       </c>
       <c r="G81" s="3">
-        <v>-52200</v>
+        <v>-51600</v>
       </c>
       <c r="H81" s="3">
-        <v>-77100</v>
+        <v>-76200</v>
       </c>
       <c r="I81" s="3">
-        <v>-15900</v>
+        <v>-15700</v>
       </c>
       <c r="J81" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3105,22 +3105,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="E83" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="F83" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="G83" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="H83" s="3">
         <v>3600</v>
       </c>
       <c r="I83" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J83" s="3">
         <v>2700</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="E89" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="F89" s="3">
-        <v>-46300</v>
+        <v>-45800</v>
       </c>
       <c r="G89" s="3">
-        <v>-11500</v>
+        <v>-11400</v>
       </c>
       <c r="H89" s="3">
-        <v>-20800</v>
+        <v>-20500</v>
       </c>
       <c r="I89" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="J89" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3385,7 +3385,7 @@
         <v>-2900</v>
       </c>
       <c r="H91" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I91" s="3">
         <v>-900</v>
@@ -3484,22 +3484,22 @@
         <v>-3000</v>
       </c>
       <c r="E94" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F94" s="3">
-        <v>-8500</v>
+        <v>-8400</v>
       </c>
       <c r="G94" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="H94" s="3">
-        <v>-31100</v>
+        <v>-30800</v>
       </c>
       <c r="I94" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="J94" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3677,22 +3677,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="E100" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="F100" s="3">
-        <v>38000</v>
+        <v>37500</v>
       </c>
       <c r="G100" s="3">
         <v>7500</v>
       </c>
       <c r="H100" s="3">
-        <v>67100</v>
+        <v>66400</v>
       </c>
       <c r="I100" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="J100" s="3">
         <v>600</v>
@@ -3749,19 +3749,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="E102" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="F102" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="G102" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="H102" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="I102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>YTRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41730</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>16400</v>
+        <v>24900</v>
       </c>
       <c r="E8" s="3">
-        <v>93800</v>
+        <v>15900</v>
       </c>
       <c r="F8" s="3">
-        <v>120900</v>
+        <v>90900</v>
       </c>
       <c r="G8" s="3">
-        <v>158300</v>
+        <v>117200</v>
       </c>
       <c r="H8" s="3">
-        <v>120900</v>
+        <v>153400</v>
       </c>
       <c r="I8" s="3">
-        <v>107800</v>
+        <v>117100</v>
       </c>
       <c r="J8" s="3">
+        <v>104500</v>
+      </c>
+      <c r="K8" s="3">
         <v>84300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
-        <v>37800</v>
-      </c>
       <c r="F9" s="3">
-        <v>55300</v>
+        <v>36600</v>
       </c>
       <c r="G9" s="3">
-        <v>63700</v>
+        <v>53600</v>
       </c>
       <c r="H9" s="3">
-        <v>54000</v>
+        <v>61700</v>
       </c>
       <c r="I9" s="3">
-        <v>53800</v>
+        <v>52300</v>
       </c>
       <c r="J9" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K9" s="3">
         <v>40800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>16100</v>
+        <v>22900</v>
       </c>
       <c r="E10" s="3">
-        <v>56000</v>
+        <v>15600</v>
       </c>
       <c r="F10" s="3">
-        <v>65600</v>
+        <v>54300</v>
       </c>
       <c r="G10" s="3">
-        <v>94500</v>
+        <v>63500</v>
       </c>
       <c r="H10" s="3">
-        <v>66900</v>
+        <v>91600</v>
       </c>
       <c r="I10" s="3">
-        <v>54000</v>
+        <v>64800</v>
       </c>
       <c r="J10" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K10" s="3">
         <v>43600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,32 +927,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>54800</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>53100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -947,45 +966,51 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9700</v>
+        <v>3900</v>
       </c>
       <c r="E15" s="3">
-        <v>8600</v>
+        <v>9400</v>
       </c>
       <c r="F15" s="3">
-        <v>7500</v>
+        <v>8300</v>
       </c>
       <c r="G15" s="3">
-        <v>5500</v>
+        <v>7300</v>
       </c>
       <c r="H15" s="3">
-        <v>3600</v>
+        <v>5300</v>
       </c>
       <c r="I15" s="3">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="J15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K15" s="3">
         <v>2700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>35400</v>
+        <v>31000</v>
       </c>
       <c r="E17" s="3">
-        <v>101900</v>
+        <v>34300</v>
       </c>
       <c r="F17" s="3">
-        <v>154200</v>
+        <v>98700</v>
       </c>
       <c r="G17" s="3">
-        <v>201700</v>
+        <v>149400</v>
       </c>
       <c r="H17" s="3">
-        <v>199800</v>
+        <v>195400</v>
       </c>
       <c r="I17" s="3">
-        <v>123400</v>
+        <v>193600</v>
       </c>
       <c r="J17" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K17" s="3">
         <v>97100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19000</v>
+        <v>-6100</v>
       </c>
       <c r="E18" s="3">
-        <v>-8100</v>
+        <v>-18400</v>
       </c>
       <c r="F18" s="3">
-        <v>-33300</v>
+        <v>-7800</v>
       </c>
       <c r="G18" s="3">
-        <v>-43400</v>
+        <v>-32300</v>
       </c>
       <c r="H18" s="3">
-        <v>-78900</v>
+        <v>-42100</v>
       </c>
       <c r="I18" s="3">
-        <v>-15600</v>
+        <v>-76400</v>
       </c>
       <c r="J18" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5600</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>20400</v>
-      </c>
       <c r="G20" s="3">
-        <v>-6600</v>
+        <v>19800</v>
       </c>
       <c r="H20" s="3">
-        <v>3700</v>
+        <v>-6400</v>
       </c>
       <c r="I20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-3800</v>
+        <v>-1300</v>
       </c>
       <c r="E21" s="3">
-        <v>800</v>
+        <v>-3600</v>
       </c>
       <c r="F21" s="3">
-        <v>-5400</v>
+        <v>700</v>
       </c>
       <c r="G21" s="3">
-        <v>-44500</v>
+        <v>-5200</v>
       </c>
       <c r="H21" s="3">
-        <v>-71600</v>
+        <v>-43200</v>
       </c>
       <c r="I21" s="3">
-        <v>-12200</v>
+        <v>-69400</v>
       </c>
       <c r="J21" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-9600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="F22" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="H22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
-        <v>800</v>
-      </c>
       <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14600</v>
+        <v>-5800</v>
       </c>
       <c r="E23" s="3">
-        <v>-10000</v>
+        <v>-14200</v>
       </c>
       <c r="F23" s="3">
-        <v>-14800</v>
+        <v>-9600</v>
       </c>
       <c r="G23" s="3">
-        <v>-51600</v>
+        <v>-14300</v>
       </c>
       <c r="H23" s="3">
-        <v>-76200</v>
+        <v>-50000</v>
       </c>
       <c r="I23" s="3">
-        <v>-16000</v>
+        <v>-73800</v>
       </c>
       <c r="J23" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15400</v>
+        <v>-6000</v>
       </c>
       <c r="E26" s="3">
-        <v>-10900</v>
+        <v>-15000</v>
       </c>
       <c r="F26" s="3">
-        <v>-15400</v>
+        <v>-10500</v>
       </c>
       <c r="G26" s="3">
-        <v>-52400</v>
+        <v>-14900</v>
       </c>
       <c r="H26" s="3">
-        <v>-76700</v>
+        <v>-50700</v>
       </c>
       <c r="I26" s="3">
-        <v>-16100</v>
+        <v>-74300</v>
       </c>
       <c r="J26" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-12200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15200</v>
+        <v>-6000</v>
       </c>
       <c r="E27" s="3">
-        <v>-10800</v>
+        <v>-14700</v>
       </c>
       <c r="F27" s="3">
-        <v>-14800</v>
+        <v>-10400</v>
       </c>
       <c r="G27" s="3">
-        <v>-51600</v>
+        <v>-14400</v>
       </c>
       <c r="H27" s="3">
-        <v>-76200</v>
+        <v>-50000</v>
       </c>
       <c r="I27" s="3">
-        <v>-15700</v>
+        <v>-73900</v>
       </c>
       <c r="J27" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-12100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1444,9 +1504,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5600</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-20400</v>
-      </c>
       <c r="G32" s="3">
-        <v>6600</v>
+        <v>-19800</v>
       </c>
       <c r="H32" s="3">
-        <v>-3700</v>
+        <v>6400</v>
       </c>
       <c r="I32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15200</v>
+        <v>-6000</v>
       </c>
       <c r="E33" s="3">
-        <v>-10800</v>
+        <v>-14700</v>
       </c>
       <c r="F33" s="3">
-        <v>-14800</v>
+        <v>-10400</v>
       </c>
       <c r="G33" s="3">
-        <v>-51600</v>
+        <v>-14400</v>
       </c>
       <c r="H33" s="3">
-        <v>-76200</v>
+        <v>-50000</v>
       </c>
       <c r="I33" s="3">
-        <v>-15700</v>
+        <v>-73900</v>
       </c>
       <c r="J33" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-12100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15200</v>
+        <v>-6000</v>
       </c>
       <c r="E35" s="3">
-        <v>-10800</v>
+        <v>-14700</v>
       </c>
       <c r="F35" s="3">
-        <v>-14800</v>
+        <v>-10400</v>
       </c>
       <c r="G35" s="3">
-        <v>-51600</v>
+        <v>-14400</v>
       </c>
       <c r="H35" s="3">
-        <v>-76200</v>
+        <v>-50000</v>
       </c>
       <c r="I35" s="3">
-        <v>-15700</v>
+        <v>-73900</v>
       </c>
       <c r="J35" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-12100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41730</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,116 +1819,126 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21100</v>
+        <v>7900</v>
       </c>
       <c r="E41" s="3">
-        <v>17300</v>
+        <v>20500</v>
       </c>
       <c r="F41" s="3">
-        <v>22900</v>
+        <v>16800</v>
       </c>
       <c r="G41" s="3">
-        <v>29100</v>
+        <v>22200</v>
       </c>
       <c r="H41" s="3">
-        <v>16300</v>
+        <v>28200</v>
       </c>
       <c r="I41" s="3">
-        <v>3400</v>
+        <v>15800</v>
       </c>
       <c r="J41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="E42" s="3">
-        <v>13300</v>
+        <v>8100</v>
       </c>
       <c r="F42" s="3">
-        <v>16000</v>
+        <v>12900</v>
       </c>
       <c r="G42" s="3">
-        <v>13600</v>
+        <v>15500</v>
       </c>
       <c r="H42" s="3">
-        <v>39600</v>
+        <v>13200</v>
       </c>
       <c r="I42" s="3">
-        <v>13300</v>
+        <v>38400</v>
       </c>
       <c r="J42" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K42" s="3">
         <v>9700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16100</v>
+        <v>29400</v>
       </c>
       <c r="E43" s="3">
-        <v>37800</v>
+        <v>15600</v>
       </c>
       <c r="F43" s="3">
-        <v>75700</v>
+        <v>36600</v>
       </c>
       <c r="G43" s="3">
-        <v>59200</v>
+        <v>73300</v>
       </c>
       <c r="H43" s="3">
-        <v>33000</v>
+        <v>57400</v>
       </c>
       <c r="I43" s="3">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="J43" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K43" s="3">
         <v>23900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1857,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -1869,89 +1964,98 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="E45" s="3">
-        <v>10400</v>
+        <v>7100</v>
       </c>
       <c r="F45" s="3">
-        <v>11000</v>
+        <v>10100</v>
       </c>
       <c r="G45" s="3">
-        <v>12100</v>
+        <v>10600</v>
       </c>
       <c r="H45" s="3">
-        <v>9300</v>
+        <v>11700</v>
       </c>
       <c r="I45" s="3">
-        <v>4900</v>
+        <v>9100</v>
       </c>
       <c r="J45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>52900</v>
+        <v>52400</v>
       </c>
       <c r="E46" s="3">
-        <v>78800</v>
+        <v>51300</v>
       </c>
       <c r="F46" s="3">
-        <v>125600</v>
+        <v>76400</v>
       </c>
       <c r="G46" s="3">
-        <v>114300</v>
+        <v>121700</v>
       </c>
       <c r="H46" s="3">
-        <v>98400</v>
+        <v>110800</v>
       </c>
       <c r="I46" s="3">
-        <v>46800</v>
+        <v>95400</v>
       </c>
       <c r="J46" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K46" s="3">
         <v>39500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>48200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1959,107 +2063,116 @@
         <v>600</v>
       </c>
       <c r="E47" s="3">
+        <v>600</v>
+      </c>
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>900</v>
       </c>
-      <c r="H47" s="3">
-        <v>1100</v>
-      </c>
       <c r="I47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="3">
         <v>1400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6100</v>
+        <v>3200</v>
       </c>
       <c r="E48" s="3">
-        <v>7800</v>
+        <v>5900</v>
       </c>
       <c r="F48" s="3">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="G48" s="3">
-        <v>3100</v>
+        <v>1900</v>
       </c>
       <c r="H48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11500</v>
+        <v>9400</v>
       </c>
       <c r="E49" s="3">
-        <v>22000</v>
+        <v>11100</v>
       </c>
       <c r="F49" s="3">
-        <v>28900</v>
+        <v>21300</v>
       </c>
       <c r="G49" s="3">
-        <v>28800</v>
+        <v>28000</v>
       </c>
       <c r="H49" s="3">
-        <v>20800</v>
+        <v>27900</v>
       </c>
       <c r="I49" s="3">
-        <v>18200</v>
+        <v>20100</v>
       </c>
       <c r="J49" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K49" s="3">
         <v>17500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="E52" s="3">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="F52" s="3">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G52" s="3">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="H52" s="3">
-        <v>1600</v>
+        <v>2900</v>
       </c>
       <c r="I52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>74300</v>
+        <v>68400</v>
       </c>
       <c r="E54" s="3">
-        <v>113200</v>
+        <v>72000</v>
       </c>
       <c r="F54" s="3">
-        <v>162200</v>
+        <v>109700</v>
       </c>
       <c r="G54" s="3">
-        <v>150100</v>
+        <v>157100</v>
       </c>
       <c r="H54" s="3">
-        <v>123700</v>
+        <v>145400</v>
       </c>
       <c r="I54" s="3">
-        <v>69200</v>
+        <v>119900</v>
       </c>
       <c r="J54" s="3">
+        <v>67000</v>
+      </c>
+      <c r="K54" s="3">
         <v>60500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>69500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28600</v>
+        <v>30000</v>
       </c>
       <c r="E57" s="3">
-        <v>36900</v>
+        <v>27700</v>
       </c>
       <c r="F57" s="3">
-        <v>68000</v>
+        <v>35800</v>
       </c>
       <c r="G57" s="3">
-        <v>65200</v>
+        <v>65900</v>
       </c>
       <c r="H57" s="3">
-        <v>40700</v>
+        <v>63200</v>
       </c>
       <c r="I57" s="3">
-        <v>26500</v>
+        <v>39400</v>
       </c>
       <c r="J57" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K57" s="3">
         <v>30400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2600</v>
+        <v>4900</v>
       </c>
       <c r="E58" s="3">
-        <v>13400</v>
+        <v>2500</v>
       </c>
       <c r="F58" s="3">
-        <v>14900</v>
+        <v>13000</v>
       </c>
       <c r="G58" s="3">
-        <v>6400</v>
+        <v>14400</v>
       </c>
       <c r="H58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13600</v>
+        <v>17500</v>
       </c>
       <c r="E59" s="3">
-        <v>32400</v>
+        <v>13200</v>
       </c>
       <c r="F59" s="3">
-        <v>45300</v>
+        <v>31400</v>
       </c>
       <c r="G59" s="3">
-        <v>67400</v>
+        <v>43900</v>
       </c>
       <c r="H59" s="3">
-        <v>34500</v>
+        <v>65300</v>
       </c>
       <c r="I59" s="3">
-        <v>17300</v>
+        <v>33400</v>
       </c>
       <c r="J59" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K59" s="3">
         <v>13700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44800</v>
+        <v>52400</v>
       </c>
       <c r="E60" s="3">
-        <v>82800</v>
+        <v>43400</v>
       </c>
       <c r="F60" s="3">
-        <v>128200</v>
+        <v>80200</v>
       </c>
       <c r="G60" s="3">
-        <v>139000</v>
+        <v>124200</v>
       </c>
       <c r="H60" s="3">
-        <v>75300</v>
+        <v>134700</v>
       </c>
       <c r="I60" s="3">
-        <v>45100</v>
+        <v>73000</v>
       </c>
       <c r="J60" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K60" s="3">
         <v>45600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5600</v>
+        <v>2900</v>
       </c>
       <c r="E61" s="3">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="F61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
-        <v>4700</v>
-      </c>
       <c r="H61" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
-        <v>5200</v>
-      </c>
       <c r="J61" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8800</v>
+        <v>1900</v>
       </c>
       <c r="E62" s="3">
-        <v>4600</v>
+        <v>8600</v>
       </c>
       <c r="F62" s="3">
-        <v>2900</v>
+        <v>4400</v>
       </c>
       <c r="G62" s="3">
-        <v>9300</v>
+        <v>2800</v>
       </c>
       <c r="H62" s="3">
-        <v>6800</v>
+        <v>9100</v>
       </c>
       <c r="I62" s="3">
-        <v>13200</v>
+        <v>6500</v>
       </c>
       <c r="J62" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59300</v>
+        <v>57300</v>
       </c>
       <c r="E66" s="3">
-        <v>93900</v>
+        <v>57500</v>
       </c>
       <c r="F66" s="3">
-        <v>131700</v>
+        <v>91000</v>
       </c>
       <c r="G66" s="3">
-        <v>153000</v>
+        <v>127600</v>
       </c>
       <c r="H66" s="3">
-        <v>83200</v>
+        <v>148300</v>
       </c>
       <c r="I66" s="3">
-        <v>63600</v>
+        <v>80600</v>
       </c>
       <c r="J66" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K66" s="3">
         <v>51100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-246100</v>
+        <v>-242300</v>
       </c>
       <c r="E72" s="3">
-        <v>-224400</v>
+        <v>-238400</v>
       </c>
       <c r="F72" s="3">
-        <v>-213400</v>
+        <v>-217400</v>
       </c>
       <c r="G72" s="3">
-        <v>-196000</v>
+        <v>-206800</v>
       </c>
       <c r="H72" s="3">
-        <v>-145600</v>
+        <v>-189900</v>
       </c>
       <c r="I72" s="3">
-        <v>-75600</v>
+        <v>-141100</v>
       </c>
       <c r="J72" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-61300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15000</v>
+        <v>11100</v>
       </c>
       <c r="E76" s="3">
-        <v>19300</v>
+        <v>14500</v>
       </c>
       <c r="F76" s="3">
-        <v>30500</v>
+        <v>18700</v>
       </c>
       <c r="G76" s="3">
-        <v>-2900</v>
+        <v>29500</v>
       </c>
       <c r="H76" s="3">
-        <v>40500</v>
+        <v>-2800</v>
       </c>
       <c r="I76" s="3">
-        <v>5500</v>
+        <v>39300</v>
       </c>
       <c r="J76" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K76" s="3">
         <v>9400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41730</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15200</v>
+        <v>-6000</v>
       </c>
       <c r="E81" s="3">
-        <v>-10800</v>
+        <v>-14700</v>
       </c>
       <c r="F81" s="3">
-        <v>-14800</v>
+        <v>-10400</v>
       </c>
       <c r="G81" s="3">
-        <v>-51600</v>
+        <v>-14400</v>
       </c>
       <c r="H81" s="3">
-        <v>-76200</v>
+        <v>-50000</v>
       </c>
       <c r="I81" s="3">
-        <v>-15700</v>
+        <v>-73900</v>
       </c>
       <c r="J81" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-12100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9700</v>
+        <v>3900</v>
       </c>
       <c r="E83" s="3">
-        <v>8600</v>
+        <v>9400</v>
       </c>
       <c r="F83" s="3">
-        <v>7500</v>
+        <v>8300</v>
       </c>
       <c r="G83" s="3">
-        <v>5500</v>
+        <v>7300</v>
       </c>
       <c r="H83" s="3">
-        <v>3600</v>
+        <v>5300</v>
       </c>
       <c r="I83" s="3">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="J83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9900</v>
+        <v>-12200</v>
       </c>
       <c r="E89" s="3">
-        <v>-7100</v>
+        <v>9600</v>
       </c>
       <c r="F89" s="3">
-        <v>-45800</v>
+        <v>-6900</v>
       </c>
       <c r="G89" s="3">
-        <v>-11400</v>
+        <v>-44300</v>
       </c>
       <c r="H89" s="3">
-        <v>-20500</v>
+        <v>-11000</v>
       </c>
       <c r="I89" s="3">
-        <v>-5900</v>
+        <v>-19900</v>
       </c>
       <c r="J89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3000</v>
+        <v>-1100</v>
       </c>
       <c r="E94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-8400</v>
-      </c>
       <c r="G94" s="3">
-        <v>15800</v>
+        <v>-8100</v>
       </c>
       <c r="H94" s="3">
-        <v>-30800</v>
+        <v>15300</v>
       </c>
       <c r="I94" s="3">
-        <v>-6100</v>
+        <v>-29800</v>
       </c>
       <c r="J94" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K94" s="3">
         <v>4100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,8 +3759,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3562,9 +3795,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6900</v>
+        <v>1700</v>
       </c>
       <c r="E100" s="3">
-        <v>-4300</v>
+        <v>6700</v>
       </c>
       <c r="F100" s="3">
-        <v>37500</v>
+        <v>-4200</v>
       </c>
       <c r="G100" s="3">
-        <v>7500</v>
+        <v>36400</v>
       </c>
       <c r="H100" s="3">
-        <v>66400</v>
+        <v>7200</v>
       </c>
       <c r="I100" s="3">
-        <v>14800</v>
+        <v>64300</v>
       </c>
       <c r="J100" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
-        <v>2400</v>
-      </c>
       <c r="G101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13800</v>
+        <v>-11400</v>
       </c>
       <c r="E102" s="3">
-        <v>-9300</v>
+        <v>13300</v>
       </c>
       <c r="F102" s="3">
-        <v>-14200</v>
+        <v>-9000</v>
       </c>
       <c r="G102" s="3">
-        <v>12000</v>
+        <v>-13800</v>
       </c>
       <c r="H102" s="3">
-        <v>14800</v>
+        <v>11700</v>
       </c>
       <c r="I102" s="3">
-        <v>2200</v>
+        <v>14300</v>
       </c>
       <c r="J102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="E8" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="F8" s="3">
-        <v>90900</v>
+        <v>90000</v>
       </c>
       <c r="G8" s="3">
-        <v>117200</v>
+        <v>116000</v>
       </c>
       <c r="H8" s="3">
-        <v>153400</v>
+        <v>151900</v>
       </c>
       <c r="I8" s="3">
-        <v>117100</v>
+        <v>116000</v>
       </c>
       <c r="J8" s="3">
-        <v>104500</v>
+        <v>103500</v>
       </c>
       <c r="K8" s="3">
         <v>84300</v>
@@ -770,19 +770,19 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>36600</v>
+        <v>36200</v>
       </c>
       <c r="G9" s="3">
-        <v>53600</v>
+        <v>53100</v>
       </c>
       <c r="H9" s="3">
-        <v>61700</v>
+        <v>61100</v>
       </c>
       <c r="I9" s="3">
-        <v>52300</v>
+        <v>51800</v>
       </c>
       <c r="J9" s="3">
-        <v>52100</v>
+        <v>51600</v>
       </c>
       <c r="K9" s="3">
         <v>40800</v>
@@ -803,25 +803,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="E10" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="F10" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="G10" s="3">
-        <v>63500</v>
+        <v>62900</v>
       </c>
       <c r="H10" s="3">
-        <v>91600</v>
+        <v>90700</v>
       </c>
       <c r="I10" s="3">
-        <v>64800</v>
+        <v>64200</v>
       </c>
       <c r="J10" s="3">
-        <v>52300</v>
+        <v>51800</v>
       </c>
       <c r="K10" s="3">
         <v>43600</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>53100</v>
+        <v>52600</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -976,22 +976,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E15" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="F15" s="3">
         <v>8300</v>
       </c>
       <c r="G15" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H15" s="3">
         <v>5300</v>
       </c>
       <c r="I15" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J15" s="3">
         <v>2900</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="E17" s="3">
-        <v>34300</v>
+        <v>34000</v>
       </c>
       <c r="F17" s="3">
-        <v>98700</v>
+        <v>97800</v>
       </c>
       <c r="G17" s="3">
-        <v>149400</v>
+        <v>148000</v>
       </c>
       <c r="H17" s="3">
-        <v>195400</v>
+        <v>193500</v>
       </c>
       <c r="I17" s="3">
-        <v>193600</v>
+        <v>191700</v>
       </c>
       <c r="J17" s="3">
-        <v>119600</v>
+        <v>118400</v>
       </c>
       <c r="K17" s="3">
         <v>97100</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="E18" s="3">
-        <v>-18400</v>
+        <v>-18200</v>
       </c>
       <c r="F18" s="3">
         <v>-7800</v>
       </c>
       <c r="G18" s="3">
-        <v>-32300</v>
+        <v>-32000</v>
       </c>
       <c r="H18" s="3">
-        <v>-42100</v>
+        <v>-41700</v>
       </c>
       <c r="I18" s="3">
-        <v>-76400</v>
+        <v>-75700</v>
       </c>
       <c r="J18" s="3">
-        <v>-15100</v>
+        <v>-14900</v>
       </c>
       <c r="K18" s="3">
         <v>-12700</v>
@@ -1127,13 +1127,13 @@
         <v>900</v>
       </c>
       <c r="E20" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="H20" s="3">
         <v>-6400</v>
@@ -1163,10 +1163,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E21" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="F21" s="3">
         <v>700</v>
@@ -1175,13 +1175,13 @@
         <v>-5200</v>
       </c>
       <c r="H21" s="3">
-        <v>-43200</v>
+        <v>-42800</v>
       </c>
       <c r="I21" s="3">
-        <v>-69400</v>
+        <v>-68800</v>
       </c>
       <c r="J21" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="K21" s="3">
         <v>-9600</v>
@@ -1244,22 +1244,22 @@
         <v>-5800</v>
       </c>
       <c r="E23" s="3">
-        <v>-14200</v>
+        <v>-14000</v>
       </c>
       <c r="F23" s="3">
         <v>-9600</v>
       </c>
       <c r="G23" s="3">
-        <v>-14300</v>
+        <v>-14200</v>
       </c>
       <c r="H23" s="3">
-        <v>-50000</v>
+        <v>-49500</v>
       </c>
       <c r="I23" s="3">
-        <v>-73800</v>
+        <v>-73100</v>
       </c>
       <c r="J23" s="3">
-        <v>-15500</v>
+        <v>-15300</v>
       </c>
       <c r="K23" s="3">
         <v>-12800</v>
@@ -1361,22 +1361,22 @@
         <v>-6000</v>
       </c>
       <c r="E26" s="3">
-        <v>-15000</v>
+        <v>-14800</v>
       </c>
       <c r="F26" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="G26" s="3">
-        <v>-14900</v>
+        <v>-14800</v>
       </c>
       <c r="H26" s="3">
-        <v>-50700</v>
+        <v>-50200</v>
       </c>
       <c r="I26" s="3">
-        <v>-74300</v>
+        <v>-73600</v>
       </c>
       <c r="J26" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="K26" s="3">
         <v>-12200</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="E27" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="F27" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="G27" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="H27" s="3">
-        <v>-50000</v>
+        <v>-49500</v>
       </c>
       <c r="I27" s="3">
-        <v>-73900</v>
+        <v>-73200</v>
       </c>
       <c r="J27" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="K27" s="3">
         <v>-12100</v>
@@ -1595,13 +1595,13 @@
         <v>-900</v>
       </c>
       <c r="E32" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>-19800</v>
+        <v>-19600</v>
       </c>
       <c r="H32" s="3">
         <v>6400</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="E33" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="F33" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="G33" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="H33" s="3">
-        <v>-50000</v>
+        <v>-49500</v>
       </c>
       <c r="I33" s="3">
-        <v>-73900</v>
+        <v>-73200</v>
       </c>
       <c r="J33" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="K33" s="3">
         <v>-12100</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="E35" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="F35" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="G35" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="H35" s="3">
-        <v>-50000</v>
+        <v>-49500</v>
       </c>
       <c r="I35" s="3">
-        <v>-73900</v>
+        <v>-73200</v>
       </c>
       <c r="J35" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="K35" s="3">
         <v>-12100</v>
@@ -1826,22 +1826,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="E41" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="F41" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="G41" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
       <c r="H41" s="3">
-        <v>28200</v>
+        <v>28000</v>
       </c>
       <c r="I41" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="J41" s="3">
         <v>3300</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E42" s="3">
         <v>8000</v>
       </c>
-      <c r="E42" s="3">
-        <v>8100</v>
-      </c>
       <c r="F42" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="G42" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="H42" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="I42" s="3">
-        <v>38400</v>
+        <v>38000</v>
       </c>
       <c r="J42" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="K42" s="3">
         <v>9700</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>29400</v>
+        <v>29200</v>
       </c>
       <c r="E43" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="F43" s="3">
-        <v>36600</v>
+        <v>36300</v>
       </c>
       <c r="G43" s="3">
-        <v>73300</v>
+        <v>72600</v>
       </c>
       <c r="H43" s="3">
-        <v>57400</v>
+        <v>56800</v>
       </c>
       <c r="I43" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="J43" s="3">
-        <v>24200</v>
+        <v>24000</v>
       </c>
       <c r="K43" s="3">
         <v>23900</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E45" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="F45" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="G45" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="H45" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="I45" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="J45" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="K45" s="3">
         <v>4000</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>52400</v>
+        <v>51900</v>
       </c>
       <c r="E46" s="3">
-        <v>51300</v>
+        <v>50800</v>
       </c>
       <c r="F46" s="3">
-        <v>76400</v>
+        <v>75700</v>
       </c>
       <c r="G46" s="3">
-        <v>121700</v>
+        <v>120500</v>
       </c>
       <c r="H46" s="3">
-        <v>110800</v>
+        <v>109700</v>
       </c>
       <c r="I46" s="3">
-        <v>95400</v>
+        <v>94500</v>
       </c>
       <c r="J46" s="3">
-        <v>45300</v>
+        <v>44900</v>
       </c>
       <c r="K46" s="3">
         <v>39500</v>
@@ -2072,7 +2072,7 @@
         <v>700</v>
       </c>
       <c r="H47" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I47" s="3">
         <v>1000</v>
@@ -2099,7 +2099,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E48" s="3">
         <v>5900</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="E49" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="F49" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="G49" s="3">
-        <v>28000</v>
+        <v>27700</v>
       </c>
       <c r="H49" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="I49" s="3">
-        <v>20100</v>
+        <v>20000</v>
       </c>
       <c r="J49" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="K49" s="3">
         <v>17500</v>
@@ -2273,7 +2273,7 @@
         <v>1500</v>
       </c>
       <c r="J52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K52" s="3">
         <v>700</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68400</v>
+        <v>67800</v>
       </c>
       <c r="E54" s="3">
-        <v>72000</v>
+        <v>71300</v>
       </c>
       <c r="F54" s="3">
-        <v>109700</v>
+        <v>108600</v>
       </c>
       <c r="G54" s="3">
-        <v>157100</v>
+        <v>155600</v>
       </c>
       <c r="H54" s="3">
-        <v>145400</v>
+        <v>144000</v>
       </c>
       <c r="I54" s="3">
-        <v>119900</v>
+        <v>118700</v>
       </c>
       <c r="J54" s="3">
-        <v>67000</v>
+        <v>66400</v>
       </c>
       <c r="K54" s="3">
         <v>60500</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30000</v>
+        <v>29700</v>
       </c>
       <c r="E57" s="3">
-        <v>27700</v>
+        <v>27500</v>
       </c>
       <c r="F57" s="3">
-        <v>35800</v>
+        <v>35500</v>
       </c>
       <c r="G57" s="3">
-        <v>65900</v>
+        <v>65300</v>
       </c>
       <c r="H57" s="3">
-        <v>63200</v>
+        <v>62600</v>
       </c>
       <c r="I57" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="J57" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="K57" s="3">
         <v>30400</v>
@@ -2451,19 +2451,19 @@
         <v>2500</v>
       </c>
       <c r="F58" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="G58" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="H58" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K58" s="3">
         <v>1600</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="E59" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="F59" s="3">
-        <v>31400</v>
+        <v>31100</v>
       </c>
       <c r="G59" s="3">
-        <v>43900</v>
+        <v>43500</v>
       </c>
       <c r="H59" s="3">
-        <v>65300</v>
+        <v>64700</v>
       </c>
       <c r="I59" s="3">
-        <v>33400</v>
+        <v>33100</v>
       </c>
       <c r="J59" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="K59" s="3">
         <v>13700</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>52400</v>
+        <v>51900</v>
       </c>
       <c r="E60" s="3">
-        <v>43400</v>
+        <v>43000</v>
       </c>
       <c r="F60" s="3">
-        <v>80200</v>
+        <v>79500</v>
       </c>
       <c r="G60" s="3">
-        <v>124200</v>
+        <v>123000</v>
       </c>
       <c r="H60" s="3">
-        <v>134700</v>
+        <v>133400</v>
       </c>
       <c r="I60" s="3">
-        <v>73000</v>
+        <v>72300</v>
       </c>
       <c r="J60" s="3">
-        <v>43700</v>
+        <v>43300</v>
       </c>
       <c r="K60" s="3">
         <v>45600</v>
@@ -2565,10 +2565,10 @@
         <v>2900</v>
       </c>
       <c r="E61" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="F61" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
@@ -2580,7 +2580,7 @@
         <v>400</v>
       </c>
       <c r="J61" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="K61" s="3">
         <v>1500</v>
@@ -2604,7 +2604,7 @@
         <v>1900</v>
       </c>
       <c r="E62" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="F62" s="3">
         <v>4400</v>
@@ -2613,13 +2613,13 @@
         <v>2800</v>
       </c>
       <c r="H62" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="I62" s="3">
         <v>6500</v>
       </c>
       <c r="J62" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="K62" s="3">
         <v>3900</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57300</v>
+        <v>56700</v>
       </c>
       <c r="E66" s="3">
-        <v>57500</v>
+        <v>56900</v>
       </c>
       <c r="F66" s="3">
-        <v>91000</v>
+        <v>90100</v>
       </c>
       <c r="G66" s="3">
-        <v>127600</v>
+        <v>126400</v>
       </c>
       <c r="H66" s="3">
-        <v>148300</v>
+        <v>146800</v>
       </c>
       <c r="I66" s="3">
-        <v>80600</v>
+        <v>79800</v>
       </c>
       <c r="J66" s="3">
-        <v>61700</v>
+        <v>61100</v>
       </c>
       <c r="K66" s="3">
         <v>51100</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-242300</v>
+        <v>-240000</v>
       </c>
       <c r="E72" s="3">
-        <v>-238400</v>
+        <v>-236200</v>
       </c>
       <c r="F72" s="3">
-        <v>-217400</v>
+        <v>-215300</v>
       </c>
       <c r="G72" s="3">
-        <v>-206800</v>
+        <v>-204900</v>
       </c>
       <c r="H72" s="3">
-        <v>-189900</v>
+        <v>-188100</v>
       </c>
       <c r="I72" s="3">
-        <v>-141100</v>
+        <v>-139700</v>
       </c>
       <c r="J72" s="3">
-        <v>-73200</v>
+        <v>-72500</v>
       </c>
       <c r="K72" s="3">
         <v>-61300</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="E76" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="F76" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="G76" s="3">
-        <v>29500</v>
+        <v>29300</v>
       </c>
       <c r="H76" s="3">
         <v>-2800</v>
       </c>
       <c r="I76" s="3">
-        <v>39300</v>
+        <v>38900</v>
       </c>
       <c r="J76" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K76" s="3">
         <v>9400</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="E81" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="F81" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="G81" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="H81" s="3">
-        <v>-50000</v>
+        <v>-49500</v>
       </c>
       <c r="I81" s="3">
-        <v>-73900</v>
+        <v>-73200</v>
       </c>
       <c r="J81" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="K81" s="3">
         <v>-12100</v>
@@ -3303,22 +3303,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E83" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="F83" s="3">
         <v>8300</v>
       </c>
       <c r="G83" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H83" s="3">
         <v>5300</v>
       </c>
       <c r="I83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J83" s="3">
         <v>2900</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="E89" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="F89" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="G89" s="3">
-        <v>-44300</v>
+        <v>-43900</v>
       </c>
       <c r="H89" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="I89" s="3">
-        <v>-19900</v>
+        <v>-19700</v>
       </c>
       <c r="J89" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="K89" s="3">
         <v>-4900</v>
@@ -3722,13 +3722,13 @@
         <v>-8100</v>
       </c>
       <c r="H94" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="I94" s="3">
-        <v>-29800</v>
+        <v>-29500</v>
       </c>
       <c r="J94" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="K94" s="3">
         <v>4100</v>
@@ -3925,22 +3925,22 @@
         <v>1700</v>
       </c>
       <c r="E100" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="F100" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="G100" s="3">
-        <v>36400</v>
+        <v>36000</v>
       </c>
       <c r="H100" s="3">
         <v>7200</v>
       </c>
       <c r="I100" s="3">
-        <v>64300</v>
+        <v>63700</v>
       </c>
       <c r="J100" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="K100" s="3">
         <v>600</v>
@@ -4000,22 +4000,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="E102" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="F102" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="G102" s="3">
-        <v>-13800</v>
+        <v>-13700</v>
       </c>
       <c r="H102" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="I102" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="J102" s="3">
         <v>2100</v>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>24700</v>
+        <v>24300</v>
       </c>
       <c r="E8" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="F8" s="3">
-        <v>90000</v>
+        <v>88500</v>
       </c>
       <c r="G8" s="3">
-        <v>116000</v>
+        <v>114100</v>
       </c>
       <c r="H8" s="3">
-        <v>151900</v>
+        <v>149300</v>
       </c>
       <c r="I8" s="3">
-        <v>116000</v>
+        <v>114100</v>
       </c>
       <c r="J8" s="3">
-        <v>103500</v>
+        <v>101700</v>
       </c>
       <c r="K8" s="3">
         <v>84300</v>
@@ -764,25 +764,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>36200</v>
+        <v>35600</v>
       </c>
       <c r="G9" s="3">
-        <v>53100</v>
+        <v>52200</v>
       </c>
       <c r="H9" s="3">
-        <v>61100</v>
+        <v>60100</v>
       </c>
       <c r="I9" s="3">
-        <v>51800</v>
+        <v>50900</v>
       </c>
       <c r="J9" s="3">
-        <v>51600</v>
+        <v>50800</v>
       </c>
       <c r="K9" s="3">
         <v>40800</v>
@@ -803,25 +803,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>22700</v>
+        <v>22300</v>
       </c>
       <c r="E10" s="3">
-        <v>15500</v>
+        <v>15200</v>
       </c>
       <c r="F10" s="3">
-        <v>53800</v>
+        <v>52900</v>
       </c>
       <c r="G10" s="3">
-        <v>62900</v>
+        <v>61900</v>
       </c>
       <c r="H10" s="3">
-        <v>90700</v>
+        <v>89200</v>
       </c>
       <c r="I10" s="3">
-        <v>64200</v>
+        <v>63100</v>
       </c>
       <c r="J10" s="3">
-        <v>51800</v>
+        <v>51000</v>
       </c>
       <c r="K10" s="3">
         <v>43600</v>
@@ -940,10 +940,10 @@
         <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F14" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>52600</v>
+        <v>51700</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -979,22 +979,22 @@
         <v>3800</v>
       </c>
       <c r="E15" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="F15" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="G15" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H15" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="I15" s="3">
         <v>3400</v>
       </c>
       <c r="J15" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K15" s="3">
         <v>2700</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30700</v>
+        <v>30200</v>
       </c>
       <c r="E17" s="3">
-        <v>34000</v>
+        <v>33400</v>
       </c>
       <c r="F17" s="3">
-        <v>97800</v>
+        <v>96100</v>
       </c>
       <c r="G17" s="3">
-        <v>148000</v>
+        <v>145500</v>
       </c>
       <c r="H17" s="3">
-        <v>193500</v>
+        <v>190300</v>
       </c>
       <c r="I17" s="3">
-        <v>191700</v>
+        <v>188500</v>
       </c>
       <c r="J17" s="3">
-        <v>118400</v>
+        <v>116400</v>
       </c>
       <c r="K17" s="3">
         <v>97100</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="E18" s="3">
-        <v>-18200</v>
+        <v>-17900</v>
       </c>
       <c r="F18" s="3">
-        <v>-7800</v>
+        <v>-7600</v>
       </c>
       <c r="G18" s="3">
-        <v>-32000</v>
+        <v>-31400</v>
       </c>
       <c r="H18" s="3">
-        <v>-41700</v>
+        <v>-41000</v>
       </c>
       <c r="I18" s="3">
-        <v>-75700</v>
+        <v>-74400</v>
       </c>
       <c r="J18" s="3">
-        <v>-14900</v>
+        <v>-14700</v>
       </c>
       <c r="K18" s="3">
         <v>-12700</v>
@@ -1127,19 +1127,19 @@
         <v>900</v>
       </c>
       <c r="E20" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>19600</v>
+        <v>19200</v>
       </c>
       <c r="H20" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="I20" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E21" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="F21" s="3">
         <v>700</v>
       </c>
       <c r="G21" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="H21" s="3">
-        <v>-42800</v>
+        <v>-42000</v>
       </c>
       <c r="I21" s="3">
-        <v>-68800</v>
+        <v>-67600</v>
       </c>
       <c r="J21" s="3">
-        <v>-11700</v>
+        <v>-11500</v>
       </c>
       <c r="K21" s="3">
         <v>-9600</v>
@@ -1217,7 +1217,7 @@
         <v>1500</v>
       </c>
       <c r="I22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="E23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-14000</v>
       </c>
-      <c r="F23" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-14200</v>
-      </c>
       <c r="H23" s="3">
-        <v>-49500</v>
+        <v>-48700</v>
       </c>
       <c r="I23" s="3">
-        <v>-73100</v>
+        <v>-71900</v>
       </c>
       <c r="J23" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="K23" s="3">
         <v>-12800</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="E26" s="3">
-        <v>-14800</v>
+        <v>-14600</v>
       </c>
       <c r="F26" s="3">
-        <v>-10400</v>
+        <v>-10200</v>
       </c>
       <c r="G26" s="3">
-        <v>-14800</v>
+        <v>-14500</v>
       </c>
       <c r="H26" s="3">
-        <v>-50200</v>
+        <v>-49400</v>
       </c>
       <c r="I26" s="3">
-        <v>-73600</v>
+        <v>-72400</v>
       </c>
       <c r="J26" s="3">
-        <v>-15400</v>
+        <v>-15200</v>
       </c>
       <c r="K26" s="3">
         <v>-12200</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="E27" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="F27" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="G27" s="3">
-        <v>-14200</v>
+        <v>-14000</v>
       </c>
       <c r="H27" s="3">
-        <v>-49500</v>
+        <v>-48700</v>
       </c>
       <c r="I27" s="3">
-        <v>-73200</v>
+        <v>-71900</v>
       </c>
       <c r="J27" s="3">
-        <v>-15100</v>
+        <v>-14900</v>
       </c>
       <c r="K27" s="3">
         <v>-12100</v>
@@ -1595,19 +1595,19 @@
         <v>-900</v>
       </c>
       <c r="E32" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>-19600</v>
+        <v>-19200</v>
       </c>
       <c r="H32" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="I32" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="E33" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="F33" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="G33" s="3">
-        <v>-14200</v>
+        <v>-14000</v>
       </c>
       <c r="H33" s="3">
-        <v>-49500</v>
+        <v>-48700</v>
       </c>
       <c r="I33" s="3">
-        <v>-73200</v>
+        <v>-71900</v>
       </c>
       <c r="J33" s="3">
-        <v>-15100</v>
+        <v>-14900</v>
       </c>
       <c r="K33" s="3">
         <v>-12100</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="E35" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="F35" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="G35" s="3">
-        <v>-14200</v>
+        <v>-14000</v>
       </c>
       <c r="H35" s="3">
-        <v>-49500</v>
+        <v>-48700</v>
       </c>
       <c r="I35" s="3">
-        <v>-73200</v>
+        <v>-71900</v>
       </c>
       <c r="J35" s="3">
-        <v>-15100</v>
+        <v>-14900</v>
       </c>
       <c r="K35" s="3">
         <v>-12100</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="E41" s="3">
-        <v>20300</v>
+        <v>19900</v>
       </c>
       <c r="F41" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="G41" s="3">
-        <v>22000</v>
+        <v>21600</v>
       </c>
       <c r="H41" s="3">
-        <v>28000</v>
+        <v>27500</v>
       </c>
       <c r="I41" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="J41" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K41" s="3">
         <v>1800</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E42" s="3">
         <v>7900</v>
       </c>
-      <c r="E42" s="3">
-        <v>8000</v>
-      </c>
       <c r="F42" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H42" s="3">
         <v>12800</v>
       </c>
-      <c r="G42" s="3">
-        <v>15400</v>
-      </c>
-      <c r="H42" s="3">
-        <v>13100</v>
-      </c>
       <c r="I42" s="3">
-        <v>38000</v>
+        <v>37300</v>
       </c>
       <c r="J42" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="K42" s="3">
         <v>9700</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>29200</v>
+        <v>28700</v>
       </c>
       <c r="E43" s="3">
-        <v>15500</v>
+        <v>15200</v>
       </c>
       <c r="F43" s="3">
-        <v>36300</v>
+        <v>35700</v>
       </c>
       <c r="G43" s="3">
-        <v>72600</v>
+        <v>71400</v>
       </c>
       <c r="H43" s="3">
-        <v>56800</v>
+        <v>55900</v>
       </c>
       <c r="I43" s="3">
-        <v>31700</v>
+        <v>31200</v>
       </c>
       <c r="J43" s="3">
-        <v>24000</v>
+        <v>23600</v>
       </c>
       <c r="K43" s="3">
         <v>23900</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="E45" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="F45" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="G45" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="H45" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="I45" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="J45" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K45" s="3">
         <v>4000</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>51900</v>
+        <v>51000</v>
       </c>
       <c r="E46" s="3">
-        <v>50800</v>
+        <v>49900</v>
       </c>
       <c r="F46" s="3">
-        <v>75700</v>
+        <v>74400</v>
       </c>
       <c r="G46" s="3">
-        <v>120500</v>
+        <v>118500</v>
       </c>
       <c r="H46" s="3">
-        <v>109700</v>
+        <v>107900</v>
       </c>
       <c r="I46" s="3">
-        <v>94500</v>
+        <v>92900</v>
       </c>
       <c r="J46" s="3">
-        <v>44900</v>
+        <v>44100</v>
       </c>
       <c r="K46" s="3">
         <v>39500</v>
@@ -2078,7 +2078,7 @@
         <v>1000</v>
       </c>
       <c r="J47" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K47" s="3">
         <v>1600</v>
@@ -2102,22 +2102,22 @@
         <v>3100</v>
       </c>
       <c r="E48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="F48" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="G48" s="3">
         <v>1900</v>
       </c>
       <c r="H48" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K48" s="3">
         <v>1200</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="E49" s="3">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="F49" s="3">
-        <v>21100</v>
+        <v>20800</v>
       </c>
       <c r="G49" s="3">
-        <v>27700</v>
+        <v>27300</v>
       </c>
       <c r="H49" s="3">
-        <v>27600</v>
+        <v>27100</v>
       </c>
       <c r="I49" s="3">
-        <v>20000</v>
+        <v>19600</v>
       </c>
       <c r="J49" s="3">
-        <v>17500</v>
+        <v>17200</v>
       </c>
       <c r="K49" s="3">
         <v>17500</v>
@@ -2261,13 +2261,13 @@
         <v>3000</v>
       </c>
       <c r="F52" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G52" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H52" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I52" s="3">
         <v>1500</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>67800</v>
+        <v>66600</v>
       </c>
       <c r="E54" s="3">
-        <v>71300</v>
+        <v>70100</v>
       </c>
       <c r="F54" s="3">
-        <v>108600</v>
+        <v>106800</v>
       </c>
       <c r="G54" s="3">
-        <v>155600</v>
+        <v>153000</v>
       </c>
       <c r="H54" s="3">
-        <v>144000</v>
+        <v>141600</v>
       </c>
       <c r="I54" s="3">
-        <v>118700</v>
+        <v>116700</v>
       </c>
       <c r="J54" s="3">
-        <v>66400</v>
+        <v>65300</v>
       </c>
       <c r="K54" s="3">
         <v>60500</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29700</v>
+        <v>29200</v>
       </c>
       <c r="E57" s="3">
-        <v>27500</v>
+        <v>27000</v>
       </c>
       <c r="F57" s="3">
-        <v>35500</v>
+        <v>34900</v>
       </c>
       <c r="G57" s="3">
-        <v>65300</v>
+        <v>64200</v>
       </c>
       <c r="H57" s="3">
-        <v>62600</v>
+        <v>61600</v>
       </c>
       <c r="I57" s="3">
-        <v>39000</v>
+        <v>38400</v>
       </c>
       <c r="J57" s="3">
-        <v>25400</v>
+        <v>25000</v>
       </c>
       <c r="K57" s="3">
         <v>30400</v>
@@ -2445,19 +2445,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E58" s="3">
         <v>2500</v>
       </c>
       <c r="F58" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="G58" s="3">
-        <v>14300</v>
+        <v>14000</v>
       </c>
       <c r="H58" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17300</v>
+        <v>17000</v>
       </c>
       <c r="E59" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="F59" s="3">
-        <v>31100</v>
+        <v>30600</v>
       </c>
       <c r="G59" s="3">
-        <v>43500</v>
+        <v>42700</v>
       </c>
       <c r="H59" s="3">
-        <v>64700</v>
+        <v>63600</v>
       </c>
       <c r="I59" s="3">
-        <v>33100</v>
+        <v>32500</v>
       </c>
       <c r="J59" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="K59" s="3">
         <v>13700</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51900</v>
+        <v>51000</v>
       </c>
       <c r="E60" s="3">
-        <v>43000</v>
+        <v>42300</v>
       </c>
       <c r="F60" s="3">
-        <v>79500</v>
+        <v>78100</v>
       </c>
       <c r="G60" s="3">
-        <v>123000</v>
+        <v>120900</v>
       </c>
       <c r="H60" s="3">
-        <v>133400</v>
+        <v>131100</v>
       </c>
       <c r="I60" s="3">
-        <v>72300</v>
+        <v>71100</v>
       </c>
       <c r="J60" s="3">
-        <v>43300</v>
+        <v>42500</v>
       </c>
       <c r="K60" s="3">
         <v>45600</v>
@@ -2568,19 +2568,19 @@
         <v>5300</v>
       </c>
       <c r="F61" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I61" s="3">
         <v>400</v>
       </c>
       <c r="J61" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="K61" s="3">
         <v>1500</v>
@@ -2604,22 +2604,22 @@
         <v>1900</v>
       </c>
       <c r="E62" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="F62" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G62" s="3">
         <v>2800</v>
       </c>
       <c r="H62" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="I62" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J62" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="K62" s="3">
         <v>3900</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56700</v>
+        <v>55800</v>
       </c>
       <c r="E66" s="3">
-        <v>56900</v>
+        <v>55900</v>
       </c>
       <c r="F66" s="3">
-        <v>90100</v>
+        <v>88600</v>
       </c>
       <c r="G66" s="3">
-        <v>126400</v>
+        <v>124200</v>
       </c>
       <c r="H66" s="3">
-        <v>146800</v>
+        <v>144400</v>
       </c>
       <c r="I66" s="3">
-        <v>79800</v>
+        <v>78500</v>
       </c>
       <c r="J66" s="3">
-        <v>61100</v>
+        <v>60000</v>
       </c>
       <c r="K66" s="3">
         <v>51100</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-240000</v>
+        <v>-235900</v>
       </c>
       <c r="E72" s="3">
-        <v>-236200</v>
+        <v>-232200</v>
       </c>
       <c r="F72" s="3">
-        <v>-215300</v>
+        <v>-211700</v>
       </c>
       <c r="G72" s="3">
-        <v>-204900</v>
+        <v>-201400</v>
       </c>
       <c r="H72" s="3">
-        <v>-188100</v>
+        <v>-184900</v>
       </c>
       <c r="I72" s="3">
-        <v>-139700</v>
+        <v>-137400</v>
       </c>
       <c r="J72" s="3">
-        <v>-72500</v>
+        <v>-71300</v>
       </c>
       <c r="K72" s="3">
         <v>-61300</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="E76" s="3">
-        <v>14400</v>
+        <v>14100</v>
       </c>
       <c r="F76" s="3">
-        <v>18500</v>
+        <v>18200</v>
       </c>
       <c r="G76" s="3">
-        <v>29300</v>
+        <v>28800</v>
       </c>
       <c r="H76" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I76" s="3">
-        <v>38900</v>
+        <v>38200</v>
       </c>
       <c r="J76" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="K76" s="3">
         <v>9400</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="E81" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="F81" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="G81" s="3">
-        <v>-14200</v>
+        <v>-14000</v>
       </c>
       <c r="H81" s="3">
-        <v>-49500</v>
+        <v>-48700</v>
       </c>
       <c r="I81" s="3">
-        <v>-73200</v>
+        <v>-71900</v>
       </c>
       <c r="J81" s="3">
-        <v>-15100</v>
+        <v>-14900</v>
       </c>
       <c r="K81" s="3">
         <v>-12100</v>
@@ -3306,22 +3306,22 @@
         <v>3800</v>
       </c>
       <c r="E83" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="F83" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="G83" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H83" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="I83" s="3">
         <v>3400</v>
       </c>
       <c r="J83" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K83" s="3">
         <v>2700</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12100</v>
+        <v>-11900</v>
       </c>
       <c r="E89" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="F89" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="G89" s="3">
-        <v>-43900</v>
+        <v>-43200</v>
       </c>
       <c r="H89" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="I89" s="3">
-        <v>-19700</v>
+        <v>-19400</v>
       </c>
       <c r="J89" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="K89" s="3">
         <v>-4900</v>
@@ -3605,13 +3605,13 @@
         <v>-400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I91" s="3">
         <v>-800</v>
       </c>
       <c r="J91" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K91" s="3">
         <v>-700</v>
@@ -3713,22 +3713,22 @@
         <v>-1100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="F94" s="3">
         <v>1200</v>
       </c>
       <c r="G94" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="H94" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="I94" s="3">
-        <v>-29500</v>
+        <v>-29000</v>
       </c>
       <c r="J94" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="K94" s="3">
         <v>4100</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E100" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="F100" s="3">
         <v>-4100</v>
       </c>
       <c r="G100" s="3">
-        <v>36000</v>
+        <v>35400</v>
       </c>
       <c r="H100" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I100" s="3">
-        <v>63700</v>
+        <v>62600</v>
       </c>
       <c r="J100" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="K100" s="3">
         <v>600</v>
@@ -3961,7 +3961,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
@@ -4000,22 +4000,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11300</v>
+        <v>-11100</v>
       </c>
       <c r="E102" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="F102" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="G102" s="3">
-        <v>-13700</v>
+        <v>-13400</v>
       </c>
       <c r="H102" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="I102" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="J102" s="3">
         <v>2100</v>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="E8" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="F8" s="3">
-        <v>88500</v>
+        <v>87800</v>
       </c>
       <c r="G8" s="3">
-        <v>114100</v>
+        <v>113100</v>
       </c>
       <c r="H8" s="3">
-        <v>149300</v>
+        <v>148100</v>
       </c>
       <c r="I8" s="3">
-        <v>114100</v>
+        <v>113100</v>
       </c>
       <c r="J8" s="3">
-        <v>101700</v>
+        <v>100900</v>
       </c>
       <c r="K8" s="3">
         <v>84300</v>
@@ -770,19 +770,19 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="G9" s="3">
-        <v>52200</v>
+        <v>51800</v>
       </c>
       <c r="H9" s="3">
-        <v>60100</v>
+        <v>59600</v>
       </c>
       <c r="I9" s="3">
-        <v>50900</v>
+        <v>50500</v>
       </c>
       <c r="J9" s="3">
-        <v>50800</v>
+        <v>50300</v>
       </c>
       <c r="K9" s="3">
         <v>40800</v>
@@ -803,25 +803,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="E10" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="F10" s="3">
-        <v>52900</v>
+        <v>52400</v>
       </c>
       <c r="G10" s="3">
-        <v>61900</v>
+        <v>61400</v>
       </c>
       <c r="H10" s="3">
-        <v>89200</v>
+        <v>88500</v>
       </c>
       <c r="I10" s="3">
-        <v>63100</v>
+        <v>62600</v>
       </c>
       <c r="J10" s="3">
-        <v>51000</v>
+        <v>50500</v>
       </c>
       <c r="K10" s="3">
         <v>43600</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>51700</v>
+        <v>51300</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E15" s="3">
         <v>9100</v>
@@ -985,13 +985,13 @@
         <v>8100</v>
       </c>
       <c r="G15" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="H15" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="I15" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J15" s="3">
         <v>2800</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="E17" s="3">
-        <v>33400</v>
+        <v>33100</v>
       </c>
       <c r="F17" s="3">
-        <v>96100</v>
+        <v>95300</v>
       </c>
       <c r="G17" s="3">
-        <v>145500</v>
+        <v>144300</v>
       </c>
       <c r="H17" s="3">
-        <v>190300</v>
+        <v>188700</v>
       </c>
       <c r="I17" s="3">
-        <v>188500</v>
+        <v>186900</v>
       </c>
       <c r="J17" s="3">
-        <v>116400</v>
+        <v>115500</v>
       </c>
       <c r="K17" s="3">
         <v>97100</v>
@@ -1071,22 +1071,22 @@
         <v>-5900</v>
       </c>
       <c r="E18" s="3">
-        <v>-17900</v>
+        <v>-17800</v>
       </c>
       <c r="F18" s="3">
         <v>-7600</v>
       </c>
       <c r="G18" s="3">
-        <v>-31400</v>
+        <v>-31200</v>
       </c>
       <c r="H18" s="3">
-        <v>-41000</v>
+        <v>-40600</v>
       </c>
       <c r="I18" s="3">
-        <v>-74400</v>
+        <v>-73800</v>
       </c>
       <c r="J18" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="K18" s="3">
         <v>-12700</v>
@@ -1133,7 +1133,7 @@
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="H20" s="3">
         <v>-6200</v>
@@ -1172,16 +1172,16 @@
         <v>700</v>
       </c>
       <c r="G21" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="H21" s="3">
-        <v>-42000</v>
+        <v>-41700</v>
       </c>
       <c r="I21" s="3">
-        <v>-67600</v>
+        <v>-67000</v>
       </c>
       <c r="J21" s="3">
-        <v>-11500</v>
+        <v>-11400</v>
       </c>
       <c r="K21" s="3">
         <v>-9600</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="E23" s="3">
-        <v>-13800</v>
+        <v>-13700</v>
       </c>
       <c r="F23" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="G23" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="H23" s="3">
-        <v>-48700</v>
+        <v>-48300</v>
       </c>
       <c r="I23" s="3">
-        <v>-71900</v>
+        <v>-71300</v>
       </c>
       <c r="J23" s="3">
-        <v>-15100</v>
+        <v>-15000</v>
       </c>
       <c r="K23" s="3">
         <v>-12800</v>
@@ -1286,7 +1286,7 @@
         <v>800</v>
       </c>
       <c r="F24" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="E26" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="F26" s="3">
         <v>-10200</v>
       </c>
       <c r="G26" s="3">
-        <v>-14500</v>
+        <v>-14400</v>
       </c>
       <c r="H26" s="3">
-        <v>-49400</v>
+        <v>-49000</v>
       </c>
       <c r="I26" s="3">
-        <v>-72400</v>
+        <v>-71800</v>
       </c>
       <c r="J26" s="3">
-        <v>-15200</v>
+        <v>-15000</v>
       </c>
       <c r="K26" s="3">
         <v>-12200</v>
@@ -1400,22 +1400,22 @@
         <v>-5800</v>
       </c>
       <c r="E27" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="F27" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="G27" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="H27" s="3">
-        <v>-48700</v>
+        <v>-48300</v>
       </c>
       <c r="I27" s="3">
-        <v>-71900</v>
+        <v>-71300</v>
       </c>
       <c r="J27" s="3">
-        <v>-14900</v>
+        <v>-14700</v>
       </c>
       <c r="K27" s="3">
         <v>-12100</v>
@@ -1601,7 +1601,7 @@
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>-19200</v>
+        <v>-19100</v>
       </c>
       <c r="H32" s="3">
         <v>6200</v>
@@ -1634,22 +1634,22 @@
         <v>-5800</v>
       </c>
       <c r="E33" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="F33" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="G33" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="H33" s="3">
-        <v>-48700</v>
+        <v>-48300</v>
       </c>
       <c r="I33" s="3">
-        <v>-71900</v>
+        <v>-71300</v>
       </c>
       <c r="J33" s="3">
-        <v>-14900</v>
+        <v>-14700</v>
       </c>
       <c r="K33" s="3">
         <v>-12100</v>
@@ -1712,22 +1712,22 @@
         <v>-5800</v>
       </c>
       <c r="E35" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="F35" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="G35" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="H35" s="3">
-        <v>-48700</v>
+        <v>-48300</v>
       </c>
       <c r="I35" s="3">
-        <v>-71900</v>
+        <v>-71300</v>
       </c>
       <c r="J35" s="3">
-        <v>-14900</v>
+        <v>-14700</v>
       </c>
       <c r="K35" s="3">
         <v>-12100</v>
@@ -1826,22 +1826,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E41" s="3">
-        <v>19900</v>
+        <v>19800</v>
       </c>
       <c r="F41" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="G41" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="H41" s="3">
-        <v>27500</v>
+        <v>27300</v>
       </c>
       <c r="I41" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="J41" s="3">
         <v>3200</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E42" s="3">
         <v>7800</v>
       </c>
-      <c r="E42" s="3">
-        <v>7900</v>
-      </c>
       <c r="F42" s="3">
+        <v>12400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>37000</v>
+      </c>
+      <c r="J42" s="3">
         <v>12500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>15100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>12800</v>
-      </c>
-      <c r="I42" s="3">
-        <v>37300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>12600</v>
       </c>
       <c r="K42" s="3">
         <v>9700</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="E43" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="F43" s="3">
-        <v>35700</v>
+        <v>35400</v>
       </c>
       <c r="G43" s="3">
-        <v>71400</v>
+        <v>70800</v>
       </c>
       <c r="H43" s="3">
-        <v>55900</v>
+        <v>55400</v>
       </c>
       <c r="I43" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="J43" s="3">
-        <v>23600</v>
+        <v>23400</v>
       </c>
       <c r="K43" s="3">
         <v>23900</v>
@@ -1982,22 +1982,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="E45" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="F45" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="G45" s="3">
         <v>10300</v>
       </c>
       <c r="H45" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="I45" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="J45" s="3">
         <v>4600</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>51000</v>
+        <v>50600</v>
       </c>
       <c r="E46" s="3">
-        <v>49900</v>
+        <v>49500</v>
       </c>
       <c r="F46" s="3">
-        <v>74400</v>
+        <v>73800</v>
       </c>
       <c r="G46" s="3">
-        <v>118500</v>
+        <v>117500</v>
       </c>
       <c r="H46" s="3">
-        <v>107900</v>
+        <v>107000</v>
       </c>
       <c r="I46" s="3">
-        <v>92900</v>
+        <v>92100</v>
       </c>
       <c r="J46" s="3">
-        <v>44100</v>
+        <v>43800</v>
       </c>
       <c r="K46" s="3">
         <v>39500</v>
@@ -2063,7 +2063,7 @@
         <v>600</v>
       </c>
       <c r="E47" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F47" s="3">
         <v>400</v>
@@ -2099,10 +2099,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="F48" s="3">
         <v>7300</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="E49" s="3">
         <v>10800</v>
       </c>
       <c r="F49" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="G49" s="3">
-        <v>27300</v>
+        <v>27000</v>
       </c>
       <c r="H49" s="3">
-        <v>27100</v>
+        <v>26900</v>
       </c>
       <c r="I49" s="3">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="J49" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="K49" s="3">
         <v>17500</v>
@@ -2255,10 +2255,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E52" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F52" s="3">
         <v>3900</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66600</v>
+        <v>66100</v>
       </c>
       <c r="E54" s="3">
-        <v>70100</v>
+        <v>69500</v>
       </c>
       <c r="F54" s="3">
-        <v>106800</v>
+        <v>105900</v>
       </c>
       <c r="G54" s="3">
-        <v>153000</v>
+        <v>151800</v>
       </c>
       <c r="H54" s="3">
-        <v>141600</v>
+        <v>140400</v>
       </c>
       <c r="I54" s="3">
-        <v>116700</v>
+        <v>115800</v>
       </c>
       <c r="J54" s="3">
-        <v>65300</v>
+        <v>64700</v>
       </c>
       <c r="K54" s="3">
         <v>60500</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29200</v>
+        <v>29000</v>
       </c>
       <c r="E57" s="3">
-        <v>27000</v>
+        <v>26800</v>
       </c>
       <c r="F57" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="G57" s="3">
-        <v>64200</v>
+        <v>63700</v>
       </c>
       <c r="H57" s="3">
-        <v>61600</v>
+        <v>61100</v>
       </c>
       <c r="I57" s="3">
-        <v>38400</v>
+        <v>38100</v>
       </c>
       <c r="J57" s="3">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="K57" s="3">
         <v>30400</v>
@@ -2451,13 +2451,13 @@
         <v>2500</v>
       </c>
       <c r="F58" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="G58" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="H58" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="E59" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="F59" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="G59" s="3">
-        <v>42700</v>
+        <v>42400</v>
       </c>
       <c r="H59" s="3">
-        <v>63600</v>
+        <v>63100</v>
       </c>
       <c r="I59" s="3">
-        <v>32500</v>
+        <v>32300</v>
       </c>
       <c r="J59" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="K59" s="3">
         <v>13700</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51000</v>
+        <v>50600</v>
       </c>
       <c r="E60" s="3">
-        <v>42300</v>
+        <v>42000</v>
       </c>
       <c r="F60" s="3">
-        <v>78100</v>
+        <v>77500</v>
       </c>
       <c r="G60" s="3">
-        <v>120900</v>
+        <v>120000</v>
       </c>
       <c r="H60" s="3">
-        <v>131100</v>
+        <v>130100</v>
       </c>
       <c r="I60" s="3">
-        <v>71100</v>
+        <v>70500</v>
       </c>
       <c r="J60" s="3">
-        <v>42500</v>
+        <v>42200</v>
       </c>
       <c r="K60" s="3">
         <v>45600</v>
@@ -2562,10 +2562,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E61" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="F61" s="3">
         <v>5900</v>
@@ -2610,16 +2610,16 @@
         <v>4300</v>
       </c>
       <c r="G62" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H62" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="I62" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="J62" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="K62" s="3">
         <v>3900</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55800</v>
+        <v>55300</v>
       </c>
       <c r="E66" s="3">
-        <v>55900</v>
+        <v>55500</v>
       </c>
       <c r="F66" s="3">
-        <v>88600</v>
+        <v>87800</v>
       </c>
       <c r="G66" s="3">
-        <v>124200</v>
+        <v>123200</v>
       </c>
       <c r="H66" s="3">
-        <v>144400</v>
+        <v>143200</v>
       </c>
       <c r="I66" s="3">
-        <v>78500</v>
+        <v>77800</v>
       </c>
       <c r="J66" s="3">
-        <v>60000</v>
+        <v>59500</v>
       </c>
       <c r="K66" s="3">
         <v>51100</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-235900</v>
+        <v>-234000</v>
       </c>
       <c r="E72" s="3">
-        <v>-232200</v>
+        <v>-230300</v>
       </c>
       <c r="F72" s="3">
-        <v>-211700</v>
+        <v>-209900</v>
       </c>
       <c r="G72" s="3">
-        <v>-201400</v>
+        <v>-199700</v>
       </c>
       <c r="H72" s="3">
-        <v>-184900</v>
+        <v>-183400</v>
       </c>
       <c r="I72" s="3">
-        <v>-137400</v>
+        <v>-136300</v>
       </c>
       <c r="J72" s="3">
-        <v>-71300</v>
+        <v>-70700</v>
       </c>
       <c r="K72" s="3">
         <v>-61300</v>
@@ -3125,22 +3125,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="E76" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="F76" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="G76" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="H76" s="3">
         <v>-2700</v>
       </c>
       <c r="I76" s="3">
-        <v>38200</v>
+        <v>37900</v>
       </c>
       <c r="J76" s="3">
         <v>5200</v>
@@ -3250,22 +3250,22 @@
         <v>-5800</v>
       </c>
       <c r="E81" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="F81" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="G81" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="H81" s="3">
-        <v>-48700</v>
+        <v>-48300</v>
       </c>
       <c r="I81" s="3">
-        <v>-71900</v>
+        <v>-71300</v>
       </c>
       <c r="J81" s="3">
-        <v>-14900</v>
+        <v>-14700</v>
       </c>
       <c r="K81" s="3">
         <v>-12100</v>
@@ -3303,7 +3303,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E83" s="3">
         <v>9100</v>
@@ -3312,13 +3312,13 @@
         <v>8100</v>
       </c>
       <c r="G83" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="H83" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="I83" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J83" s="3">
         <v>2800</v>
@@ -3537,7 +3537,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="E89" s="3">
         <v>9300</v>
@@ -3546,13 +3546,13 @@
         <v>-6700</v>
       </c>
       <c r="G89" s="3">
-        <v>-43200</v>
+        <v>-42800</v>
       </c>
       <c r="H89" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="I89" s="3">
-        <v>-19400</v>
+        <v>-19200</v>
       </c>
       <c r="J89" s="3">
         <v>-5600</v>
@@ -3710,7 +3710,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E94" s="3">
         <v>-2800</v>
@@ -3722,13 +3722,13 @@
         <v>-7900</v>
       </c>
       <c r="H94" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="I94" s="3">
-        <v>-29000</v>
+        <v>-28800</v>
       </c>
       <c r="J94" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="K94" s="3">
         <v>4100</v>
@@ -3928,19 +3928,19 @@
         <v>6500</v>
       </c>
       <c r="F100" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="G100" s="3">
-        <v>35400</v>
+        <v>35100</v>
       </c>
       <c r="H100" s="3">
         <v>7000</v>
       </c>
       <c r="I100" s="3">
-        <v>62600</v>
+        <v>62100</v>
       </c>
       <c r="J100" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="K100" s="3">
         <v>600</v>
@@ -3967,7 +3967,7 @@
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G101" s="3">
         <v>2300</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="E102" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="F102" s="3">
         <v>-8700</v>
       </c>
       <c r="G102" s="3">
-        <v>-13400</v>
+        <v>-13300</v>
       </c>
       <c r="H102" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="I102" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="J102" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>YTRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41730</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E8" s="3">
         <v>24100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>87800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>113100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>148100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>113100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>84300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>51800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>59600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>50500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>50300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E10" s="3">
         <v>22100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>52400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>61400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>88500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>62600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>50500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,35 +946,38 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>51300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -969,48 +988,54 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E15" s="3">
         <v>3700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2700</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E17" s="3">
         <v>29900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>95300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>144300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>188700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>186900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>115500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>97100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-40600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-73800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>19100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-41700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-67000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-48300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-71300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>800</v>
       </c>
       <c r="F24" s="3">
         <v>800</v>
       </c>
       <c r="G24" s="3">
+        <v>800</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-49000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-71800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-48300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-71300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-19100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-48300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-71300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-48300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-71300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41730</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,125 +1905,135 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
         <v>7600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E42" s="3">
         <v>7700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>15000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>37000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E43" s="3">
         <v>28400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>35400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>70800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>55400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>30900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1955,146 +2050,158 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6800</v>
+        <v>11500</v>
       </c>
       <c r="E45" s="3">
         <v>6800</v>
       </c>
       <c r="F45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G45" s="3">
         <v>9700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E46" s="3">
         <v>50600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>49500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>73800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>117500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>107000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>92100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>43800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>39500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>48200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2102,77 +2209,83 @@
         <v>3000</v>
       </c>
       <c r="E48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F48" s="3">
         <v>5700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E49" s="3">
         <v>9100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>27000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>26900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E54" s="3">
         <v>66100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>105900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>151800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>140400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>115800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>64700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E57" s="3">
         <v>29000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>63700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>61100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E58" s="3">
         <v>4800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E59" s="3">
         <v>16900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>63100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E60" s="3">
         <v>50600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>77500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>120000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>130100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>70500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E66" s="3">
         <v>55300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>87800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>123200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>143200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>59500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>51100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-237400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-234000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-230300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-209900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-199700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-183400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-136300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-70700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E76" s="3">
         <v>10800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>37900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41730</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-48300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-71300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>3700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-42800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-800</v>
       </c>
       <c r="J91" s="3">
         <v>-800</v>
       </c>
       <c r="K91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>14800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,8 +3992,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3798,9 +4031,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>35100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>62100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YTRA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>YTRA</t>
   </si>
@@ -728,25 +728,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>46300</v>
+        <v>46000</v>
       </c>
       <c r="E8" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="F8" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="G8" s="3">
-        <v>87800</v>
+        <v>87300</v>
       </c>
       <c r="H8" s="3">
-        <v>113100</v>
+        <v>112600</v>
       </c>
       <c r="I8" s="3">
-        <v>148100</v>
+        <v>147300</v>
       </c>
       <c r="J8" s="3">
-        <v>113100</v>
+        <v>112600</v>
       </c>
       <c r="K8" s="3">
         <v>100900</v>
@@ -770,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="E9" s="3">
         <v>1900</v>
@@ -779,16 +779,16 @@
         <v>300</v>
       </c>
       <c r="G9" s="3">
-        <v>35300</v>
+        <v>35200</v>
       </c>
       <c r="H9" s="3">
-        <v>51800</v>
+        <v>51500</v>
       </c>
       <c r="I9" s="3">
-        <v>59600</v>
+        <v>59300</v>
       </c>
       <c r="J9" s="3">
-        <v>50500</v>
+        <v>50300</v>
       </c>
       <c r="K9" s="3">
         <v>50300</v>
@@ -812,25 +812,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>38200</v>
+        <v>38000</v>
       </c>
       <c r="E10" s="3">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="F10" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="3">
-        <v>52400</v>
+        <v>52200</v>
       </c>
       <c r="H10" s="3">
-        <v>61400</v>
+        <v>61100</v>
       </c>
       <c r="I10" s="3">
-        <v>88500</v>
+        <v>88000</v>
       </c>
       <c r="J10" s="3">
-        <v>62600</v>
+        <v>62300</v>
       </c>
       <c r="K10" s="3">
         <v>50500</v>
@@ -959,7 +959,7 @@
         <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="3">
         <v>3200</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>51300</v>
+        <v>51000</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>3700</v>
       </c>
       <c r="F15" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="G15" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="H15" s="3">
         <v>7000</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>45600</v>
+        <v>45400</v>
       </c>
       <c r="E17" s="3">
-        <v>29900</v>
+        <v>29800</v>
       </c>
       <c r="F17" s="3">
-        <v>33100</v>
+        <v>33000</v>
       </c>
       <c r="G17" s="3">
-        <v>95300</v>
+        <v>94800</v>
       </c>
       <c r="H17" s="3">
-        <v>144300</v>
+        <v>143600</v>
       </c>
       <c r="I17" s="3">
-        <v>188700</v>
+        <v>187800</v>
       </c>
       <c r="J17" s="3">
-        <v>186900</v>
+        <v>186000</v>
       </c>
       <c r="K17" s="3">
         <v>115500</v>
@@ -1103,19 +1103,19 @@
         <v>-5900</v>
       </c>
       <c r="F18" s="3">
-        <v>-17800</v>
+        <v>-17700</v>
       </c>
       <c r="G18" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="H18" s="3">
-        <v>-31200</v>
+        <v>-31000</v>
       </c>
       <c r="I18" s="3">
-        <v>-40600</v>
+        <v>-40400</v>
       </c>
       <c r="J18" s="3">
-        <v>-73800</v>
+        <v>-73500</v>
       </c>
       <c r="K18" s="3">
         <v>-14600</v>
@@ -1157,7 +1157,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3600</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
         <v>900</v>
@@ -1169,7 +1169,7 @@
         <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="I20" s="3">
         <v>-6200</v>
@@ -1198,8 +1198,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>1400</v>
       </c>
       <c r="E21" s="3">
         <v>-1300</v>
@@ -1211,13 +1211,13 @@
         <v>700</v>
       </c>
       <c r="H21" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="I21" s="3">
-        <v>-41700</v>
+        <v>-41500</v>
       </c>
       <c r="J21" s="3">
-        <v>-67000</v>
+        <v>-66700</v>
       </c>
       <c r="K21" s="3">
         <v>-11400</v>
@@ -1240,8 +1240,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>2000</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
@@ -1289,19 +1289,19 @@
         <v>-5600</v>
       </c>
       <c r="F23" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="G23" s="3">
         <v>-9300</v>
       </c>
       <c r="H23" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="I23" s="3">
-        <v>-48300</v>
+        <v>-48100</v>
       </c>
       <c r="J23" s="3">
-        <v>-71300</v>
+        <v>-70900</v>
       </c>
       <c r="K23" s="3">
         <v>-15000</v>
@@ -1418,16 +1418,16 @@
         <v>-14400</v>
       </c>
       <c r="G26" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="H26" s="3">
         <v>-14400</v>
       </c>
       <c r="I26" s="3">
-        <v>-49000</v>
+        <v>-48700</v>
       </c>
       <c r="J26" s="3">
-        <v>-71800</v>
+        <v>-71400</v>
       </c>
       <c r="K26" s="3">
         <v>-15000</v>
@@ -1454,22 +1454,22 @@
         <v>-3500</v>
       </c>
       <c r="E27" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="F27" s="3">
         <v>-14200</v>
       </c>
       <c r="G27" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="H27" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="I27" s="3">
-        <v>-48300</v>
+        <v>-48000</v>
       </c>
       <c r="J27" s="3">
-        <v>-71300</v>
+        <v>-71000</v>
       </c>
       <c r="K27" s="3">
         <v>-14700</v>
@@ -1661,7 +1661,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3600</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
         <v>-900</v>
@@ -1673,7 +1673,7 @@
         <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>-19100</v>
+        <v>-19000</v>
       </c>
       <c r="I32" s="3">
         <v>6200</v>
@@ -1706,22 +1706,22 @@
         <v>-3500</v>
       </c>
       <c r="E33" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="F33" s="3">
         <v>-14200</v>
       </c>
       <c r="G33" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="H33" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="I33" s="3">
-        <v>-48300</v>
+        <v>-48000</v>
       </c>
       <c r="J33" s="3">
-        <v>-71300</v>
+        <v>-71000</v>
       </c>
       <c r="K33" s="3">
         <v>-14700</v>
@@ -1790,22 +1790,22 @@
         <v>-3500</v>
       </c>
       <c r="E35" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="F35" s="3">
         <v>-14200</v>
       </c>
       <c r="G35" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="H35" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="I35" s="3">
-        <v>-48300</v>
+        <v>-48000</v>
       </c>
       <c r="J35" s="3">
-        <v>-71300</v>
+        <v>-71000</v>
       </c>
       <c r="K35" s="3">
         <v>-14700</v>
@@ -1915,22 +1915,22 @@
         <v>6100</v>
       </c>
       <c r="E41" s="3">
-        <v>7600</v>
+        <v>9600</v>
       </c>
       <c r="F41" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="G41" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="H41" s="3">
-        <v>21400</v>
+        <v>26000</v>
       </c>
       <c r="I41" s="3">
-        <v>27300</v>
+        <v>29700</v>
       </c>
       <c r="J41" s="3">
-        <v>15300</v>
+        <v>18400</v>
       </c>
       <c r="K41" s="3">
         <v>3200</v>
@@ -1954,7 +1954,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="E42" s="3">
         <v>7700</v>
@@ -1966,13 +1966,13 @@
         <v>12400</v>
       </c>
       <c r="H42" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="I42" s="3">
         <v>12700</v>
       </c>
       <c r="J42" s="3">
-        <v>37000</v>
+        <v>36900</v>
       </c>
       <c r="K42" s="3">
         <v>12500</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40500</v>
+        <v>41100</v>
       </c>
       <c r="E43" s="3">
-        <v>28400</v>
+        <v>26300</v>
       </c>
       <c r="F43" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="G43" s="3">
-        <v>35400</v>
+        <v>34900</v>
       </c>
       <c r="H43" s="3">
-        <v>70800</v>
+        <v>65800</v>
       </c>
       <c r="I43" s="3">
-        <v>55400</v>
+        <v>52600</v>
       </c>
       <c r="J43" s="3">
-        <v>30900</v>
+        <v>27500</v>
       </c>
       <c r="K43" s="3">
         <v>23400</v>
@@ -2080,7 +2080,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="E45" s="3">
         <v>6800</v>
@@ -2092,10 +2092,10 @@
         <v>9700</v>
       </c>
       <c r="H45" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I45" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="J45" s="3">
         <v>8700</v>
@@ -2125,22 +2125,22 @@
         <v>65900</v>
       </c>
       <c r="E46" s="3">
-        <v>50600</v>
+        <v>50300</v>
       </c>
       <c r="F46" s="3">
-        <v>49500</v>
+        <v>49300</v>
       </c>
       <c r="G46" s="3">
-        <v>73800</v>
+        <v>73400</v>
       </c>
       <c r="H46" s="3">
-        <v>117500</v>
+        <v>116900</v>
       </c>
       <c r="I46" s="3">
-        <v>107000</v>
+        <v>106500</v>
       </c>
       <c r="J46" s="3">
-        <v>92100</v>
+        <v>91600</v>
       </c>
       <c r="K46" s="3">
         <v>43800</v>
@@ -2215,7 +2215,7 @@
         <v>5700</v>
       </c>
       <c r="G48" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H48" s="3">
         <v>1900</v>
@@ -2251,22 +2251,22 @@
         <v>9400</v>
       </c>
       <c r="E49" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F49" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="G49" s="3">
-        <v>20600</v>
+        <v>20500</v>
       </c>
       <c r="H49" s="3">
-        <v>27000</v>
+        <v>26900</v>
       </c>
       <c r="I49" s="3">
-        <v>26900</v>
+        <v>26800</v>
       </c>
       <c r="J49" s="3">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="K49" s="3">
         <v>17100</v>
@@ -2374,7 +2374,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E52" s="3">
         <v>2700</v>
@@ -2386,7 +2386,7 @@
         <v>3900</v>
       </c>
       <c r="H52" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="I52" s="3">
         <v>2800</v>
@@ -2461,22 +2461,22 @@
         <v>81400</v>
       </c>
       <c r="E54" s="3">
-        <v>66100</v>
+        <v>65700</v>
       </c>
       <c r="F54" s="3">
-        <v>69500</v>
+        <v>69100</v>
       </c>
       <c r="G54" s="3">
-        <v>105900</v>
+        <v>105400</v>
       </c>
       <c r="H54" s="3">
-        <v>151800</v>
+        <v>151000</v>
       </c>
       <c r="I54" s="3">
-        <v>140400</v>
+        <v>139700</v>
       </c>
       <c r="J54" s="3">
-        <v>115800</v>
+        <v>115200</v>
       </c>
       <c r="K54" s="3">
         <v>64700</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="E57" s="3">
-        <v>29000</v>
+        <v>28800</v>
       </c>
       <c r="F57" s="3">
-        <v>26800</v>
+        <v>26700</v>
       </c>
       <c r="G57" s="3">
-        <v>34600</v>
+        <v>34400</v>
       </c>
       <c r="H57" s="3">
-        <v>63700</v>
+        <v>63300</v>
       </c>
       <c r="I57" s="3">
-        <v>61100</v>
+        <v>60700</v>
       </c>
       <c r="J57" s="3">
-        <v>38100</v>
+        <v>37900</v>
       </c>
       <c r="K57" s="3">
         <v>24800</v>
@@ -2578,16 +2578,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28800</v>
+        <v>28600</v>
       </c>
       <c r="E58" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F58" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G58" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="H58" s="3">
         <v>13900</v>
@@ -2623,22 +2623,22 @@
         <v>14600</v>
       </c>
       <c r="E59" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F59" s="3">
         <v>12700</v>
       </c>
       <c r="G59" s="3">
-        <v>30300</v>
+        <v>30200</v>
       </c>
       <c r="H59" s="3">
-        <v>42400</v>
+        <v>42200</v>
       </c>
       <c r="I59" s="3">
-        <v>63100</v>
+        <v>62800</v>
       </c>
       <c r="J59" s="3">
-        <v>32300</v>
+        <v>32100</v>
       </c>
       <c r="K59" s="3">
         <v>16200</v>
@@ -2665,22 +2665,22 @@
         <v>69500</v>
       </c>
       <c r="E60" s="3">
-        <v>50600</v>
+        <v>50300</v>
       </c>
       <c r="F60" s="3">
-        <v>42000</v>
+        <v>41700</v>
       </c>
       <c r="G60" s="3">
-        <v>77500</v>
+        <v>77100</v>
       </c>
       <c r="H60" s="3">
-        <v>120000</v>
+        <v>119400</v>
       </c>
       <c r="I60" s="3">
-        <v>130100</v>
+        <v>129400</v>
       </c>
       <c r="J60" s="3">
-        <v>70500</v>
+        <v>70200</v>
       </c>
       <c r="K60" s="3">
         <v>42200</v>
@@ -2713,13 +2713,13 @@
         <v>5200</v>
       </c>
       <c r="G61" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="J61" s="3">
         <v>400</v>
@@ -2749,10 +2749,10 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F62" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="G62" s="3">
         <v>4300</v>
@@ -2917,22 +2917,22 @@
         <v>72900</v>
       </c>
       <c r="E66" s="3">
-        <v>55300</v>
+        <v>55000</v>
       </c>
       <c r="F66" s="3">
-        <v>55500</v>
+        <v>55200</v>
       </c>
       <c r="G66" s="3">
-        <v>87800</v>
+        <v>87400</v>
       </c>
       <c r="H66" s="3">
-        <v>123200</v>
+        <v>122600</v>
       </c>
       <c r="I66" s="3">
-        <v>143200</v>
+        <v>142500</v>
       </c>
       <c r="J66" s="3">
-        <v>77800</v>
+        <v>77400</v>
       </c>
       <c r="K66" s="3">
         <v>59500</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-237400</v>
+        <v>-236300</v>
       </c>
       <c r="E72" s="3">
-        <v>-234000</v>
+        <v>-232800</v>
       </c>
       <c r="F72" s="3">
-        <v>-230300</v>
+        <v>-229100</v>
       </c>
       <c r="G72" s="3">
-        <v>-209900</v>
+        <v>-208900</v>
       </c>
       <c r="H72" s="3">
-        <v>-199700</v>
+        <v>-198700</v>
       </c>
       <c r="I72" s="3">
-        <v>-183400</v>
+        <v>-182500</v>
       </c>
       <c r="J72" s="3">
-        <v>-136300</v>
+        <v>-135600</v>
       </c>
       <c r="K72" s="3">
         <v>-70700</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="E76" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="F76" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="G76" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="H76" s="3">
-        <v>28500</v>
+        <v>28400</v>
       </c>
       <c r="I76" s="3">
         <v>-2700</v>
       </c>
       <c r="J76" s="3">
-        <v>37900</v>
+        <v>37700</v>
       </c>
       <c r="K76" s="3">
         <v>5200</v>
@@ -3444,22 +3444,22 @@
         <v>-3500</v>
       </c>
       <c r="E81" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="F81" s="3">
         <v>-14200</v>
       </c>
       <c r="G81" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="H81" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="I81" s="3">
-        <v>-48300</v>
+        <v>-48000</v>
       </c>
       <c r="J81" s="3">
-        <v>-71300</v>
+        <v>-71000</v>
       </c>
       <c r="K81" s="3">
         <v>-14700</v>
@@ -3500,17 +3500,17 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>2300</v>
       </c>
       <c r="E83" s="3">
         <v>3700</v>
       </c>
       <c r="F83" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="G83" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="H83" s="3">
         <v>7000</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-23700</v>
+        <v>-23600</v>
       </c>
       <c r="E89" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="F89" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="G89" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="H89" s="3">
-        <v>-42800</v>
+        <v>-42600</v>
       </c>
       <c r="I89" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="J89" s="3">
-        <v>-19200</v>
+        <v>-19100</v>
       </c>
       <c r="K89" s="3">
         <v>-5600</v>
@@ -3812,8 +3812,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -3951,13 +3951,13 @@
         <v>1200</v>
       </c>
       <c r="H94" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="I94" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="J94" s="3">
-        <v>-28800</v>
+        <v>-28600</v>
       </c>
       <c r="K94" s="3">
         <v>-5700</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="E100" s="3">
         <v>1600</v>
       </c>
       <c r="F100" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="G100" s="3">
         <v>-4000</v>
       </c>
       <c r="H100" s="3">
-        <v>35100</v>
+        <v>34900</v>
       </c>
       <c r="I100" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="J100" s="3">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="K100" s="3">
         <v>13800</v>
@@ -4221,7 +4221,7 @@
         <v>800</v>
       </c>
       <c r="H101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I101" s="3">
         <v>200</v>
@@ -4257,19 +4257,19 @@
         <v>-11000</v>
       </c>
       <c r="F102" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="G102" s="3">
-        <v>-8700</v>
+        <v>-8600</v>
       </c>
       <c r="H102" s="3">
-        <v>-13300</v>
+        <v>-13200</v>
       </c>
       <c r="I102" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="J102" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="K102" s="3">
         <v>2000</v>
